--- a/timeanalysis/Calculos tiempo.xlsx
+++ b/timeanalysis/Calculos tiempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyanalvarez/CLionProjects/Genetica/timeanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E77CA4B-ED11-FC4E-9C37-D26B5E3B9525}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143A257-66AD-B846-8F68-F209B3E1DAC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16080" yWindow="-16560" windowWidth="15040" windowHeight="15240" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
+    <workbookView xWindow="5380" yWindow="-19940" windowWidth="26240" windowHeight="16440" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
   <si>
     <t>Serie</t>
   </si>
@@ -51,7 +51,40 @@
     <t>TOTAL</t>
   </si>
   <si>
-    <t>Total</t>
+    <t>25000 (static,2)</t>
+  </si>
+  <si>
+    <t>25000 (static,1)</t>
+  </si>
+  <si>
+    <t>1000 (static,1)</t>
+  </si>
+  <si>
+    <t>Total (static,1)</t>
+  </si>
+  <si>
+    <t>Total (static,2)</t>
+  </si>
+  <si>
+    <t>1000 (static,2)</t>
+  </si>
+  <si>
+    <t>Total (dynamic,1)</t>
+  </si>
+  <si>
+    <t>1000 (dynamic,1)</t>
+  </si>
+  <si>
+    <t>25000 (dynamic,1)</t>
+  </si>
+  <si>
+    <t>Total (dynamic,2)</t>
+  </si>
+  <si>
+    <t>1000 (dynamic,2)</t>
+  </si>
+  <si>
+    <t>25000 (dynamic,2)</t>
   </si>
 </sst>
 </file>
@@ -59,9 +92,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -79,6 +112,13 @@
     </font>
     <font>
       <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -124,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -132,13 +172,26 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1521,16 +1574,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>474133</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>321733</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>25</xdr:col>
-      <xdr:colOff>67733</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>50799</xdr:rowOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>753533</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>101599</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1855,10 +1908,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561641A-B8C1-2241-9A12-C989CFF7F3DD}">
-  <dimension ref="B1:I34"/>
+  <dimension ref="B1:AJ34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="75" workbookViewId="0">
-      <selection activeCell="C32" sqref="C32"/>
+    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1866,21 +1919,51 @@
     <col min="2" max="2" width="13.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
+    <row r="1" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="K2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
+      <c r="R2" s="5"/>
+      <c r="T2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="U2" s="5"/>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
+      <c r="X2" s="5"/>
+      <c r="Y2" s="5"/>
+      <c r="Z2" s="5"/>
+      <c r="AA2" s="5"/>
+      <c r="AC2" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AD2" s="5"/>
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="5"/>
+      <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
+      <c r="AI2" s="5"/>
+      <c r="AJ2" s="5"/>
     </row>
-    <row r="3" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -1903,8 +1986,74 @@
       <c r="I4" s="1">
         <v>64</v>
       </c>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M4" s="1">
+        <v>2</v>
+      </c>
+      <c r="N4" s="1">
+        <v>4</v>
+      </c>
+      <c r="O4" s="1">
+        <v>8</v>
+      </c>
+      <c r="P4" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>32</v>
+      </c>
+      <c r="R4" s="1">
+        <v>64</v>
+      </c>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>4</v>
+      </c>
+      <c r="X4" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>64</v>
+      </c>
+      <c r="AC4" s="1"/>
+      <c r="AD4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AF4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AH4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AJ4" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
@@ -1917,8 +2066,44 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
+      <c r="K5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>3.194</v>
+      </c>
+      <c r="M5" s="2"/>
+      <c r="N5" s="2"/>
+      <c r="O5" s="2"/>
+      <c r="P5" s="2"/>
+      <c r="Q5" s="2"/>
+      <c r="R5" s="2"/>
+      <c r="T5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U5" s="2">
+        <v>3.194</v>
+      </c>
+      <c r="V5" s="2"/>
+      <c r="W5" s="2"/>
+      <c r="X5" s="2"/>
+      <c r="Y5" s="2"/>
+      <c r="Z5" s="2"/>
+      <c r="AA5" s="2"/>
+      <c r="AC5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD5" s="2">
+        <v>3.194</v>
+      </c>
+      <c r="AE5" s="2"/>
+      <c r="AF5" s="2"/>
+      <c r="AG5" s="2"/>
+      <c r="AH5" s="2"/>
+      <c r="AI5" s="2"/>
+      <c r="AJ5" s="2"/>
     </row>
-    <row r="6" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
@@ -1931,12 +2116,48 @@
       <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
+      <c r="K6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L6" s="2">
+        <v>168.624</v>
+      </c>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="T6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U6" s="2">
+        <v>168.624</v>
+      </c>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AC6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD6" s="2">
+        <v>168.624</v>
+      </c>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
     </row>
-    <row r="7" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="3">
         <v>0.02</v>
       </c>
       <c r="D7" s="2"/>
@@ -1945,8 +2166,44 @@
       <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
+      <c r="K7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="M7" s="2"/>
+      <c r="N7" s="2"/>
+      <c r="O7" s="2"/>
+      <c r="P7" s="2"/>
+      <c r="Q7" s="2"/>
+      <c r="R7" s="2"/>
+      <c r="T7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AC7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD7" s="3">
+        <v>0.02</v>
+      </c>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
     </row>
-    <row r="8" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
@@ -1959,8 +2216,44 @@
       <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
+      <c r="K8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L8" s="2">
+        <v>28.809000000000001</v>
+      </c>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="T8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U8" s="2">
+        <v>28.809000000000001</v>
+      </c>
+      <c r="V8" s="2"/>
+      <c r="W8" s="2"/>
+      <c r="X8" s="2"/>
+      <c r="Y8" s="2"/>
+      <c r="Z8" s="2"/>
+      <c r="AA8" s="2"/>
+      <c r="AC8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD8" s="2">
+        <v>28.809000000000001</v>
+      </c>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
     </row>
-    <row r="9" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
@@ -1973,12 +2266,48 @@
       <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
+      <c r="K9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L9" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="T9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U9" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V9" s="2"/>
+      <c r="W9" s="2"/>
+      <c r="X9" s="2"/>
+      <c r="Y9" s="2"/>
+      <c r="Z9" s="2"/>
+      <c r="AA9" s="2"/>
+      <c r="AC9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD9" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
     </row>
-    <row r="10" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="3">
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
@@ -1987,55 +2316,231 @@
       <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
+      <c r="K10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L10" s="3">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="T10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U10" s="3">
+        <v>0</v>
+      </c>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="2"/>
+      <c r="AC10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD10" s="3">
+        <v>0</v>
+      </c>
+      <c r="AE10" s="2"/>
+      <c r="AF10" s="2"/>
+      <c r="AG10" s="2"/>
+      <c r="AH10" s="2"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
     </row>
-    <row r="11" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="5">
+      <c r="C11" s="4">
         <f>SUM(C5:C10)</f>
         <v>200.64999999999998</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <f>SUM(D5:D10)</f>
         <v>0</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="4">
         <f t="shared" ref="E11:H11" si="0">SUM(E5:E10)</f>
         <v>0</v>
       </c>
-      <c r="F11" s="5">
+      <c r="F11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="G11" s="5">
+      <c r="G11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="H11" s="5">
+      <c r="H11" s="4">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="I11" s="5">
+      <c r="I11" s="4">
         <f>SUM(I5:I10)</f>
         <v>0</v>
       </c>
+      <c r="K11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L11" s="4">
+        <f>SUM(L5:L10)</f>
+        <v>200.64999999999998</v>
+      </c>
+      <c r="M11" s="4">
+        <f>SUM(M5:M10)</f>
+        <v>0</v>
+      </c>
+      <c r="N11" s="4">
+        <f t="shared" ref="N11:Q11" si="1">SUM(N5:N10)</f>
+        <v>0</v>
+      </c>
+      <c r="O11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11" s="4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11" s="4">
+        <f>SUM(R5:R10)</f>
+        <v>0</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U11" s="4">
+        <f>SUM(U5:U10)</f>
+        <v>200.64999999999998</v>
+      </c>
+      <c r="V11" s="4">
+        <f>SUM(V5:V10)</f>
+        <v>0</v>
+      </c>
+      <c r="W11" s="4">
+        <f t="shared" ref="W11:Z11" si="2">SUM(W5:W10)</f>
+        <v>0</v>
+      </c>
+      <c r="X11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Y11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="Z11" s="4">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="AA11" s="4">
+        <f>SUM(AA5:AA10)</f>
+        <v>0</v>
+      </c>
+      <c r="AC11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD11" s="4">
+        <f>SUM(AD5:AD10)</f>
+        <v>200.64999999999998</v>
+      </c>
+      <c r="AE11" s="4">
+        <f>SUM(AE5:AE10)</f>
+        <v>0</v>
+      </c>
+      <c r="AF11" s="4">
+        <f t="shared" ref="AF11:AI11" si="3">SUM(AF5:AF10)</f>
+        <v>0</v>
+      </c>
+      <c r="AG11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AH11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AI11" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="AJ11" s="4">
+        <f>SUM(AJ5:AJ10)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="3">
-        <v>1000</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+    <row r="12" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
+      <c r="K13" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" s="5"/>
+      <c r="M13" s="5"/>
+      <c r="N13" s="5"/>
+      <c r="O13" s="5"/>
+      <c r="P13" s="5"/>
+      <c r="Q13" s="5"/>
+      <c r="R13" s="5"/>
+      <c r="T13" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="U13" s="6"/>
+      <c r="V13" s="6"/>
+      <c r="W13" s="6"/>
+      <c r="X13" s="6"/>
+      <c r="Y13" s="6"/>
+      <c r="Z13" s="6"/>
+      <c r="AA13" s="6"/>
+      <c r="AC13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="AD13" s="6"/>
+      <c r="AE13" s="6"/>
+      <c r="AF13" s="6"/>
+      <c r="AG13" s="6"/>
+      <c r="AH13" s="6"/>
+      <c r="AI13" s="6"/>
+      <c r="AJ13" s="6"/>
     </row>
-    <row r="14" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="15" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T14" s="7"/>
+      <c r="U14" s="7"/>
+      <c r="V14" s="7"/>
+      <c r="W14" s="7"/>
+      <c r="X14" s="7"/>
+      <c r="Y14" s="7"/>
+      <c r="Z14" s="7"/>
+      <c r="AA14" s="7"/>
+      <c r="AC14" s="7"/>
+      <c r="AD14" s="7"/>
+      <c r="AE14" s="7"/>
+      <c r="AF14" s="7"/>
+      <c r="AG14" s="7"/>
+      <c r="AH14" s="7"/>
+      <c r="AI14" s="7"/>
+      <c r="AJ14" s="7"/>
+    </row>
+    <row r="15" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -2058,8 +2563,74 @@
       <c r="I15" s="1">
         <v>64</v>
       </c>
+      <c r="K15" s="1"/>
+      <c r="L15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M15" s="1">
+        <v>2</v>
+      </c>
+      <c r="N15" s="1">
+        <v>4</v>
+      </c>
+      <c r="O15" s="1">
+        <v>8</v>
+      </c>
+      <c r="P15" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>32</v>
+      </c>
+      <c r="R15" s="1">
+        <v>64</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="8">
+        <v>2</v>
+      </c>
+      <c r="W15" s="8">
+        <v>4</v>
+      </c>
+      <c r="X15" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y15" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z15" s="8">
+        <v>32</v>
+      </c>
+      <c r="AA15" s="8">
+        <v>64</v>
+      </c>
+      <c r="AC15" s="8"/>
+      <c r="AD15" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF15" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG15" s="8">
+        <v>8</v>
+      </c>
+      <c r="AH15" s="8">
+        <v>16</v>
+      </c>
+      <c r="AI15" s="8">
+        <v>32</v>
+      </c>
+      <c r="AJ15" s="8">
+        <v>64</v>
+      </c>
     </row>
-    <row r="16" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
@@ -2072,8 +2643,44 @@
       <c r="G16" s="2"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
+      <c r="K16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>1.6E-2</v>
+      </c>
+      <c r="M16" s="2"/>
+      <c r="N16" s="2"/>
+      <c r="O16" s="2"/>
+      <c r="P16" s="2"/>
+      <c r="Q16" s="2"/>
+      <c r="R16" s="2"/>
+      <c r="T16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U16" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
+      <c r="AC16" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="9">
+        <v>1.6E-2</v>
+      </c>
+      <c r="AE16" s="9"/>
+      <c r="AF16" s="9"/>
+      <c r="AG16" s="9"/>
+      <c r="AH16" s="9"/>
+      <c r="AI16" s="9"/>
+      <c r="AJ16" s="9"/>
     </row>
-    <row r="17" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
@@ -2086,12 +2693,48 @@
       <c r="G17" s="2"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
+      <c r="K17" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L17" s="2">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="M17" s="2"/>
+      <c r="N17" s="2"/>
+      <c r="O17" s="2"/>
+      <c r="P17" s="2"/>
+      <c r="Q17" s="2"/>
+      <c r="R17" s="2"/>
+      <c r="T17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U17" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="V17" s="9"/>
+      <c r="W17" s="9"/>
+      <c r="X17" s="9"/>
+      <c r="Y17" s="9"/>
+      <c r="Z17" s="9"/>
+      <c r="AA17" s="9"/>
+      <c r="AC17" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD17" s="9">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="AE17" s="9"/>
+      <c r="AF17" s="9"/>
+      <c r="AG17" s="9"/>
+      <c r="AH17" s="9"/>
+      <c r="AI17" s="9"/>
+      <c r="AJ17" s="9"/>
     </row>
-    <row r="18" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="4">
+      <c r="C18" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D18" s="2"/>
@@ -2100,8 +2743,44 @@
       <c r="G18" s="2"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
+      <c r="K18" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L18" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M18" s="2"/>
+      <c r="N18" s="2"/>
+      <c r="O18" s="2"/>
+      <c r="P18" s="2"/>
+      <c r="Q18" s="2"/>
+      <c r="R18" s="2"/>
+      <c r="T18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U18" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="V18" s="9"/>
+      <c r="W18" s="9"/>
+      <c r="X18" s="9"/>
+      <c r="Y18" s="9"/>
+      <c r="Z18" s="9"/>
+      <c r="AA18" s="9"/>
+      <c r="AC18" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD18" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AE18" s="9"/>
+      <c r="AF18" s="9"/>
+      <c r="AG18" s="9"/>
+      <c r="AH18" s="9"/>
+      <c r="AI18" s="9"/>
+      <c r="AJ18" s="9"/>
     </row>
-    <row r="19" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
@@ -2114,8 +2793,44 @@
       <c r="G19" s="2"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
+      <c r="K19" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L19" s="2">
+        <v>1E-3</v>
+      </c>
+      <c r="M19" s="2"/>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" s="2"/>
+      <c r="Q19" s="2"/>
+      <c r="R19" s="2"/>
+      <c r="T19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U19" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="V19" s="9"/>
+      <c r="W19" s="9"/>
+      <c r="X19" s="9"/>
+      <c r="Y19" s="9"/>
+      <c r="Z19" s="9"/>
+      <c r="AA19" s="9"/>
+      <c r="AC19" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD19" s="9">
+        <v>1E-3</v>
+      </c>
+      <c r="AE19" s="9"/>
+      <c r="AF19" s="9"/>
+      <c r="AG19" s="9"/>
+      <c r="AH19" s="9"/>
+      <c r="AI19" s="9"/>
+      <c r="AJ19" s="9"/>
     </row>
-    <row r="20" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
@@ -2128,12 +2843,48 @@
       <c r="G20" s="2"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
+      <c r="K20" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L20" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M20" s="2"/>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" s="2"/>
+      <c r="Q20" s="2"/>
+      <c r="R20" s="2"/>
+      <c r="T20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U20" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V20" s="9"/>
+      <c r="W20" s="9"/>
+      <c r="X20" s="9"/>
+      <c r="Y20" s="9"/>
+      <c r="Z20" s="9"/>
+      <c r="AA20" s="9"/>
+      <c r="AC20" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD20" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE20" s="9"/>
+      <c r="AF20" s="9"/>
+      <c r="AG20" s="9"/>
+      <c r="AH20" s="9"/>
+      <c r="AI20" s="9"/>
+      <c r="AJ20" s="9"/>
     </row>
-    <row r="21" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="4">
+      <c r="C21" s="3">
         <v>0</v>
       </c>
       <c r="D21" s="2"/>
@@ -2142,55 +2893,248 @@
       <c r="G21" s="2"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
+      <c r="K21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L21" s="3">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2"/>
+      <c r="N21" s="2"/>
+      <c r="O21" s="2"/>
+      <c r="P21" s="2"/>
+      <c r="Q21" s="2"/>
+      <c r="R21" s="2"/>
+      <c r="T21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U21" s="10">
+        <v>0</v>
+      </c>
+      <c r="V21" s="9"/>
+      <c r="W21" s="9"/>
+      <c r="X21" s="9"/>
+      <c r="Y21" s="9"/>
+      <c r="Z21" s="9"/>
+      <c r="AA21" s="9"/>
+      <c r="AC21" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD21" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="9"/>
+      <c r="AF21" s="9"/>
+      <c r="AG21" s="9"/>
+      <c r="AH21" s="9"/>
+      <c r="AI21" s="9"/>
+      <c r="AJ21" s="9"/>
     </row>
-    <row r="22" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="5">
+      <c r="C22" s="4">
         <f>SUM(C16:C21)</f>
         <v>7.3999999999999996E-2</v>
       </c>
-      <c r="D22" s="5">
+      <c r="D22" s="4">
         <f>SUM(D16:D21)</f>
         <v>0</v>
       </c>
-      <c r="E22" s="5">
-        <f t="shared" ref="E22:H22" si="1">SUM(E16:E21)</f>
-        <v>0</v>
-      </c>
-      <c r="F22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="G22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="H22" s="5">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="I22" s="5">
+      <c r="E22" s="4">
+        <f t="shared" ref="E22:H22" si="4">SUM(E16:E21)</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="H22" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I22" s="4">
         <f>SUM(I16:I21)</f>
         <v>0</v>
       </c>
+      <c r="K22" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L22" s="4">
+        <f>SUM(L16:L21)</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="M22" s="4">
+        <f>SUM(M16:M21)</f>
+        <v>0</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" ref="N22:Q22" si="5">SUM(N16:N21)</f>
+        <v>0</v>
+      </c>
+      <c r="O22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="P22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="Q22" s="4">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="R22" s="4">
+        <f>SUM(R16:R21)</f>
+        <v>0</v>
+      </c>
+      <c r="T22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U22" s="9">
+        <f>SUM(U16:U21)</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="V22" s="9">
+        <f>SUM(V16:V21)</f>
+        <v>0</v>
+      </c>
+      <c r="W22" s="9">
+        <f t="shared" ref="W22:Z22" si="6">SUM(W16:W21)</f>
+        <v>0</v>
+      </c>
+      <c r="X22" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Y22" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Z22" s="9">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="AA22" s="9">
+        <f>SUM(AA16:AA21)</f>
+        <v>0</v>
+      </c>
+      <c r="AC22" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD22" s="9">
+        <f>SUM(AD16:AD21)</f>
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="AE22" s="9">
+        <f>SUM(AE16:AE21)</f>
+        <v>0</v>
+      </c>
+      <c r="AF22" s="9">
+        <f t="shared" ref="AF22:AI22" si="7">SUM(AF16:AF21)</f>
+        <v>0</v>
+      </c>
+      <c r="AG22" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AH22" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AI22" s="9">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="AJ22" s="9">
+        <f>SUM(AJ16:AJ21)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="23" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="24" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="3">
-        <v>25000</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
+    <row r="23" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="7"/>
+      <c r="U23" s="7"/>
+      <c r="V23" s="7"/>
+      <c r="W23" s="7"/>
+      <c r="X23" s="7"/>
+      <c r="Y23" s="7"/>
+      <c r="Z23" s="7"/>
+      <c r="AA23" s="7"/>
+      <c r="AC23" s="7"/>
+      <c r="AD23" s="7"/>
+      <c r="AE23" s="7"/>
+      <c r="AF23" s="7"/>
+      <c r="AG23" s="7"/>
+      <c r="AH23" s="7"/>
+      <c r="AI23" s="7"/>
+      <c r="AJ23" s="7"/>
     </row>
-    <row r="25" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="26" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="5"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
+      <c r="F24" s="5"/>
+      <c r="G24" s="5"/>
+      <c r="H24" s="5"/>
+      <c r="I24" s="5"/>
+      <c r="K24" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="L24" s="5"/>
+      <c r="M24" s="5"/>
+      <c r="N24" s="5"/>
+      <c r="O24" s="5"/>
+      <c r="P24" s="5"/>
+      <c r="Q24" s="5"/>
+      <c r="R24" s="5"/>
+      <c r="T24" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="U24" s="6"/>
+      <c r="V24" s="6"/>
+      <c r="W24" s="6"/>
+      <c r="X24" s="6"/>
+      <c r="Y24" s="6"/>
+      <c r="Z24" s="6"/>
+      <c r="AA24" s="6"/>
+      <c r="AC24" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="AD24" s="6"/>
+      <c r="AE24" s="6"/>
+      <c r="AF24" s="6"/>
+      <c r="AG24" s="6"/>
+      <c r="AH24" s="6"/>
+      <c r="AI24" s="6"/>
+      <c r="AJ24" s="6"/>
+    </row>
+    <row r="25" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T25" s="7"/>
+      <c r="U25" s="7"/>
+      <c r="V25" s="7"/>
+      <c r="W25" s="7"/>
+      <c r="X25" s="7"/>
+      <c r="Y25" s="7"/>
+      <c r="Z25" s="7"/>
+      <c r="AA25" s="7"/>
+      <c r="AC25" s="7"/>
+      <c r="AD25" s="7"/>
+      <c r="AE25" s="7"/>
+      <c r="AF25" s="7"/>
+      <c r="AG25" s="7"/>
+      <c r="AH25" s="7"/>
+      <c r="AI25" s="7"/>
+      <c r="AJ25" s="7"/>
+    </row>
+    <row r="26" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="1"/>
       <c r="C26" s="1" t="s">
         <v>0</v>
@@ -2213,8 +3157,74 @@
       <c r="I26" s="1">
         <v>64</v>
       </c>
+      <c r="K26" s="1"/>
+      <c r="L26" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M26" s="1">
+        <v>2</v>
+      </c>
+      <c r="N26" s="1">
+        <v>4</v>
+      </c>
+      <c r="O26" s="1">
+        <v>8</v>
+      </c>
+      <c r="P26" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>32</v>
+      </c>
+      <c r="R26" s="1">
+        <v>64</v>
+      </c>
+      <c r="T26" s="8"/>
+      <c r="U26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="V26" s="8">
+        <v>2</v>
+      </c>
+      <c r="W26" s="8">
+        <v>4</v>
+      </c>
+      <c r="X26" s="8">
+        <v>8</v>
+      </c>
+      <c r="Y26" s="8">
+        <v>16</v>
+      </c>
+      <c r="Z26" s="8">
+        <v>32</v>
+      </c>
+      <c r="AA26" s="8">
+        <v>64</v>
+      </c>
+      <c r="AC26" s="8"/>
+      <c r="AD26" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE26" s="8">
+        <v>2</v>
+      </c>
+      <c r="AF26" s="8">
+        <v>4</v>
+      </c>
+      <c r="AG26" s="8">
+        <v>8</v>
+      </c>
+      <c r="AH26" s="8">
+        <v>16</v>
+      </c>
+      <c r="AI26" s="8">
+        <v>32</v>
+      </c>
+      <c r="AJ26" s="8">
+        <v>64</v>
+      </c>
     </row>
-    <row r="27" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B27" s="1" t="s">
         <v>1</v>
       </c>
@@ -2227,26 +3237,146 @@
       <c r="G27" s="2"/>
       <c r="H27" s="2"/>
       <c r="I27" s="2"/>
+      <c r="K27" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0.379</v>
+      </c>
+      <c r="M27" s="2"/>
+      <c r="N27" s="2"/>
+      <c r="O27" s="2"/>
+      <c r="P27" s="2"/>
+      <c r="Q27" s="2"/>
+      <c r="R27" s="2"/>
+      <c r="T27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="U27" s="9">
+        <v>0.379</v>
+      </c>
+      <c r="V27" s="9"/>
+      <c r="W27" s="9"/>
+      <c r="X27" s="9"/>
+      <c r="Y27" s="9"/>
+      <c r="Z27" s="9"/>
+      <c r="AA27" s="9"/>
+      <c r="AC27" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="9">
+        <v>0.379</v>
+      </c>
+      <c r="AE27" s="9"/>
+      <c r="AF27" s="9"/>
+      <c r="AG27" s="9"/>
+      <c r="AH27" s="9"/>
+      <c r="AI27" s="9"/>
+      <c r="AJ27" s="9"/>
     </row>
-    <row r="28" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B28" s="1" t="s">
         <v>2</v>
       </c>
       <c r="C28" s="2">
         <v>7.5910000000000002</v>
       </c>
-      <c r="D28" s="2"/>
-      <c r="E28" s="2"/>
-      <c r="F28" s="2"/>
-      <c r="G28" s="2"/>
-      <c r="H28" s="2"/>
-      <c r="I28" s="2"/>
+      <c r="D28" s="2">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="E28" s="2">
+        <v>1.962</v>
+      </c>
+      <c r="F28" s="2">
+        <v>1.008</v>
+      </c>
+      <c r="G28" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="I28" s="2">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="K28" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L28" s="2">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="M28" s="2">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="N28" s="2">
+        <v>1.962</v>
+      </c>
+      <c r="O28" s="2">
+        <v>1.008</v>
+      </c>
+      <c r="P28" s="3">
+        <v>0.53</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0.312</v>
+      </c>
+      <c r="R28" s="2">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="T28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="U28" s="9">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="V28" s="9">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="W28" s="9">
+        <v>1.962</v>
+      </c>
+      <c r="X28" s="9">
+        <v>1.008</v>
+      </c>
+      <c r="Y28" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="Z28" s="9">
+        <v>0.312</v>
+      </c>
+      <c r="AA28" s="9">
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="AC28" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="AD28" s="9">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="AE28" s="9">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="AF28" s="9">
+        <v>1.962</v>
+      </c>
+      <c r="AG28" s="9">
+        <v>1.008</v>
+      </c>
+      <c r="AH28" s="10">
+        <v>0.53</v>
+      </c>
+      <c r="AI28" s="9">
+        <v>0.312</v>
+      </c>
+      <c r="AJ28" s="9">
+        <v>1.1419999999999999</v>
+      </c>
     </row>
-    <row r="29" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C29" s="4">
+      <c r="C29" s="3">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D29" s="2"/>
@@ -2255,8 +3385,44 @@
       <c r="G29" s="2"/>
       <c r="H29" s="2"/>
       <c r="I29" s="2"/>
+      <c r="K29" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L29" s="3">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M29" s="2"/>
+      <c r="N29" s="2"/>
+      <c r="O29" s="2"/>
+      <c r="P29" s="2"/>
+      <c r="Q29" s="2"/>
+      <c r="R29" s="2"/>
+      <c r="T29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="U29" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="V29" s="9"/>
+      <c r="W29" s="9"/>
+      <c r="X29" s="9"/>
+      <c r="Y29" s="9"/>
+      <c r="Z29" s="9"/>
+      <c r="AA29" s="9"/>
+      <c r="AC29" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="AD29" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AE29" s="9"/>
+      <c r="AF29" s="9"/>
+      <c r="AG29" s="9"/>
+      <c r="AH29" s="9"/>
+      <c r="AI29" s="9"/>
+      <c r="AJ29" s="9"/>
     </row>
-    <row r="30" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
         <v>4</v>
       </c>
@@ -2269,8 +3435,44 @@
       <c r="G30" s="2"/>
       <c r="H30" s="2"/>
       <c r="I30" s="2"/>
+      <c r="K30" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M30" s="2"/>
+      <c r="N30" s="2"/>
+      <c r="O30" s="2"/>
+      <c r="P30" s="2"/>
+      <c r="Q30" s="2"/>
+      <c r="R30" s="2"/>
+      <c r="T30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="U30" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="V30" s="9"/>
+      <c r="W30" s="9"/>
+      <c r="X30" s="9"/>
+      <c r="Y30" s="9"/>
+      <c r="Z30" s="9"/>
+      <c r="AA30" s="9"/>
+      <c r="AC30" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="AD30" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="AE30" s="9"/>
+      <c r="AF30" s="9"/>
+      <c r="AG30" s="9"/>
+      <c r="AH30" s="9"/>
+      <c r="AI30" s="9"/>
+      <c r="AJ30" s="9"/>
     </row>
-    <row r="31" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
         <v>5</v>
       </c>
@@ -2283,12 +3485,48 @@
       <c r="G31" s="2"/>
       <c r="H31" s="2"/>
       <c r="I31" s="2"/>
+      <c r="K31" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L31" s="2">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M31" s="2"/>
+      <c r="N31" s="2"/>
+      <c r="O31" s="2"/>
+      <c r="P31" s="2"/>
+      <c r="Q31" s="2"/>
+      <c r="R31" s="2"/>
+      <c r="T31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="U31" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V31" s="9"/>
+      <c r="W31" s="9"/>
+      <c r="X31" s="9"/>
+      <c r="Y31" s="9"/>
+      <c r="Z31" s="9"/>
+      <c r="AA31" s="9"/>
+      <c r="AC31" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD31" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AE31" s="9"/>
+      <c r="AF31" s="9"/>
+      <c r="AG31" s="9"/>
+      <c r="AH31" s="9"/>
+      <c r="AI31" s="9"/>
+      <c r="AJ31" s="9"/>
     </row>
-    <row r="32" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C32" s="4">
+      <c r="C32" s="3">
         <v>0</v>
       </c>
       <c r="D32" s="2"/>
@@ -2297,46 +3535,184 @@
       <c r="G32" s="2"/>
       <c r="H32" s="2"/>
       <c r="I32" s="2"/>
+      <c r="K32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L32" s="3">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2"/>
+      <c r="N32" s="2"/>
+      <c r="O32" s="2"/>
+      <c r="P32" s="2"/>
+      <c r="Q32" s="2"/>
+      <c r="R32" s="2"/>
+      <c r="T32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="U32" s="10">
+        <v>0</v>
+      </c>
+      <c r="V32" s="9"/>
+      <c r="W32" s="9"/>
+      <c r="X32" s="9"/>
+      <c r="Y32" s="9"/>
+      <c r="Z32" s="9"/>
+      <c r="AA32" s="9"/>
+      <c r="AC32" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="AD32" s="10">
+        <v>0</v>
+      </c>
+      <c r="AE32" s="9"/>
+      <c r="AF32" s="9"/>
+      <c r="AG32" s="9"/>
+      <c r="AH32" s="9"/>
+      <c r="AI32" s="9"/>
+      <c r="AJ32" s="9"/>
     </row>
-    <row r="33" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C33" s="5">
+      <c r="C33" s="4">
         <f>SUM(C27:C32)</f>
         <v>8.5780000000000012</v>
       </c>
-      <c r="D33" s="5">
+      <c r="D33" s="4">
         <f>SUM(D27:D32)</f>
-        <v>0</v>
-      </c>
-      <c r="E33" s="5">
-        <f t="shared" ref="E33:H33" si="2">SUM(E27:E32)</f>
-        <v>0</v>
-      </c>
-      <c r="F33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="G33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="H33" s="5">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="I33" s="5">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="E33" s="4">
+        <f t="shared" ref="E33:H33" si="8">SUM(E27:E32)</f>
+        <v>1.962</v>
+      </c>
+      <c r="F33" s="4">
+        <f t="shared" si="8"/>
+        <v>1.008</v>
+      </c>
+      <c r="G33" s="4">
+        <f t="shared" si="8"/>
+        <v>0.53</v>
+      </c>
+      <c r="H33" s="4">
+        <f t="shared" si="8"/>
+        <v>0.312</v>
+      </c>
+      <c r="I33" s="4">
         <f>SUM(I27:I32)</f>
-        <v>0</v>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L33" s="4">
+        <f>SUM(L27:L32)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="M33" s="4">
+        <f>SUM(M27:M32)</f>
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="N33" s="4">
+        <f t="shared" ref="N33:Q33" si="9">SUM(N27:N32)</f>
+        <v>1.962</v>
+      </c>
+      <c r="O33" s="4">
+        <f t="shared" si="9"/>
+        <v>1.008</v>
+      </c>
+      <c r="P33" s="4">
+        <f t="shared" si="9"/>
+        <v>0.53</v>
+      </c>
+      <c r="Q33" s="4">
+        <f t="shared" si="9"/>
+        <v>0.312</v>
+      </c>
+      <c r="R33" s="4">
+        <f>SUM(R27:R32)</f>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="T33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="U33" s="9">
+        <f>SUM(U27:U32)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="V33" s="9">
+        <f>SUM(V27:V32)</f>
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="W33" s="9">
+        <f t="shared" ref="W33:Z33" si="10">SUM(W27:W32)</f>
+        <v>1.962</v>
+      </c>
+      <c r="X33" s="9">
+        <f t="shared" si="10"/>
+        <v>1.008</v>
+      </c>
+      <c r="Y33" s="9">
+        <f t="shared" si="10"/>
+        <v>0.53</v>
+      </c>
+      <c r="Z33" s="9">
+        <f t="shared" si="10"/>
+        <v>0.312</v>
+      </c>
+      <c r="AA33" s="9">
+        <f>SUM(AA27:AA32)</f>
+        <v>1.1419999999999999</v>
+      </c>
+      <c r="AC33" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="AD33" s="9">
+        <f>SUM(AD27:AD32)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="AE33" s="9">
+        <f>SUM(AE27:AE32)</f>
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="AF33" s="9">
+        <f t="shared" ref="AF33:AI33" si="11">SUM(AF27:AF32)</f>
+        <v>1.962</v>
+      </c>
+      <c r="AG33" s="9">
+        <f t="shared" si="11"/>
+        <v>1.008</v>
+      </c>
+      <c r="AH33" s="9">
+        <f t="shared" si="11"/>
+        <v>0.53</v>
+      </c>
+      <c r="AI33" s="9">
+        <f t="shared" si="11"/>
+        <v>0.312</v>
+      </c>
+      <c r="AJ33" s="9">
+        <f>SUM(AJ27:AJ32)</f>
+        <v>1.1419999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="34" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="12">
+    <mergeCell ref="T13:AA13"/>
+    <mergeCell ref="T24:AA24"/>
+    <mergeCell ref="K2:R2"/>
+    <mergeCell ref="T2:AA2"/>
+    <mergeCell ref="AC2:AJ2"/>
+    <mergeCell ref="AC13:AJ13"/>
+    <mergeCell ref="AC24:AJ24"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B13:I13"/>
     <mergeCell ref="B24:I24"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K24:R24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/timeanalysis/Calculos tiempo.xlsx
+++ b/timeanalysis/Calculos tiempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyanalvarez/CLionProjects/Genetica/timeanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5143A257-66AD-B846-8F68-F209B3E1DAC2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCB673-116E-B04B-8AA6-71030C50F2D6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5380" yWindow="-19940" windowWidth="26240" windowHeight="16440" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="18">
   <si>
     <t>Serie</t>
   </si>
@@ -51,13 +51,16 @@
     <t>TOTAL</t>
   </si>
   <si>
+    <t>Total (static)</t>
+  </si>
+  <si>
+    <t>25000 (static)</t>
+  </si>
+  <si>
     <t>25000 (static,2)</t>
   </si>
   <si>
     <t>25000 (static,1)</t>
-  </si>
-  <si>
-    <t>1000 (static,1)</t>
   </si>
   <si>
     <t>Total (static,1)</t>
@@ -66,22 +69,13 @@
     <t>Total (static,2)</t>
   </si>
   <si>
-    <t>1000 (static,2)</t>
-  </si>
-  <si>
     <t>Total (dynamic,1)</t>
-  </si>
-  <si>
-    <t>1000 (dynamic,1)</t>
   </si>
   <si>
     <t>25000 (dynamic,1)</t>
   </si>
   <si>
     <t>Total (dynamic,2)</t>
-  </si>
-  <si>
-    <t>1000 (dynamic,2)</t>
   </si>
   <si>
     <t>25000 (dynamic,2)</t>
@@ -94,7 +88,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -118,15 +112,8 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -151,6 +138,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -164,7 +169,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -181,9 +186,6 @@
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -194,12 +196,41 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FFE8E6E6"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1574,16 +1605,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>321733</xdr:colOff>
-      <xdr:row>37</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>651933</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>753533</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>101599</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>245533</xdr:colOff>
+      <xdr:row>58</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1908,21 +1939,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561641A-B8C1-2241-9A12-C989CFF7F3DD}">
-  <dimension ref="B1:AJ34"/>
+  <dimension ref="B1:AS23"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="50" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="AA4" zoomScale="115" workbookViewId="0">
+      <selection activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="13.5" customWidth="1"/>
+    <col min="2" max="2" width="15.83203125" customWidth="1"/>
+    <col min="11" max="11" width="15.83203125" customWidth="1"/>
+    <col min="20" max="20" width="15.83203125" customWidth="1"/>
+    <col min="29" max="29" width="15.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="5" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" s="5"/>
@@ -1942,7 +1976,7 @@
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="T2" s="5" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="U2" s="5"/>
       <c r="V2" s="5"/>
@@ -1952,7 +1986,7 @@
       <c r="Z2" s="5"/>
       <c r="AA2" s="5"/>
       <c r="AC2" s="5" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AD2" s="5"/>
       <c r="AE2" s="5"/>
@@ -1961,9 +1995,19 @@
       <c r="AH2" s="5"/>
       <c r="AI2" s="5"/>
       <c r="AJ2" s="5"/>
+      <c r="AL2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM2" s="5"/>
+      <c r="AN2" s="5"/>
+      <c r="AO2" s="5"/>
+      <c r="AP2" s="5"/>
+      <c r="AQ2" s="5"/>
+      <c r="AR2" s="5"/>
+      <c r="AS2" s="5"/>
     </row>
-    <row r="3" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="1"/>
       <c r="C4" s="1" t="s">
         <v>0</v>
@@ -2052,12 +2096,34 @@
       <c r="AJ4" s="1">
         <v>64</v>
       </c>
+      <c r="AL4" s="1"/>
+      <c r="AM4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AO4" s="1">
+        <v>4</v>
+      </c>
+      <c r="AP4" s="1">
+        <v>8</v>
+      </c>
+      <c r="AQ4" s="1">
+        <v>16</v>
+      </c>
+      <c r="AR4" s="1">
+        <v>32</v>
+      </c>
+      <c r="AS4" s="1">
+        <v>64</v>
+      </c>
     </row>
-    <row r="5" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="2">
+      <c r="C5" s="10">
         <v>3.194</v>
       </c>
       <c r="D5" s="2"/>
@@ -2069,7 +2135,7 @@
       <c r="K5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="10">
         <v>3.194</v>
       </c>
       <c r="M5" s="2"/>
@@ -2081,7 +2147,7 @@
       <c r="T5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="10">
         <v>3.194</v>
       </c>
       <c r="V5" s="2"/>
@@ -2093,7 +2159,7 @@
       <c r="AC5" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="10">
         <v>3.194</v>
       </c>
       <c r="AE5" s="2"/>
@@ -2102,12 +2168,24 @@
       <c r="AH5" s="2"/>
       <c r="AI5" s="2"/>
       <c r="AJ5" s="2"/>
+      <c r="AL5" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM5" s="10">
+        <v>3.194</v>
+      </c>
+      <c r="AN5" s="2"/>
+      <c r="AO5" s="2"/>
+      <c r="AP5" s="2"/>
+      <c r="AQ5" s="2"/>
+      <c r="AR5" s="2"/>
+      <c r="AS5" s="2"/>
     </row>
-    <row r="6" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="2">
+      <c r="C6" s="10">
         <v>168.624</v>
       </c>
       <c r="D6" s="2"/>
@@ -2119,7 +2197,7 @@
       <c r="K6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L6" s="2">
+      <c r="L6" s="10">
         <v>168.624</v>
       </c>
       <c r="M6" s="2"/>
@@ -2131,7 +2209,7 @@
       <c r="T6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U6" s="2">
+      <c r="U6" s="10">
         <v>168.624</v>
       </c>
       <c r="V6" s="2"/>
@@ -2143,7 +2221,7 @@
       <c r="AC6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AD6" s="2">
+      <c r="AD6" s="10">
         <v>168.624</v>
       </c>
       <c r="AE6" s="2"/>
@@ -2152,12 +2230,24 @@
       <c r="AH6" s="2"/>
       <c r="AI6" s="2"/>
       <c r="AJ6" s="2"/>
+      <c r="AL6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM6" s="10">
+        <v>168.624</v>
+      </c>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
     </row>
-    <row r="7" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="11">
         <v>0.02</v>
       </c>
       <c r="D7" s="2"/>
@@ -2169,7 +2259,7 @@
       <c r="K7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L7" s="3">
+      <c r="L7" s="11">
         <v>0.02</v>
       </c>
       <c r="M7" s="2"/>
@@ -2181,7 +2271,7 @@
       <c r="T7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U7" s="3">
+      <c r="U7" s="11">
         <v>0.02</v>
       </c>
       <c r="V7" s="2"/>
@@ -2193,7 +2283,7 @@
       <c r="AC7" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="AD7" s="3">
+      <c r="AD7" s="11">
         <v>0.02</v>
       </c>
       <c r="AE7" s="2"/>
@@ -2202,12 +2292,24 @@
       <c r="AH7" s="2"/>
       <c r="AI7" s="2"/>
       <c r="AJ7" s="2"/>
+      <c r="AL7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM7" s="11">
+        <v>0.02</v>
+      </c>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
     </row>
-    <row r="8" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8" s="10">
         <v>28.809000000000001</v>
       </c>
       <c r="D8" s="2"/>
@@ -2219,7 +2321,7 @@
       <c r="K8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L8" s="2">
+      <c r="L8" s="10">
         <v>28.809000000000001</v>
       </c>
       <c r="M8" s="2"/>
@@ -2231,7 +2333,7 @@
       <c r="T8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U8" s="2">
+      <c r="U8" s="10">
         <v>28.809000000000001</v>
       </c>
       <c r="V8" s="2"/>
@@ -2243,7 +2345,7 @@
       <c r="AC8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AD8" s="2">
+      <c r="AD8" s="10">
         <v>28.809000000000001</v>
       </c>
       <c r="AE8" s="2"/>
@@ -2252,12 +2354,24 @@
       <c r="AH8" s="2"/>
       <c r="AI8" s="2"/>
       <c r="AJ8" s="2"/>
+      <c r="AL8" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM8" s="10">
+        <v>28.809000000000001</v>
+      </c>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
     </row>
-    <row r="9" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="2">
+      <c r="C9" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D9" s="2"/>
@@ -2269,7 +2383,7 @@
       <c r="K9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L9" s="2">
+      <c r="L9" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M9" s="2"/>
@@ -2281,7 +2395,7 @@
       <c r="T9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U9" s="2">
+      <c r="U9" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="V9" s="2"/>
@@ -2293,7 +2407,7 @@
       <c r="AC9" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="AD9" s="2">
+      <c r="AD9" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="AE9" s="2"/>
@@ -2302,12 +2416,24 @@
       <c r="AH9" s="2"/>
       <c r="AI9" s="2"/>
       <c r="AJ9" s="2"/>
+      <c r="AL9" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM9" s="10">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
     </row>
-    <row r="10" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C10" s="3">
+      <c r="C10" s="11">
         <v>0</v>
       </c>
       <c r="D10" s="2"/>
@@ -2319,7 +2445,7 @@
       <c r="K10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10" s="11">
         <v>0</v>
       </c>
       <c r="M10" s="2"/>
@@ -2331,7 +2457,7 @@
       <c r="T10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U10" s="3">
+      <c r="U10" s="11">
         <v>0</v>
       </c>
       <c r="V10" s="2"/>
@@ -2343,7 +2469,7 @@
       <c r="AC10" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="AD10" s="3">
+      <c r="AD10" s="11">
         <v>0</v>
       </c>
       <c r="AE10" s="2"/>
@@ -2352,12 +2478,24 @@
       <c r="AH10" s="2"/>
       <c r="AI10" s="2"/>
       <c r="AJ10" s="2"/>
+      <c r="AL10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM10" s="11">
+        <v>0</v>
+      </c>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
     </row>
-    <row r="11" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="12">
         <f>SUM(C5:C10)</f>
         <v>200.64999999999998</v>
       </c>
@@ -2388,7 +2526,7 @@
       <c r="K11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L11" s="4">
+      <c r="L11" s="12">
         <f>SUM(L5:L10)</f>
         <v>200.64999999999998</v>
       </c>
@@ -2397,7 +2535,7 @@
         <v>0</v>
       </c>
       <c r="N11" s="4">
-        <f t="shared" ref="N11:Q11" si="1">SUM(N5:N10)</f>
+        <f t="shared" ref="N11:T11" si="1">SUM(N5:N10)</f>
         <v>0</v>
       </c>
       <c r="O11" s="4">
@@ -2419,7 +2557,7 @@
       <c r="T11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U11" s="4">
+      <c r="U11" s="12">
         <f>SUM(U5:U10)</f>
         <v>200.64999999999998</v>
       </c>
@@ -2428,7 +2566,7 @@
         <v>0</v>
       </c>
       <c r="W11" s="4">
-        <f t="shared" ref="W11:Z11" si="2">SUM(W5:W10)</f>
+        <f t="shared" ref="W11:AC11" si="2">SUM(W5:W10)</f>
         <v>0</v>
       </c>
       <c r="X11" s="4">
@@ -2450,7 +2588,7 @@
       <c r="AC11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="AD11" s="4">
+      <c r="AD11" s="12">
         <f>SUM(AD5:AD10)</f>
         <v>200.64999999999998</v>
       </c>
@@ -2459,7 +2597,7 @@
         <v>0</v>
       </c>
       <c r="AF11" s="4">
-        <f t="shared" ref="AF11:AI11" si="3">SUM(AF5:AF10)</f>
+        <f t="shared" ref="AF11:AL11" si="3">SUM(AF5:AF10)</f>
         <v>0</v>
       </c>
       <c r="AG11" s="4">
@@ -2478,11 +2616,42 @@
         <f>SUM(AJ5:AJ10)</f>
         <v>0</v>
       </c>
+      <c r="AL11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="AM11" s="12">
+        <f>SUM(AM5:AM10)</f>
+        <v>200.64999999999998</v>
+      </c>
+      <c r="AN11" s="4">
+        <f>SUM(AN5:AN10)</f>
+        <v>0</v>
+      </c>
+      <c r="AO11" s="4">
+        <f t="shared" ref="AO11:AS11" si="4">SUM(AO5:AO10)</f>
+        <v>0</v>
+      </c>
+      <c r="AP11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AR11" s="4">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="AS11" s="4">
+        <f>SUM(AS5:AS10)</f>
+        <v>0</v>
+      </c>
     </row>
-    <row r="12" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="13" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="13" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2492,7 +2661,7 @@
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="K13" s="5" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="L13" s="5"/>
       <c r="M13" s="5"/>
@@ -2501,46 +2670,56 @@
       <c r="P13" s="5"/>
       <c r="Q13" s="5"/>
       <c r="R13" s="5"/>
-      <c r="T13" s="6" t="s">
+      <c r="T13" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="U13" s="5"/>
+      <c r="V13" s="5"/>
+      <c r="W13" s="5"/>
+      <c r="X13" s="5"/>
+      <c r="Y13" s="5"/>
+      <c r="Z13" s="5"/>
+      <c r="AA13" s="5"/>
+      <c r="AC13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="U13" s="6"/>
-      <c r="V13" s="6"/>
-      <c r="W13" s="6"/>
-      <c r="X13" s="6"/>
-      <c r="Y13" s="6"/>
-      <c r="Z13" s="6"/>
-      <c r="AA13" s="6"/>
-      <c r="AC13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="AD13" s="6"/>
-      <c r="AE13" s="6"/>
-      <c r="AF13" s="6"/>
-      <c r="AG13" s="6"/>
-      <c r="AH13" s="6"/>
-      <c r="AI13" s="6"/>
-      <c r="AJ13" s="6"/>
+      <c r="AD13" s="5"/>
+      <c r="AE13" s="5"/>
+      <c r="AF13" s="5"/>
+      <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
+      <c r="AI13" s="5"/>
+      <c r="AJ13" s="5"/>
+      <c r="AL13" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="AM13" s="5"/>
+      <c r="AN13" s="5"/>
+      <c r="AO13" s="5"/>
+      <c r="AP13" s="5"/>
+      <c r="AQ13" s="5"/>
+      <c r="AR13" s="5"/>
+      <c r="AS13" s="5"/>
     </row>
-    <row r="14" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T14" s="7"/>
-      <c r="U14" s="7"/>
-      <c r="V14" s="7"/>
-      <c r="W14" s="7"/>
-      <c r="X14" s="7"/>
-      <c r="Y14" s="7"/>
-      <c r="Z14" s="7"/>
-      <c r="AA14" s="7"/>
-      <c r="AC14" s="7"/>
-      <c r="AD14" s="7"/>
-      <c r="AE14" s="7"/>
-      <c r="AF14" s="7"/>
-      <c r="AG14" s="7"/>
-      <c r="AH14" s="7"/>
-      <c r="AI14" s="7"/>
-      <c r="AJ14" s="7"/>
+    <row r="14" spans="2:45" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC14" s="6"/>
+      <c r="AD14" s="6"/>
+      <c r="AE14" s="6"/>
+      <c r="AF14" s="6"/>
+      <c r="AG14" s="6"/>
+      <c r="AH14" s="6"/>
+      <c r="AI14" s="6"/>
+      <c r="AJ14" s="6"/>
+      <c r="AL14" s="6"/>
+      <c r="AM14" s="6"/>
+      <c r="AN14" s="6"/>
+      <c r="AO14" s="6"/>
+      <c r="AP14" s="6"/>
+      <c r="AQ14" s="6"/>
+      <c r="AR14" s="6"/>
+      <c r="AS14" s="6"/>
     </row>
-    <row r="15" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="1"/>
       <c r="C15" s="1" t="s">
         <v>0</v>
@@ -2585,57 +2764,79 @@
       <c r="R15" s="1">
         <v>64</v>
       </c>
-      <c r="T15" s="8"/>
-      <c r="U15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="V15" s="8">
+      <c r="T15" s="1"/>
+      <c r="U15" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V15" s="1">
         <v>2</v>
       </c>
-      <c r="W15" s="8">
+      <c r="W15" s="1">
         <v>4</v>
       </c>
-      <c r="X15" s="8">
+      <c r="X15" s="1">
         <v>8</v>
       </c>
-      <c r="Y15" s="8">
+      <c r="Y15" s="1">
         <v>16</v>
       </c>
-      <c r="Z15" s="8">
+      <c r="Z15" s="1">
         <v>32</v>
       </c>
-      <c r="AA15" s="8">
+      <c r="AA15" s="1">
         <v>64</v>
       </c>
-      <c r="AC15" s="8"/>
-      <c r="AD15" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE15" s="8">
+      <c r="AC15" s="7"/>
+      <c r="AD15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AE15" s="7">
         <v>2</v>
       </c>
-      <c r="AF15" s="8">
+      <c r="AF15" s="7">
         <v>4</v>
       </c>
-      <c r="AG15" s="8">
+      <c r="AG15" s="7">
         <v>8</v>
       </c>
-      <c r="AH15" s="8">
+      <c r="AH15" s="7">
         <v>16</v>
       </c>
-      <c r="AI15" s="8">
+      <c r="AI15" s="7">
         <v>32</v>
       </c>
-      <c r="AJ15" s="8">
+      <c r="AJ15" s="7">
         <v>64</v>
       </c>
+      <c r="AL15" s="7"/>
+      <c r="AM15" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="AN15" s="7">
+        <v>2</v>
+      </c>
+      <c r="AO15" s="7">
+        <v>4</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>8</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>16</v>
+      </c>
+      <c r="AR15" s="7">
+        <v>32</v>
+      </c>
+      <c r="AS15" s="7">
+        <v>64</v>
+      </c>
     </row>
-    <row r="16" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C16" s="2">
-        <v>1.6E-2</v>
+      <c r="C16" s="10">
+        <v>0.379</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2"/>
@@ -2646,8 +2847,8 @@
       <c r="K16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="L16" s="2">
-        <v>1.6E-2</v>
+      <c r="L16" s="10">
+        <v>0.379</v>
       </c>
       <c r="M16" s="2"/>
       <c r="N16" s="2"/>
@@ -2655,86 +2856,170 @@
       <c r="P16" s="2"/>
       <c r="Q16" s="2"/>
       <c r="R16" s="2"/>
-      <c r="T16" s="8" t="s">
+      <c r="T16" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="U16" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="V16" s="9"/>
-      <c r="W16" s="9"/>
-      <c r="X16" s="9"/>
-      <c r="Y16" s="9"/>
-      <c r="Z16" s="9"/>
-      <c r="AA16" s="9"/>
-      <c r="AC16" s="8" t="s">
+      <c r="U16" s="10">
+        <v>0.379</v>
+      </c>
+      <c r="V16" s="2"/>
+      <c r="W16" s="2"/>
+      <c r="X16" s="2"/>
+      <c r="Y16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AA16" s="2"/>
+      <c r="AC16" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="AD16" s="9">
-        <v>1.6E-2</v>
-      </c>
-      <c r="AE16" s="9"/>
-      <c r="AF16" s="9"/>
-      <c r="AG16" s="9"/>
-      <c r="AH16" s="9"/>
-      <c r="AI16" s="9"/>
-      <c r="AJ16" s="9"/>
+      <c r="AD16" s="13">
+        <v>0.379</v>
+      </c>
+      <c r="AE16" s="8"/>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8"/>
+      <c r="AI16" s="8"/>
+      <c r="AJ16" s="8"/>
+      <c r="AL16" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="AM16" s="13">
+        <v>0.379</v>
+      </c>
+      <c r="AN16" s="8"/>
+      <c r="AO16" s="8"/>
+      <c r="AP16" s="8"/>
+      <c r="AQ16" s="8"/>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
     </row>
-    <row r="17" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C17" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="D17" s="2"/>
-      <c r="E17" s="2"/>
-      <c r="F17" s="2"/>
-      <c r="G17" s="2"/>
-      <c r="H17" s="2"/>
-      <c r="I17" s="2"/>
+      <c r="C17" s="10">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="D17" s="2">
+        <v>3.7629999999999999</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1.974</v>
+      </c>
+      <c r="F17" s="2">
+        <v>0.98799999999999999</v>
+      </c>
+      <c r="G17" s="15">
+        <v>0.51900000000000002</v>
+      </c>
+      <c r="H17" s="16">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="I17" s="2">
+        <v>1.2030000000000001</v>
+      </c>
       <c r="K17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L17" s="2">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="M17" s="2"/>
-      <c r="N17" s="2"/>
-      <c r="O17" s="2"/>
-      <c r="P17" s="2"/>
-      <c r="Q17" s="2"/>
-      <c r="R17" s="2"/>
-      <c r="T17" s="8" t="s">
+      <c r="L17" s="10">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="M17" s="2">
+        <v>3.8029999999999999</v>
+      </c>
+      <c r="N17" s="2">
+        <v>1.929</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="P17" s="3">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>0.40600000000000003</v>
+      </c>
+      <c r="R17" s="2">
+        <v>1.135</v>
+      </c>
+      <c r="T17" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="U17" s="9">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="V17" s="9"/>
-      <c r="W17" s="9"/>
-      <c r="X17" s="9"/>
-      <c r="Y17" s="9"/>
-      <c r="Z17" s="9"/>
-      <c r="AA17" s="9"/>
-      <c r="AC17" s="8" t="s">
+      <c r="U17" s="10">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="V17" s="2">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="W17" s="3">
+        <v>1.93</v>
+      </c>
+      <c r="X17" s="2">
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="Y17" s="3">
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="Z17" s="3">
+        <v>0.4</v>
+      </c>
+      <c r="AA17" s="2">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="AC17" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="AD17" s="9">
-        <v>3.5999999999999997E-2</v>
-      </c>
-      <c r="AE17" s="9"/>
-      <c r="AF17" s="9"/>
-      <c r="AG17" s="9"/>
-      <c r="AH17" s="9"/>
-      <c r="AI17" s="9"/>
-      <c r="AJ17" s="9"/>
+      <c r="AD17" s="13">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="AE17" s="8">
+        <v>3.8239999999999998</v>
+      </c>
+      <c r="AF17" s="8">
+        <v>1.962</v>
+      </c>
+      <c r="AG17" s="8">
+        <v>1.008</v>
+      </c>
+      <c r="AH17" s="9">
+        <v>0.53</v>
+      </c>
+      <c r="AI17" s="17">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AJ17" s="8">
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AL17" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="AM17" s="13">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="AN17" s="8">
+        <v>3.879</v>
+      </c>
+      <c r="AO17" s="8">
+        <v>1.925</v>
+      </c>
+      <c r="AP17" s="8">
+        <v>0.995</v>
+      </c>
+      <c r="AQ17" s="9">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AR17" s="8">
+        <v>0.311</v>
+      </c>
+      <c r="AS17" s="9">
+        <v>1.1599999999999999</v>
+      </c>
     </row>
-    <row r="18" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C18" s="3">
+      <c r="C18" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D18" s="2"/>
@@ -2746,7 +3031,7 @@
       <c r="K18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="L18" s="3">
+      <c r="L18" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="M18" s="2"/>
@@ -2755,86 +3040,118 @@
       <c r="P18" s="2"/>
       <c r="Q18" s="2"/>
       <c r="R18" s="2"/>
-      <c r="T18" s="8" t="s">
+      <c r="T18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="U18" s="10">
+      <c r="U18" s="11">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="V18" s="9"/>
-      <c r="W18" s="9"/>
-      <c r="X18" s="9"/>
-      <c r="Y18" s="9"/>
-      <c r="Z18" s="9"/>
-      <c r="AA18" s="9"/>
-      <c r="AC18" s="8" t="s">
+      <c r="V18" s="2"/>
+      <c r="W18" s="2"/>
+      <c r="X18" s="2"/>
+      <c r="Y18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AA18" s="2"/>
+      <c r="AC18" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="AD18" s="10">
+      <c r="AD18" s="14">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="AE18" s="9"/>
-      <c r="AF18" s="9"/>
-      <c r="AG18" s="9"/>
-      <c r="AH18" s="9"/>
-      <c r="AI18" s="9"/>
-      <c r="AJ18" s="9"/>
+      <c r="AE18" s="8"/>
+      <c r="AF18" s="8"/>
+      <c r="AG18" s="8"/>
+      <c r="AH18" s="8"/>
+      <c r="AI18" s="8"/>
+      <c r="AJ18" s="8"/>
+      <c r="AL18" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="AM18" s="14">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="AN18" s="8"/>
+      <c r="AO18" s="8"/>
+      <c r="AP18" s="8"/>
+      <c r="AQ18" s="8"/>
+      <c r="AR18" s="8"/>
+      <c r="AS18" s="8"/>
     </row>
-    <row r="19" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C19" s="2">
-        <v>1E-3</v>
+      <c r="C19" s="10">
+        <v>0.58699999999999997</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
       <c r="F19" s="2"/>
       <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
+      <c r="H19" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="I19" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="K19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L19" s="2">
-        <v>1E-3</v>
+      <c r="L19" s="10">
+        <v>0.58699999999999997</v>
       </c>
       <c r="M19" s="2"/>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
       <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="T19" s="8" t="s">
+      <c r="Q19" s="2">
+        <v>3.1E-2</v>
+      </c>
+      <c r="R19" s="2">
+        <v>6.7000000000000004E-2</v>
+      </c>
+      <c r="T19" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="U19" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="V19" s="9"/>
-      <c r="W19" s="9"/>
-      <c r="X19" s="9"/>
-      <c r="Y19" s="9"/>
-      <c r="Z19" s="9"/>
-      <c r="AA19" s="9"/>
-      <c r="AC19" s="8" t="s">
+      <c r="U19" s="10">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="V19" s="2"/>
+      <c r="W19" s="2"/>
+      <c r="X19" s="2"/>
+      <c r="Y19" s="2"/>
+      <c r="Z19" s="2"/>
+      <c r="AA19" s="2"/>
+      <c r="AC19" s="7" t="s">
         <v>4</v>
       </c>
-      <c r="AD19" s="9">
-        <v>1E-3</v>
-      </c>
-      <c r="AE19" s="9"/>
-      <c r="AF19" s="9"/>
-      <c r="AG19" s="9"/>
-      <c r="AH19" s="9"/>
-      <c r="AI19" s="9"/>
-      <c r="AJ19" s="9"/>
+      <c r="AD19" s="13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="AE19" s="8"/>
+      <c r="AF19" s="8"/>
+      <c r="AG19" s="8"/>
+      <c r="AH19" s="8"/>
+      <c r="AI19" s="8"/>
+      <c r="AJ19" s="8"/>
+      <c r="AL19" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="AM19" s="13">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="AN19" s="8"/>
+      <c r="AO19" s="8"/>
+      <c r="AP19" s="8"/>
+      <c r="AQ19" s="8"/>
+      <c r="AR19" s="8"/>
+      <c r="AS19" s="8"/>
     </row>
-    <row r="20" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="2">
+      <c r="C20" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="D20" s="2"/>
@@ -2846,7 +3163,7 @@
       <c r="K20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="L20" s="2">
+      <c r="L20" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M20" s="2"/>
@@ -2855,36 +3172,48 @@
       <c r="P20" s="2"/>
       <c r="Q20" s="2"/>
       <c r="R20" s="2"/>
-      <c r="T20" s="8" t="s">
+      <c r="T20" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="U20" s="9">
+      <c r="U20" s="10">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="V20" s="9"/>
-      <c r="W20" s="9"/>
-      <c r="X20" s="9"/>
-      <c r="Y20" s="9"/>
-      <c r="Z20" s="9"/>
-      <c r="AA20" s="9"/>
-      <c r="AC20" s="8" t="s">
+      <c r="V20" s="2"/>
+      <c r="W20" s="2"/>
+      <c r="X20" s="2"/>
+      <c r="Y20" s="2"/>
+      <c r="Z20" s="2"/>
+      <c r="AA20" s="2"/>
+      <c r="AC20" s="7" t="s">
         <v>5</v>
       </c>
-      <c r="AD20" s="9">
+      <c r="AD20" s="13">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AE20" s="9"/>
-      <c r="AF20" s="9"/>
-      <c r="AG20" s="9"/>
-      <c r="AH20" s="9"/>
-      <c r="AI20" s="9"/>
-      <c r="AJ20" s="9"/>
+      <c r="AE20" s="8"/>
+      <c r="AF20" s="8"/>
+      <c r="AG20" s="8"/>
+      <c r="AH20" s="8"/>
+      <c r="AI20" s="8"/>
+      <c r="AJ20" s="8"/>
+      <c r="AL20" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="AM20" s="13">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AN20" s="8"/>
+      <c r="AO20" s="8"/>
+      <c r="AP20" s="8"/>
+      <c r="AQ20" s="8"/>
+      <c r="AR20" s="8"/>
+      <c r="AS20" s="8"/>
     </row>
-    <row r="21" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C21" s="3">
+      <c r="C21" s="11">
         <v>0</v>
       </c>
       <c r="D21" s="2"/>
@@ -2896,7 +3225,7 @@
       <c r="K21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="L21" s="3">
+      <c r="L21" s="11">
         <v>0</v>
       </c>
       <c r="M21" s="2"/>
@@ -2905,814 +3234,230 @@
       <c r="P21" s="2"/>
       <c r="Q21" s="2"/>
       <c r="R21" s="2"/>
-      <c r="T21" s="8" t="s">
+      <c r="T21" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="U21" s="10">
-        <v>0</v>
-      </c>
-      <c r="V21" s="9"/>
-      <c r="W21" s="9"/>
-      <c r="X21" s="9"/>
-      <c r="Y21" s="9"/>
-      <c r="Z21" s="9"/>
-      <c r="AA21" s="9"/>
-      <c r="AC21" s="8" t="s">
+      <c r="U21" s="11">
+        <v>0</v>
+      </c>
+      <c r="V21" s="2"/>
+      <c r="W21" s="2"/>
+      <c r="X21" s="2"/>
+      <c r="Y21" s="2"/>
+      <c r="Z21" s="2"/>
+      <c r="AA21" s="2"/>
+      <c r="AC21" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="AD21" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE21" s="9"/>
-      <c r="AF21" s="9"/>
-      <c r="AG21" s="9"/>
-      <c r="AH21" s="9"/>
-      <c r="AI21" s="9"/>
-      <c r="AJ21" s="9"/>
+      <c r="AD21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AE21" s="8"/>
+      <c r="AF21" s="8"/>
+      <c r="AG21" s="8"/>
+      <c r="AH21" s="8"/>
+      <c r="AI21" s="8"/>
+      <c r="AJ21" s="8"/>
+      <c r="AL21" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="AM21" s="14">
+        <v>0</v>
+      </c>
+      <c r="AN21" s="8"/>
+      <c r="AO21" s="8"/>
+      <c r="AP21" s="8"/>
+      <c r="AQ21" s="8"/>
+      <c r="AR21" s="8"/>
+      <c r="AS21" s="8"/>
     </row>
-    <row r="22" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C22" s="4">
+      <c r="C22" s="12">
         <f>SUM(C16:C21)</f>
-        <v>7.3999999999999996E-2</v>
+        <v>8.5780000000000012</v>
       </c>
       <c r="D22" s="4">
         <f>SUM(D16:D21)</f>
-        <v>0</v>
+        <v>3.7629999999999999</v>
       </c>
       <c r="E22" s="4">
-        <f t="shared" ref="E22:H22" si="4">SUM(E16:E21)</f>
-        <v>0</v>
+        <f t="shared" ref="E22:H22" si="5">SUM(E16:E21)</f>
+        <v>1.974</v>
       </c>
       <c r="F22" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.98799999999999999</v>
       </c>
       <c r="G22" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.51900000000000002</v>
       </c>
       <c r="H22" s="4">
-        <f t="shared" si="4"/>
-        <v>0</v>
+        <f t="shared" si="5"/>
+        <v>0.43799999999999994</v>
       </c>
       <c r="I22" s="4">
         <f>SUM(I16:I21)</f>
-        <v>0</v>
+        <v>1.27</v>
       </c>
       <c r="K22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="L22" s="4">
+      <c r="L22" s="12">
         <f>SUM(L16:L21)</f>
-        <v>7.3999999999999996E-2</v>
+        <v>8.5780000000000012</v>
       </c>
       <c r="M22" s="4">
         <f>SUM(M16:M21)</f>
-        <v>0</v>
+        <v>3.8029999999999999</v>
       </c>
       <c r="N22" s="4">
-        <f t="shared" ref="N22:Q22" si="5">SUM(N16:N21)</f>
-        <v>0</v>
+        <f t="shared" ref="N22:T22" si="6">SUM(N16:N21)</f>
+        <v>1.929</v>
       </c>
       <c r="O22" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.99199999999999999</v>
       </c>
       <c r="P22" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.52200000000000002</v>
       </c>
       <c r="Q22" s="4">
-        <f t="shared" si="5"/>
-        <v>0</v>
+        <f t="shared" si="6"/>
+        <v>0.43700000000000006</v>
       </c>
       <c r="R22" s="4">
         <f>SUM(R16:R21)</f>
-        <v>0</v>
-      </c>
-      <c r="T22" s="8" t="s">
+        <v>1.202</v>
+      </c>
+      <c r="T22" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="U22" s="9">
+      <c r="U22" s="12">
         <f>SUM(U16:U21)</f>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="V22" s="9">
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="V22" s="4">
         <f>SUM(V16:V21)</f>
-        <v>0</v>
-      </c>
-      <c r="W22" s="9">
-        <f t="shared" ref="W22:Z22" si="6">SUM(W16:W21)</f>
-        <v>0</v>
-      </c>
-      <c r="X22" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Y22" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="Z22" s="9">
-        <f t="shared" si="6"/>
-        <v>0</v>
-      </c>
-      <c r="AA22" s="9">
+        <v>3.7930000000000001</v>
+      </c>
+      <c r="W22" s="4">
+        <f t="shared" ref="W22:AC22" si="7">SUM(W16:W21)</f>
+        <v>1.93</v>
+      </c>
+      <c r="X22" s="4">
+        <f t="shared" si="7"/>
+        <v>0.99199999999999999</v>
+      </c>
+      <c r="Y22" s="4">
+        <f t="shared" si="7"/>
+        <v>0.52100000000000002</v>
+      </c>
+      <c r="Z22" s="4">
+        <f t="shared" si="7"/>
+        <v>0.4</v>
+      </c>
+      <c r="AA22" s="4">
         <f>SUM(AA16:AA21)</f>
-        <v>0</v>
-      </c>
-      <c r="AC22" s="8" t="s">
+        <v>1.1359999999999999</v>
+      </c>
+      <c r="AC22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="AD22" s="9">
+      <c r="AD22" s="13">
         <f>SUM(AD16:AD21)</f>
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AE22" s="9">
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="AE22" s="8">
         <f>SUM(AE16:AE21)</f>
-        <v>0</v>
-      </c>
-      <c r="AF22" s="9">
-        <f t="shared" ref="AF22:AI22" si="7">SUM(AF16:AF21)</f>
-        <v>0</v>
-      </c>
-      <c r="AG22" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AH22" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AI22" s="9">
-        <f t="shared" si="7"/>
-        <v>0</v>
-      </c>
-      <c r="AJ22" s="9">
-        <f>SUM(AJ16:AJ21)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T23" s="7"/>
-      <c r="U23" s="7"/>
-      <c r="V23" s="7"/>
-      <c r="W23" s="7"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="7"/>
-      <c r="Z23" s="7"/>
-      <c r="AA23" s="7"/>
-      <c r="AC23" s="7"/>
-      <c r="AD23" s="7"/>
-      <c r="AE23" s="7"/>
-      <c r="AF23" s="7"/>
-      <c r="AG23" s="7"/>
-      <c r="AH23" s="7"/>
-      <c r="AI23" s="7"/>
-      <c r="AJ23" s="7"/>
-    </row>
-    <row r="24" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="5"/>
-      <c r="H24" s="5"/>
-      <c r="I24" s="5"/>
-      <c r="K24" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="L24" s="5"/>
-      <c r="M24" s="5"/>
-      <c r="N24" s="5"/>
-      <c r="O24" s="5"/>
-      <c r="P24" s="5"/>
-      <c r="Q24" s="5"/>
-      <c r="R24" s="5"/>
-      <c r="T24" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="U24" s="6"/>
-      <c r="V24" s="6"/>
-      <c r="W24" s="6"/>
-      <c r="X24" s="6"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="6"/>
-      <c r="AA24" s="6"/>
-      <c r="AC24" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="AD24" s="6"/>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-    </row>
-    <row r="25" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="T25" s="7"/>
-      <c r="U25" s="7"/>
-      <c r="V25" s="7"/>
-      <c r="W25" s="7"/>
-      <c r="X25" s="7"/>
-      <c r="Y25" s="7"/>
-      <c r="Z25" s="7"/>
-      <c r="AA25" s="7"/>
-      <c r="AC25" s="7"/>
-      <c r="AD25" s="7"/>
-      <c r="AE25" s="7"/>
-      <c r="AF25" s="7"/>
-      <c r="AG25" s="7"/>
-      <c r="AH25" s="7"/>
-      <c r="AI25" s="7"/>
-      <c r="AJ25" s="7"/>
-    </row>
-    <row r="26" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="1"/>
-      <c r="C26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D26" s="1">
-        <v>2</v>
-      </c>
-      <c r="E26" s="1">
-        <v>4</v>
-      </c>
-      <c r="F26" s="1">
-        <v>8</v>
-      </c>
-      <c r="G26" s="1">
-        <v>16</v>
-      </c>
-      <c r="H26" s="1">
-        <v>32</v>
-      </c>
-      <c r="I26" s="1">
-        <v>64</v>
-      </c>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M26" s="1">
-        <v>2</v>
-      </c>
-      <c r="N26" s="1">
-        <v>4</v>
-      </c>
-      <c r="O26" s="1">
-        <v>8</v>
-      </c>
-      <c r="P26" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q26" s="1">
-        <v>32</v>
-      </c>
-      <c r="R26" s="1">
-        <v>64</v>
-      </c>
-      <c r="T26" s="8"/>
-      <c r="U26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="V26" s="8">
-        <v>2</v>
-      </c>
-      <c r="W26" s="8">
-        <v>4</v>
-      </c>
-      <c r="X26" s="8">
-        <v>8</v>
-      </c>
-      <c r="Y26" s="8">
-        <v>16</v>
-      </c>
-      <c r="Z26" s="8">
-        <v>32</v>
-      </c>
-      <c r="AA26" s="8">
-        <v>64</v>
-      </c>
-      <c r="AC26" s="8"/>
-      <c r="AD26" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE26" s="8">
-        <v>2</v>
-      </c>
-      <c r="AF26" s="8">
-        <v>4</v>
-      </c>
-      <c r="AG26" s="8">
-        <v>8</v>
-      </c>
-      <c r="AH26" s="8">
-        <v>16</v>
-      </c>
-      <c r="AI26" s="8">
-        <v>32</v>
-      </c>
-      <c r="AJ26" s="8">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="27" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C27" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="D27" s="2"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="2"/>
-      <c r="G27" s="2"/>
-      <c r="H27" s="2"/>
-      <c r="I27" s="2"/>
-      <c r="K27" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L27" s="2">
-        <v>0.379</v>
-      </c>
-      <c r="M27" s="2"/>
-      <c r="N27" s="2"/>
-      <c r="O27" s="2"/>
-      <c r="P27" s="2"/>
-      <c r="Q27" s="2"/>
-      <c r="R27" s="2"/>
-      <c r="T27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="U27" s="9">
-        <v>0.379</v>
-      </c>
-      <c r="V27" s="9"/>
-      <c r="W27" s="9"/>
-      <c r="X27" s="9"/>
-      <c r="Y27" s="9"/>
-      <c r="Z27" s="9"/>
-      <c r="AA27" s="9"/>
-      <c r="AC27" s="8" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="9">
-        <v>0.379</v>
-      </c>
-      <c r="AE27" s="9"/>
-      <c r="AF27" s="9"/>
-      <c r="AG27" s="9"/>
-      <c r="AH27" s="9"/>
-      <c r="AI27" s="9"/>
-      <c r="AJ27" s="9"/>
-    </row>
-    <row r="28" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C28" s="2">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="D28" s="2">
         <v>3.8239999999999998</v>
       </c>
-      <c r="E28" s="2">
+      <c r="AF22" s="8">
+        <f t="shared" ref="AF22:AL22" si="8">SUM(AF16:AF21)</f>
         <v>1.962</v>
       </c>
-      <c r="F28" s="2">
-        <v>1.008</v>
-      </c>
-      <c r="G28" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="H28" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="I28" s="2">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="K28" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L28" s="2">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="M28" s="2">
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="N28" s="2">
-        <v>1.962</v>
-      </c>
-      <c r="O28" s="2">
-        <v>1.008</v>
-      </c>
-      <c r="P28" s="3">
-        <v>0.53</v>
-      </c>
-      <c r="Q28" s="2">
-        <v>0.312</v>
-      </c>
-      <c r="R28" s="2">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="T28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="U28" s="9">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="V28" s="9">
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="W28" s="9">
-        <v>1.962</v>
-      </c>
-      <c r="X28" s="9">
-        <v>1.008</v>
-      </c>
-      <c r="Y28" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="Z28" s="9">
-        <v>0.312</v>
-      </c>
-      <c r="AA28" s="9">
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="AC28" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD28" s="9">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="AE28" s="9">
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="AF28" s="9">
-        <v>1.962</v>
-      </c>
-      <c r="AG28" s="9">
-        <v>1.008</v>
-      </c>
-      <c r="AH28" s="10">
-        <v>0.53</v>
-      </c>
-      <c r="AI28" s="9">
-        <v>0.312</v>
-      </c>
-      <c r="AJ28" s="9">
-        <v>1.1419999999999999</v>
-      </c>
-    </row>
-    <row r="29" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C29" s="3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D29" s="2"/>
-      <c r="E29" s="2"/>
-      <c r="F29" s="2"/>
-      <c r="G29" s="2"/>
-      <c r="H29" s="2"/>
-      <c r="I29" s="2"/>
-      <c r="K29" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L29" s="3">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M29" s="2"/>
-      <c r="N29" s="2"/>
-      <c r="O29" s="2"/>
-      <c r="P29" s="2"/>
-      <c r="Q29" s="2"/>
-      <c r="R29" s="2"/>
-      <c r="T29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="U29" s="10">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="V29" s="9"/>
-      <c r="W29" s="9"/>
-      <c r="X29" s="9"/>
-      <c r="Y29" s="9"/>
-      <c r="Z29" s="9"/>
-      <c r="AA29" s="9"/>
-      <c r="AC29" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD29" s="10">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AE29" s="9"/>
-      <c r="AF29" s="9"/>
-      <c r="AG29" s="9"/>
-      <c r="AH29" s="9"/>
-      <c r="AI29" s="9"/>
-      <c r="AJ29" s="9"/>
-    </row>
-    <row r="30" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C30" s="2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D30" s="2"/>
-      <c r="E30" s="2"/>
-      <c r="F30" s="2"/>
-      <c r="G30" s="2"/>
-      <c r="H30" s="2"/>
-      <c r="I30" s="2"/>
-      <c r="K30" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L30" s="2">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="M30" s="2"/>
-      <c r="N30" s="2"/>
-      <c r="O30" s="2"/>
-      <c r="P30" s="2"/>
-      <c r="Q30" s="2"/>
-      <c r="R30" s="2"/>
-      <c r="T30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="U30" s="9">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="V30" s="9"/>
-      <c r="W30" s="9"/>
-      <c r="X30" s="9"/>
-      <c r="Y30" s="9"/>
-      <c r="Z30" s="9"/>
-      <c r="AA30" s="9"/>
-      <c r="AC30" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD30" s="9">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="AE30" s="9"/>
-      <c r="AF30" s="9"/>
-      <c r="AG30" s="9"/>
-      <c r="AH30" s="9"/>
-      <c r="AI30" s="9"/>
-      <c r="AJ30" s="9"/>
-    </row>
-    <row r="31" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C31" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="K31" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L31" s="2">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M31" s="2"/>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="T31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="U31" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V31" s="9"/>
-      <c r="W31" s="9"/>
-      <c r="X31" s="9"/>
-      <c r="Y31" s="9"/>
-      <c r="Z31" s="9"/>
-      <c r="AA31" s="9"/>
-      <c r="AC31" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD31" s="9">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AE31" s="9"/>
-      <c r="AF31" s="9"/>
-      <c r="AG31" s="9"/>
-      <c r="AH31" s="9"/>
-      <c r="AI31" s="9"/>
-      <c r="AJ31" s="9"/>
-    </row>
-    <row r="32" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0</v>
-      </c>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="K32" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L32" s="3">
-        <v>0</v>
-      </c>
-      <c r="M32" s="2"/>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="T32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="U32" s="10">
-        <v>0</v>
-      </c>
-      <c r="V32" s="9"/>
-      <c r="W32" s="9"/>
-      <c r="X32" s="9"/>
-      <c r="Y32" s="9"/>
-      <c r="Z32" s="9"/>
-      <c r="AA32" s="9"/>
-      <c r="AC32" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD32" s="10">
-        <v>0</v>
-      </c>
-      <c r="AE32" s="9"/>
-      <c r="AF32" s="9"/>
-      <c r="AG32" s="9"/>
-      <c r="AH32" s="9"/>
-      <c r="AI32" s="9"/>
-      <c r="AJ32" s="9"/>
-    </row>
-    <row r="33" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C33" s="4">
-        <f>SUM(C27:C32)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="D33" s="4">
-        <f>SUM(D27:D32)</f>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="E33" s="4">
-        <f t="shared" ref="E33:H33" si="8">SUM(E27:E32)</f>
-        <v>1.962</v>
-      </c>
-      <c r="F33" s="4">
+      <c r="AG22" s="8">
         <f t="shared" si="8"/>
         <v>1.008</v>
       </c>
-      <c r="G33" s="4">
+      <c r="AH22" s="8">
         <f t="shared" si="8"/>
         <v>0.53</v>
       </c>
-      <c r="H33" s="4">
+      <c r="AI22" s="8">
         <f t="shared" si="8"/>
-        <v>0.312</v>
-      </c>
-      <c r="I33" s="4">
-        <f>SUM(I27:I32)</f>
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="K33" s="1" t="s">
+        <v>0.28799999999999998</v>
+      </c>
+      <c r="AJ22" s="8">
+        <f>SUM(AJ16:AJ21)</f>
+        <v>0.35799999999999998</v>
+      </c>
+      <c r="AL22" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="L33" s="4">
-        <f>SUM(L27:L32)</f>
+      <c r="AM22" s="13">
+        <f>SUM(AM16:AM21)</f>
         <v>8.5780000000000012</v>
       </c>
-      <c r="M33" s="4">
-        <f>SUM(M27:M32)</f>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="N33" s="4">
-        <f t="shared" ref="N33:Q33" si="9">SUM(N27:N32)</f>
-        <v>1.962</v>
-      </c>
-      <c r="O33" s="4">
+      <c r="AN22" s="8">
+        <f>SUM(AN16:AN21)</f>
+        <v>3.879</v>
+      </c>
+      <c r="AO22" s="8">
+        <f t="shared" ref="AO22:AS22" si="9">SUM(AO16:AO21)</f>
+        <v>1.925</v>
+      </c>
+      <c r="AP22" s="8">
         <f t="shared" si="9"/>
-        <v>1.008</v>
-      </c>
-      <c r="P33" s="4">
+        <v>0.995</v>
+      </c>
+      <c r="AQ22" s="8">
         <f t="shared" si="9"/>
-        <v>0.53</v>
-      </c>
-      <c r="Q33" s="4">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="AR22" s="8">
         <f t="shared" si="9"/>
-        <v>0.312</v>
-      </c>
-      <c r="R33" s="4">
-        <f>SUM(R27:R32)</f>
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="T33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="U33" s="9">
-        <f>SUM(U27:U32)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="V33" s="9">
-        <f>SUM(V27:V32)</f>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="W33" s="9">
-        <f t="shared" ref="W33:Z33" si="10">SUM(W27:W32)</f>
-        <v>1.962</v>
-      </c>
-      <c r="X33" s="9">
-        <f t="shared" si="10"/>
-        <v>1.008</v>
-      </c>
-      <c r="Y33" s="9">
-        <f t="shared" si="10"/>
-        <v>0.53</v>
-      </c>
-      <c r="Z33" s="9">
-        <f t="shared" si="10"/>
-        <v>0.312</v>
-      </c>
-      <c r="AA33" s="9">
-        <f>SUM(AA27:AA32)</f>
-        <v>1.1419999999999999</v>
-      </c>
-      <c r="AC33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD33" s="9">
-        <f>SUM(AD27:AD32)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="AE33" s="9">
-        <f>SUM(AE27:AE32)</f>
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="AF33" s="9">
-        <f t="shared" ref="AF33:AI33" si="11">SUM(AF27:AF32)</f>
-        <v>1.962</v>
-      </c>
-      <c r="AG33" s="9">
-        <f t="shared" si="11"/>
-        <v>1.008</v>
-      </c>
-      <c r="AH33" s="9">
-        <f t="shared" si="11"/>
-        <v>0.53</v>
-      </c>
-      <c r="AI33" s="9">
-        <f t="shared" si="11"/>
-        <v>0.312</v>
-      </c>
-      <c r="AJ33" s="9">
-        <f>SUM(AJ27:AJ32)</f>
-        <v>1.1419999999999999</v>
+        <v>0.311</v>
+      </c>
+      <c r="AS22" s="8">
+        <f>SUM(AS16:AS21)</f>
+        <v>1.1599999999999999</v>
       </c>
     </row>
-    <row r="34" spans="2:36" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T23" s="6"/>
+      <c r="U23" s="6"/>
+      <c r="V23" s="6"/>
+      <c r="W23" s="6"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="6"/>
+      <c r="Z23" s="6"/>
+      <c r="AA23" s="6"/>
+      <c r="AC23" s="6"/>
+      <c r="AD23" s="6"/>
+      <c r="AE23" s="6"/>
+      <c r="AF23" s="6"/>
+      <c r="AG23" s="6"/>
+      <c r="AH23" s="6"/>
+      <c r="AI23" s="6"/>
+      <c r="AJ23" s="6"/>
+    </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="10">
+    <mergeCell ref="AL2:AS2"/>
+    <mergeCell ref="AL13:AS13"/>
     <mergeCell ref="T13:AA13"/>
-    <mergeCell ref="T24:AA24"/>
     <mergeCell ref="K2:R2"/>
     <mergeCell ref="T2:AA2"/>
     <mergeCell ref="AC2:AJ2"/>
     <mergeCell ref="AC13:AJ13"/>
-    <mergeCell ref="AC24:AJ24"/>
     <mergeCell ref="B2:I2"/>
     <mergeCell ref="B13:I13"/>
-    <mergeCell ref="B24:I24"/>
     <mergeCell ref="K13:R13"/>
-    <mergeCell ref="K24:R24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>

--- a/timeanalysis/Calculos tiempo.xlsx
+++ b/timeanalysis/Calculos tiempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyanalvarez/CLionProjects/Genetica/timeanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3011EC6C-F1A1-7A41-96A8-7B6C3592F261}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E243669-107E-9B45-983E-A392161F7B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="27">
   <si>
     <t>Serie</t>
   </si>
@@ -90,6 +90,25 @@
   <si>
     <t>Paralelo</t>
   </si>
+  <si>
+    <t>Total (dynamic)</t>
+  </si>
+  <si>
+    <t>25000 (dynamic)</t>
+  </si>
+  <si>
+    <t>SPEED-UP</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Iyán Álvarez
+Iker Fernández</t>
+  </si>
 </sst>
 </file>
 
@@ -98,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -136,8 +155,16 @@
       <name val="Apple Chancery"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="48"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,6 +213,24 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFE8E6E6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -199,7 +244,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -211,9 +256,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -247,14 +289,50 @@
     <xf numFmtId="164" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="255"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -370,7 +448,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$29</c:f>
+              <c:f>Hoja1!$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -504,7 +582,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$30:$B$35</c:f>
+              <c:f>Hoja1!$B$62:$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -530,21 +608,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$30:$C$35</c:f>
+              <c:f>Hoja1!$C$62:$C$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.194</c:v>
+                  <c:v>3.1960000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168.624</c:v>
+                  <c:v>197.00299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.02</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.809000000000001</c:v>
+                  <c:v>28.638000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0000000000000001E-3</c:v>
@@ -757,7 +835,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$29</c:f>
+              <c:f>Hoja1!$D$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -891,7 +969,7 @@
           </c:dLbls>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$30:$B$35</c:f>
+              <c:f>Hoja1!$B$62:$B$67</c:f>
               <c:strCache>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
@@ -917,21 +995,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$30:$D$35</c:f>
+              <c:f>Hoja1!$D$62:$D$67</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>3.4369999999999998</c:v>
+                  <c:v>3.3029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4109999999999996</c:v>
+                  <c:v>6.6740000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.02</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0109999999999999</c:v>
+                  <c:v>0.90900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0000000000000001E-3</c:v>
@@ -1141,7 +1219,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$C$29</c:f>
+              <c:f>Hoja1!$C$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1162,7 +1240,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$30:$B$36</c:f>
+              <c:f>Hoja1!$B$62:$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1191,21 +1269,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$C$30:$C$36</c:f>
+              <c:f>Hoja1!$C$62:$C$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.194</c:v>
+                  <c:v>3.1960000000000002</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>168.624</c:v>
+                  <c:v>197.00299999999999</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.02</c:v>
+                  <c:v>1.9E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28.809000000000001</c:v>
+                  <c:v>28.638000000000002</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0000000000000001E-3</c:v>
@@ -1214,7 +1292,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>200.64999999999998</c:v>
+                  <c:v>228.85899999999998</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1230,7 +1308,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Hoja1!$D$29</c:f>
+              <c:f>Hoja1!$D$61</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -1251,7 +1329,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Hoja1!$B$30:$B$36</c:f>
+              <c:f>Hoja1!$B$62:$B$68</c:f>
               <c:strCache>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
@@ -1280,21 +1358,21 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Hoja1!$D$30:$D$36</c:f>
+              <c:f>Hoja1!$D$62:$D$68</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
                 <c:pt idx="0">
-                  <c:v>3.4369999999999998</c:v>
+                  <c:v>3.3029999999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.4109999999999996</c:v>
+                  <c:v>6.6740000000000004</c:v>
                 </c:pt>
                 <c:pt idx="2" formatCode="0.000">
-                  <c:v>0.02</c:v>
+                  <c:v>5.0000000000000001E-3</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.0109999999999999</c:v>
+                  <c:v>0.90900000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>3.0000000000000001E-3</c:v>
@@ -1303,7 +1381,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>11.881999999999998</c:v>
+                  <c:v>10.894000000000002</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3182,16 +3260,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>612139</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>87586</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>689976</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>242025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>744483</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>85731</xdr:rowOff>
+      <xdr:colOff>557561</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>52170</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3218,16 +3296,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>328448</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>43793</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>855523</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>316262</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
-      <xdr:colOff>460791</xdr:colOff>
-      <xdr:row>51</xdr:row>
-      <xdr:rowOff>41938</xdr:rowOff>
+      <xdr:colOff>511912</xdr:colOff>
+      <xdr:row>74</xdr:row>
+      <xdr:rowOff>114121</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3256,16 +3334,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>670034</xdr:colOff>
-      <xdr:row>53</xdr:row>
-      <xdr:rowOff>18830</xdr:rowOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>1066019</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>172497</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>481724</xdr:colOff>
-      <xdr:row>79</xdr:row>
-      <xdr:rowOff>131379</xdr:rowOff>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>227724</xdr:colOff>
+      <xdr:row>75</xdr:row>
+      <xdr:rowOff>70426</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -3590,16 +3668,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561641A-B8C1-2241-9A12-C989CFF7F3DD}">
-  <dimension ref="A1:AS43"/>
+  <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" zoomScale="75" workbookViewId="0">
-      <selection activeCell="S38" sqref="S38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="44" zoomScaleNormal="19" workbookViewId="0">
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="15.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="28" max="28" width="6.5" customWidth="1"/>
+    <col min="29" max="29" width="18.83203125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="2" spans="2:45" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="2" spans="2:29" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="18" t="s">
         <v>19</v>
       </c>
@@ -3628,26 +3710,11 @@
       <c r="Y2" s="18"/>
       <c r="Z2" s="18"/>
       <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
-      <c r="AG2" s="18"/>
-      <c r="AH2" s="18"/>
-      <c r="AI2" s="18"/>
-      <c r="AJ2" s="18"/>
-      <c r="AK2" s="18"/>
-      <c r="AL2" s="18"/>
-      <c r="AM2" s="18"/>
-      <c r="AN2" s="18"/>
-      <c r="AO2" s="18"/>
-      <c r="AP2" s="18"/>
-      <c r="AQ2" s="18"/>
-      <c r="AR2" s="18"/>
-      <c r="AS2" s="18"/>
+      <c r="AC2" s="29" t="s">
+        <v>26</v>
+      </c>
     </row>
-    <row r="3" spans="2:45" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:29" ht="51" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="18"/>
       <c r="C3" s="18"/>
       <c r="D3" s="18"/>
@@ -3674,1553 +3741,1497 @@
       <c r="Y3" s="18"/>
       <c r="Z3" s="18"/>
       <c r="AA3" s="18"/>
-      <c r="AB3" s="18"/>
-      <c r="AC3" s="18"/>
-      <c r="AD3" s="18"/>
-      <c r="AE3" s="18"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="18"/>
-      <c r="AH3" s="18"/>
-      <c r="AI3" s="18"/>
-      <c r="AJ3" s="18"/>
-      <c r="AK3" s="18"/>
-      <c r="AL3" s="18"/>
-      <c r="AM3" s="18"/>
-      <c r="AN3" s="18"/>
-      <c r="AO3" s="18"/>
-      <c r="AP3" s="18"/>
-      <c r="AQ3" s="18"/>
-      <c r="AR3" s="18"/>
-      <c r="AS3" s="18"/>
+      <c r="AC3" s="30"/>
     </row>
-    <row r="4" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="5" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="17" t="s">
+    <row r="4" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="5" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="K5" s="17" t="s">
+      <c r="C5" s="19"/>
+      <c r="D5" s="19"/>
+      <c r="E5" s="19"/>
+      <c r="F5" s="19"/>
+      <c r="G5" s="19"/>
+      <c r="H5" s="19"/>
+      <c r="I5" s="19"/>
+      <c r="K5" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="17"/>
-      <c r="M5" s="17"/>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="T5" s="17" t="s">
+      <c r="L5" s="19"/>
+      <c r="M5" s="19"/>
+      <c r="N5" s="19"/>
+      <c r="O5" s="19"/>
+      <c r="P5" s="19"/>
+      <c r="Q5" s="19"/>
+      <c r="R5" s="19"/>
+      <c r="T5" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="17"/>
-      <c r="X5" s="17"/>
-      <c r="Y5" s="17"/>
-      <c r="Z5" s="17"/>
-      <c r="AA5" s="17"/>
-      <c r="AC5" s="17" t="s">
+      <c r="U5" s="19"/>
+      <c r="V5" s="19"/>
+      <c r="W5" s="19"/>
+      <c r="X5" s="19"/>
+      <c r="Y5" s="19"/>
+      <c r="Z5" s="19"/>
+      <c r="AA5" s="19"/>
+      <c r="AC5" s="28" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="1"/>
+      <c r="C6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <v>2</v>
+      </c>
+      <c r="E6" s="1">
+        <v>4</v>
+      </c>
+      <c r="F6" s="1">
+        <v>8</v>
+      </c>
+      <c r="G6" s="1">
+        <v>16</v>
+      </c>
+      <c r="H6" s="1">
+        <v>24</v>
+      </c>
+      <c r="I6" s="1">
+        <v>32</v>
+      </c>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>4</v>
+      </c>
+      <c r="O6" s="1">
+        <v>8</v>
+      </c>
+      <c r="P6" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>24</v>
+      </c>
+      <c r="R6" s="1">
+        <v>32</v>
+      </c>
+      <c r="T6" s="1"/>
+      <c r="U6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>4</v>
+      </c>
+      <c r="X6" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC6" s="28"/>
+    </row>
+    <row r="7" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="D7" s="2">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="F7" s="2">
+        <v>3.3159999999999998</v>
+      </c>
+      <c r="G7" s="2">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="H7" s="2">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>3.371</v>
+      </c>
+      <c r="K7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L7" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="M7" s="2">
+        <v>3.3079999999999998</v>
+      </c>
+      <c r="N7" s="2">
+        <v>3.3140000000000001</v>
+      </c>
+      <c r="O7" s="2">
+        <v>3.3159999999999998</v>
+      </c>
+      <c r="P7" s="2">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>3.4319999999999999</v>
+      </c>
+      <c r="R7" s="2">
+        <v>3.306</v>
+      </c>
+      <c r="T7" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U7" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="V7" s="2">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="W7" s="2">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="X7" s="2">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="Y7" s="2">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="Z7" s="2">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="AA7" s="2">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="AC7" s="28"/>
+    </row>
+    <row r="8" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="D8" s="14">
+        <v>85.542000000000002</v>
+      </c>
+      <c r="E8" s="14">
+        <v>43.595999999999997</v>
+      </c>
+      <c r="F8" s="14">
+        <v>25.279</v>
+      </c>
+      <c r="G8" s="14">
+        <v>12.039</v>
+      </c>
+      <c r="H8" s="14">
+        <v>8.5939999999999994</v>
+      </c>
+      <c r="I8" s="14">
+        <v>8.1020000000000003</v>
+      </c>
+      <c r="K8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L8" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="M8" s="14">
+        <v>89.611000000000004</v>
+      </c>
+      <c r="N8" s="14">
+        <v>43.856000000000002</v>
+      </c>
+      <c r="O8" s="14">
+        <v>22.637</v>
+      </c>
+      <c r="P8" s="14">
+        <v>12.071</v>
+      </c>
+      <c r="Q8" s="14">
+        <v>9.6639999999999997</v>
+      </c>
+      <c r="R8" s="14">
+        <v>7.0620000000000003</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U8" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="V8" s="14">
+        <v>86.007000000000005</v>
+      </c>
+      <c r="W8" s="14">
+        <v>43.749000000000002</v>
+      </c>
+      <c r="X8" s="14">
+        <v>22.510999999999999</v>
+      </c>
+      <c r="Y8" s="14">
+        <v>11.962</v>
+      </c>
+      <c r="Z8" s="14">
+        <v>8.7070000000000007</v>
+      </c>
+      <c r="AA8" s="14">
+        <v>6.9189999999999996</v>
+      </c>
+      <c r="AC8" s="28"/>
+    </row>
+    <row r="9" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.01</v>
+      </c>
+      <c r="E9" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="F9" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G9" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H9" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="I9" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L9" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M9" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N9" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O9" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P9" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q9" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R9" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T9" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U9" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V9" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W9" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X9" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Y9" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Z9" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA9" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC9" s="28"/>
+    </row>
+    <row r="10" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C10" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="D10" s="14">
+        <v>21.832000000000001</v>
+      </c>
+      <c r="E10" s="14">
+        <v>12.791</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6.9539999999999997</v>
+      </c>
+      <c r="G10" s="14">
+        <v>3.6259999999999999</v>
+      </c>
+      <c r="H10" s="14">
+        <v>2.4180000000000001</v>
+      </c>
+      <c r="I10" s="14">
+        <v>1.8320000000000001</v>
+      </c>
+      <c r="K10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L10" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="M10" s="14">
+        <v>14.327999999999999</v>
+      </c>
+      <c r="N10" s="14">
+        <v>7.1619999999999999</v>
+      </c>
+      <c r="O10" s="14">
+        <v>3.6440000000000001</v>
+      </c>
+      <c r="P10" s="14">
+        <v>1.8460000000000001</v>
+      </c>
+      <c r="Q10" s="14">
+        <v>1.246</v>
+      </c>
+      <c r="R10" s="14">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="T10" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U10" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="V10" s="14">
+        <v>14.337999999999999</v>
+      </c>
+      <c r="W10" s="14">
+        <v>8.6120000000000001</v>
+      </c>
+      <c r="X10" s="14">
+        <v>3.5979999999999999</v>
+      </c>
+      <c r="Y10" s="14">
+        <v>1.827</v>
+      </c>
+      <c r="Z10" s="14">
+        <v>1.2569999999999999</v>
+      </c>
+      <c r="AA10" s="14">
+        <v>0.95799999999999996</v>
+      </c>
+      <c r="AC10" s="28"/>
+    </row>
+    <row r="11" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L11" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T11" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U11" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA11" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC11" s="28"/>
+    </row>
+    <row r="12" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="7">
+        <v>0</v>
+      </c>
+      <c r="D12" s="20">
+        <v>0</v>
+      </c>
+      <c r="E12" s="20">
+        <v>0</v>
+      </c>
+      <c r="F12" s="20">
+        <v>0</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="20">
+        <v>0</v>
+      </c>
+      <c r="I12" s="20">
+        <v>0</v>
+      </c>
+      <c r="K12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L12" s="7">
+        <v>0</v>
+      </c>
+      <c r="M12" s="20">
+        <v>0</v>
+      </c>
+      <c r="N12" s="20">
+        <v>0</v>
+      </c>
+      <c r="O12" s="20">
+        <v>0</v>
+      </c>
+      <c r="P12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="20">
+        <v>0</v>
+      </c>
+      <c r="R12" s="20">
+        <v>0</v>
+      </c>
+      <c r="T12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U12" s="7">
+        <v>0</v>
+      </c>
+      <c r="V12" s="20">
+        <v>0</v>
+      </c>
+      <c r="W12" s="20">
+        <v>0</v>
+      </c>
+      <c r="X12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="28"/>
+    </row>
+    <row r="13" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C13" s="8">
+        <f>SUM(C7:C12)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="D13" s="3">
+        <f>SUM(D7:D12)</f>
+        <v>110.694</v>
+      </c>
+      <c r="E13" s="3">
+        <f>SUM(E7:E12)</f>
+        <v>59.700999999999993</v>
+      </c>
+      <c r="F13" s="3">
+        <f>SUM(F7:F12)</f>
+        <v>35.555999999999997</v>
+      </c>
+      <c r="G13" s="3">
+        <f>SUM(G7:G12)</f>
+        <v>18.977</v>
+      </c>
+      <c r="H13" s="3">
+        <f>SUM(H7:H12)</f>
+        <v>14.332000000000001</v>
+      </c>
+      <c r="I13" s="3">
+        <f>SUM(I7:I12)</f>
+        <v>13.313000000000002</v>
+      </c>
+      <c r="K13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L13" s="8">
+        <f>SUM(L7:L12)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="M13" s="3">
+        <f>SUM(M7:M12)</f>
+        <v>107.26400000000001</v>
+      </c>
+      <c r="N13" s="3">
+        <f>SUM(N7:N12)</f>
+        <v>54.343000000000004</v>
+      </c>
+      <c r="O13" s="3">
+        <f>SUM(O7:O12)</f>
+        <v>29.604999999999997</v>
+      </c>
+      <c r="P13" s="3">
+        <f>SUM(P7:P12)</f>
+        <v>17.238</v>
+      </c>
+      <c r="Q13" s="3">
+        <f>SUM(Q7:Q12)</f>
+        <v>14.352</v>
+      </c>
+      <c r="R13" s="3">
+        <f>SUM(R7:R12)</f>
+        <v>11.311</v>
+      </c>
+      <c r="T13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U13" s="8">
+        <f>SUM(U7:U12)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="V13" s="3">
+        <f>SUM(V7:V12)</f>
+        <v>103.673</v>
+      </c>
+      <c r="W13" s="3">
+        <f>SUM(W7:W12)</f>
+        <v>55.686</v>
+      </c>
+      <c r="X13" s="3">
+        <f>SUM(X7:X12)</f>
+        <v>29.428000000000001</v>
+      </c>
+      <c r="Y13" s="3">
+        <f>SUM(Y7:Y12)</f>
+        <v>17.100999999999999</v>
+      </c>
+      <c r="Z13" s="3">
+        <f>SUM(Z7:Z12)</f>
+        <v>13.279000000000002</v>
+      </c>
+      <c r="AA13" s="3">
+        <f>SUM(AA7:AA12)</f>
+        <v>11.196000000000002</v>
+      </c>
+      <c r="AC13" s="28"/>
+    </row>
+    <row r="14" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" s="25">
+        <f>$C$13/D13</f>
+        <v>2.0674923663432523</v>
+      </c>
+      <c r="E14" s="25">
+        <f t="shared" ref="E14:I14" si="0">$C$13/E13</f>
+        <v>3.8334198757139748</v>
+      </c>
+      <c r="F14" s="25">
+        <f t="shared" si="0"/>
+        <v>6.4365789177635282</v>
+      </c>
+      <c r="G14" s="25">
+        <f t="shared" si="0"/>
+        <v>12.05980924276756</v>
+      </c>
+      <c r="H14" s="25">
+        <f t="shared" si="0"/>
+        <v>15.968392408596147</v>
+      </c>
+      <c r="I14" s="25">
+        <f t="shared" si="0"/>
+        <v>17.190640727108836</v>
+      </c>
+      <c r="K14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M14" s="25">
+        <f>$L$13/M13</f>
+        <v>2.1336049373508348</v>
+      </c>
+      <c r="N14" s="25">
+        <f t="shared" ref="N14:R14" si="1">$L$13/N13</f>
+        <v>4.2113795705058603</v>
+      </c>
+      <c r="O14" s="25">
+        <f t="shared" si="1"/>
+        <v>7.7304171592636379</v>
+      </c>
+      <c r="P14" s="25">
+        <f t="shared" si="1"/>
+        <v>13.276424179139111</v>
+      </c>
+      <c r="Q14" s="25">
+        <f t="shared" si="1"/>
+        <v>15.946139910813821</v>
+      </c>
+      <c r="R14" s="25">
+        <f t="shared" si="1"/>
+        <v>20.233312704446998</v>
+      </c>
+      <c r="T14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U14" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V14" s="25">
+        <f>$U$13/V13</f>
+        <v>2.2075082229703007</v>
+      </c>
+      <c r="W14" s="25">
+        <f t="shared" ref="W14:AA14" si="2">$U$13/W13</f>
+        <v>4.1098121610458636</v>
+      </c>
+      <c r="X14" s="25">
+        <f t="shared" si="2"/>
+        <v>7.776913143944542</v>
+      </c>
+      <c r="Y14" s="25">
+        <f t="shared" si="2"/>
+        <v>13.382784632477632</v>
+      </c>
+      <c r="Z14" s="25">
+        <f t="shared" si="2"/>
+        <v>17.234656224113259</v>
+      </c>
+      <c r="AA14" s="25">
+        <f t="shared" si="2"/>
+        <v>20.441139692747406</v>
+      </c>
+      <c r="AC14" s="28"/>
+    </row>
+    <row r="15" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AC15" s="28"/>
+    </row>
+    <row r="16" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B16" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="19"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="19"/>
+      <c r="K16" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="AD5" s="17"/>
-      <c r="AE5" s="17"/>
-      <c r="AF5" s="17"/>
-      <c r="AG5" s="17"/>
-      <c r="AH5" s="17"/>
-      <c r="AI5" s="17"/>
-      <c r="AJ5" s="17"/>
-      <c r="AL5" s="17" t="s">
+      <c r="L16" s="19"/>
+      <c r="M16" s="19"/>
+      <c r="N16" s="19"/>
+      <c r="O16" s="19"/>
+      <c r="P16" s="19"/>
+      <c r="Q16" s="19"/>
+      <c r="R16" s="19"/>
+      <c r="T16" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="AM5" s="17"/>
-      <c r="AN5" s="17"/>
-      <c r="AO5" s="17"/>
-      <c r="AP5" s="17"/>
-      <c r="AQ5" s="17"/>
-      <c r="AR5" s="17"/>
-      <c r="AS5" s="17"/>
+      <c r="U16" s="19"/>
+      <c r="V16" s="19"/>
+      <c r="W16" s="19"/>
+      <c r="X16" s="19"/>
+      <c r="Y16" s="19"/>
+      <c r="Z16" s="19"/>
+      <c r="AA16" s="19"/>
+      <c r="AC16" s="28"/>
     </row>
-    <row r="6" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="7" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="1"/>
-      <c r="C7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1">
+    <row r="17" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D17" s="1">
         <v>2</v>
       </c>
-      <c r="E7" s="1">
+      <c r="E17" s="1">
         <v>4</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F17" s="1">
         <v>8</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G17" s="1">
         <v>16</v>
       </c>
-      <c r="H7" s="1">
+      <c r="H17" s="1">
+        <v>24</v>
+      </c>
+      <c r="I17" s="1">
         <v>32</v>
       </c>
-      <c r="I7" s="1">
-        <v>64</v>
-      </c>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M7" s="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M17" s="1">
         <v>2</v>
       </c>
-      <c r="N7" s="1">
+      <c r="N17" s="1">
         <v>4</v>
       </c>
-      <c r="O7" s="1">
+      <c r="O17" s="1">
         <v>8</v>
       </c>
-      <c r="P7" s="1">
+      <c r="P17" s="1">
         <v>16</v>
       </c>
-      <c r="Q7" s="1">
+      <c r="Q17" s="1">
+        <v>24</v>
+      </c>
+      <c r="R17" s="1">
         <v>32</v>
       </c>
-      <c r="R7" s="1">
-        <v>64</v>
-      </c>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V7" s="1">
+      <c r="T17" s="1"/>
+      <c r="U17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V17" s="1">
         <v>2</v>
       </c>
-      <c r="W7" s="1">
+      <c r="W17" s="1">
         <v>4</v>
       </c>
-      <c r="X7" s="1">
+      <c r="X17" s="1">
         <v>8</v>
       </c>
-      <c r="Y7" s="1">
+      <c r="Y17" s="1">
         <v>16</v>
       </c>
-      <c r="Z7" s="1">
+      <c r="Z17" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA17" s="1">
         <v>32</v>
       </c>
-      <c r="AA7" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE7" s="1">
+      <c r="AC17" s="28"/>
+    </row>
+    <row r="18" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="D18" s="2">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="E18" s="2">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="F18" s="2">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="G18" s="17">
+        <v>3.31</v>
+      </c>
+      <c r="H18" s="2">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="I18" s="2">
+        <v>3.3319999999999999</v>
+      </c>
+      <c r="K18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L18" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="M18" s="2">
+        <v>3.3119999999999998</v>
+      </c>
+      <c r="N18" s="2">
+        <v>3.3149999999999999</v>
+      </c>
+      <c r="O18" s="2">
+        <v>3.4430000000000001</v>
+      </c>
+      <c r="P18" s="2">
+        <v>3.3050000000000002</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>3.3069999999999999</v>
+      </c>
+      <c r="R18" s="2">
+        <v>3.3109999999999999</v>
+      </c>
+      <c r="T18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U18" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="V18" s="2">
+        <v>3.306</v>
+      </c>
+      <c r="W18" s="2">
+        <v>3.306</v>
+      </c>
+      <c r="X18" s="2">
+        <v>3.306</v>
+      </c>
+      <c r="Y18" s="2">
+        <v>3.306</v>
+      </c>
+      <c r="Z18" s="2">
+        <v>3.3130000000000002</v>
+      </c>
+      <c r="AA18" s="2">
+        <v>3.306</v>
+      </c>
+      <c r="AC18" s="28"/>
+    </row>
+    <row r="19" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B19" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="AF7" s="1">
+      <c r="C19" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="D19" s="14">
+        <v>88.620999999999995</v>
+      </c>
+      <c r="E19" s="14">
+        <v>46.393000000000001</v>
+      </c>
+      <c r="F19" s="14">
+        <v>23.149000000000001</v>
+      </c>
+      <c r="G19" s="15">
+        <v>12.17</v>
+      </c>
+      <c r="H19" s="14">
+        <v>8.5730000000000004</v>
+      </c>
+      <c r="I19" s="14">
+        <v>7.1189999999999998</v>
+      </c>
+      <c r="K19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L19" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="M19" s="14">
+        <v>93.194000000000003</v>
+      </c>
+      <c r="N19" s="15">
+        <v>45.99</v>
+      </c>
+      <c r="O19" s="14">
+        <v>23.207999999999998</v>
+      </c>
+      <c r="P19" s="14">
+        <v>12.199</v>
+      </c>
+      <c r="Q19" s="14">
+        <v>8.5559999999999992</v>
+      </c>
+      <c r="R19" s="14">
+        <v>6.8769999999999998</v>
+      </c>
+      <c r="T19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U19" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="V19" s="14">
+        <v>87.206000000000003</v>
+      </c>
+      <c r="W19" s="14">
+        <v>44.204999999999998</v>
+      </c>
+      <c r="X19" s="14">
+        <v>22.728000000000002</v>
+      </c>
+      <c r="Y19" s="14">
+        <v>12.064</v>
+      </c>
+      <c r="Z19" s="14">
+        <v>8.4079999999999995</v>
+      </c>
+      <c r="AA19" s="24">
+        <v>6.6669999999999998</v>
+      </c>
+      <c r="AC19" s="28"/>
+    </row>
+    <row r="20" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D20" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="E20" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="F20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="I20" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L20" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="M20" s="14">
+        <v>1.4E-2</v>
+      </c>
+      <c r="N20" s="14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="O20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="P20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q20" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="R20" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="T20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U20" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="V20" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="W20" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="X20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Y20" s="24">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Z20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AA20" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC20" s="28"/>
+    </row>
+    <row r="21" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AG7" s="1">
-        <v>8</v>
-      </c>
-      <c r="AH7" s="1">
-        <v>16</v>
-      </c>
-      <c r="AI7" s="1">
-        <v>32</v>
-      </c>
-      <c r="AJ7" s="1">
-        <v>64</v>
-      </c>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN7" s="1">
-        <v>2</v>
-      </c>
-      <c r="AO7" s="1">
+      <c r="C21" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="D21" s="14">
+        <v>15.202</v>
+      </c>
+      <c r="E21" s="14">
+        <v>7.4279999999999999</v>
+      </c>
+      <c r="F21" s="14">
+        <v>2.5649999999999999</v>
+      </c>
+      <c r="G21" s="14">
+        <v>1.798</v>
+      </c>
+      <c r="H21" s="14">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="I21" s="15">
+        <v>0.94</v>
+      </c>
+      <c r="K21" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="AP7" s="1">
-        <v>8</v>
-      </c>
-      <c r="AQ7" s="1">
-        <v>16</v>
-      </c>
-      <c r="AR7" s="1">
-        <v>32</v>
-      </c>
-      <c r="AS7" s="1">
-        <v>64</v>
-      </c>
+      <c r="L21" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="M21" s="14">
+        <v>14.308999999999999</v>
+      </c>
+      <c r="N21" s="14">
+        <v>7.1360000000000001</v>
+      </c>
+      <c r="O21" s="14">
+        <v>3.5830000000000002</v>
+      </c>
+      <c r="P21" s="14">
+        <v>1.8009999999999999</v>
+      </c>
+      <c r="Q21" s="14">
+        <v>1.2070000000000001</v>
+      </c>
+      <c r="R21" s="14">
+        <v>0.91300000000000003</v>
+      </c>
+      <c r="T21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U21" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="V21" s="14">
+        <v>14.278</v>
+      </c>
+      <c r="W21" s="14">
+        <v>7.1429999999999998</v>
+      </c>
+      <c r="X21" s="14">
+        <v>3.5830000000000002</v>
+      </c>
+      <c r="Y21" s="14">
+        <v>1.794</v>
+      </c>
+      <c r="Z21" s="14">
+        <v>1.202</v>
+      </c>
+      <c r="AA21" s="24">
+        <v>0.90900000000000003</v>
+      </c>
+      <c r="AC21" s="28"/>
     </row>
-    <row r="8" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="7">
-        <v>3.194</v>
-      </c>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="K8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L8" s="7">
-        <v>3.194</v>
-      </c>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
-      <c r="R8" s="2"/>
-      <c r="T8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U8" s="7">
-        <v>3.194</v>
-      </c>
-      <c r="V8" s="2"/>
-      <c r="W8" s="2"/>
-      <c r="X8" s="2"/>
-      <c r="Y8" s="2"/>
-      <c r="Z8" s="2"/>
-      <c r="AA8" s="2"/>
-      <c r="AC8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD8" s="7">
-        <v>3.194</v>
-      </c>
-      <c r="AE8" s="2"/>
-      <c r="AF8" s="2"/>
-      <c r="AG8" s="2"/>
-      <c r="AH8" s="2"/>
-      <c r="AI8" s="2"/>
-      <c r="AJ8" s="2"/>
-      <c r="AL8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM8" s="7">
-        <v>3.194</v>
-      </c>
-      <c r="AN8" s="2"/>
-      <c r="AO8" s="2"/>
-      <c r="AP8" s="2"/>
-      <c r="AQ8" s="2"/>
-      <c r="AR8" s="2"/>
-      <c r="AS8" s="2"/>
+    <row r="22" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L22" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U22" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA22" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC22" s="28"/>
     </row>
-    <row r="9" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="7">
-        <v>168.624</v>
-      </c>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-      <c r="K9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L9" s="7">
-        <v>168.624</v>
-      </c>
-      <c r="M9" s="2"/>
-      <c r="N9" s="2"/>
-      <c r="O9" s="2"/>
-      <c r="P9" s="2"/>
-      <c r="Q9" s="2"/>
-      <c r="R9" s="2"/>
-      <c r="T9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U9" s="7">
-        <v>168.624</v>
-      </c>
-      <c r="V9" s="2"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AC9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD9" s="7">
-        <v>168.624</v>
-      </c>
-      <c r="AE9" s="2"/>
-      <c r="AF9" s="2"/>
-      <c r="AG9" s="2"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="2"/>
-      <c r="AL9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM9" s="7">
-        <v>168.624</v>
-      </c>
-      <c r="AN9" s="2"/>
-      <c r="AO9" s="2"/>
-      <c r="AP9" s="2"/>
-      <c r="AQ9" s="2"/>
-      <c r="AR9" s="2"/>
-      <c r="AS9" s="2"/>
+    <row r="23" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23" s="7">
+        <v>0</v>
+      </c>
+      <c r="D23" s="20">
+        <v>0</v>
+      </c>
+      <c r="E23" s="20">
+        <v>0</v>
+      </c>
+      <c r="F23" s="20">
+        <v>0</v>
+      </c>
+      <c r="G23" s="20">
+        <v>0</v>
+      </c>
+      <c r="H23" s="20">
+        <v>0</v>
+      </c>
+      <c r="I23" s="20">
+        <v>0</v>
+      </c>
+      <c r="K23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L23" s="7">
+        <v>0</v>
+      </c>
+      <c r="M23" s="20">
+        <v>0</v>
+      </c>
+      <c r="N23" s="20">
+        <v>0</v>
+      </c>
+      <c r="O23" s="20">
+        <v>0</v>
+      </c>
+      <c r="P23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="20">
+        <v>0</v>
+      </c>
+      <c r="R23" s="20">
+        <v>0</v>
+      </c>
+      <c r="T23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U23" s="7">
+        <v>0</v>
+      </c>
+      <c r="V23" s="20">
+        <v>0</v>
+      </c>
+      <c r="W23" s="20">
+        <v>0</v>
+      </c>
+      <c r="X23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="28"/>
     </row>
-    <row r="10" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-      <c r="K10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="M10" s="2"/>
-      <c r="N10" s="2"/>
-      <c r="O10" s="2"/>
-      <c r="P10" s="2"/>
-      <c r="Q10" s="2"/>
-      <c r="R10" s="2"/>
-      <c r="T10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="V10" s="2"/>
-      <c r="W10" s="2"/>
-      <c r="X10" s="2"/>
-      <c r="Y10" s="2"/>
-      <c r="Z10" s="2"/>
-      <c r="AA10" s="2"/>
-      <c r="AC10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="AE10" s="2"/>
-      <c r="AF10" s="2"/>
-      <c r="AG10" s="2"/>
-      <c r="AH10" s="2"/>
-      <c r="AI10" s="2"/>
-      <c r="AJ10" s="2"/>
-      <c r="AL10" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM10" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="AN10" s="2"/>
-      <c r="AO10" s="2"/>
-      <c r="AP10" s="2"/>
-      <c r="AQ10" s="2"/>
-      <c r="AR10" s="2"/>
-      <c r="AS10" s="2"/>
+    <row r="24" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24" s="8">
+        <f>SUM(C18:C23)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="D24" s="3">
+        <f>SUM(D18:D23)</f>
+        <v>107.15199999999999</v>
+      </c>
+      <c r="E24" s="3">
+        <f>SUM(E18:E23)</f>
+        <v>57.143999999999998</v>
+      </c>
+      <c r="F24" s="3">
+        <f>SUM(F18:F23)</f>
+        <v>29.033000000000001</v>
+      </c>
+      <c r="G24" s="3">
+        <f>SUM(G18:G23)</f>
+        <v>17.286000000000001</v>
+      </c>
+      <c r="H24" s="3">
+        <f>SUM(H18:H23)</f>
+        <v>13.102</v>
+      </c>
+      <c r="I24" s="3">
+        <f>SUM(I18:I23)</f>
+        <v>11.401999999999999</v>
+      </c>
+      <c r="K24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L24" s="8">
+        <f>SUM(L18:L23)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="M24" s="3">
+        <f>SUM(M18:M23)</f>
+        <v>110.83199999999999</v>
+      </c>
+      <c r="N24" s="3">
+        <f>SUM(N18:N23)</f>
+        <v>56.452000000000005</v>
+      </c>
+      <c r="O24" s="3">
+        <f>SUM(O18:O23)</f>
+        <v>30.241999999999997</v>
+      </c>
+      <c r="P24" s="3">
+        <f>SUM(P18:P23)</f>
+        <v>17.312999999999999</v>
+      </c>
+      <c r="Q24" s="3">
+        <f>SUM(Q18:Q23)</f>
+        <v>13.08</v>
+      </c>
+      <c r="R24" s="3">
+        <f>SUM(R18:R23)</f>
+        <v>11.113</v>
+      </c>
+      <c r="T24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U24" s="8">
+        <f>SUM(U18:U23)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="V24" s="3">
+        <f>SUM(V18:V23)</f>
+        <v>104.80600000000001</v>
+      </c>
+      <c r="W24" s="3">
+        <f>SUM(W18:W23)</f>
+        <v>54.663999999999994</v>
+      </c>
+      <c r="X24" s="3">
+        <f>SUM(X18:X23)</f>
+        <v>29.625</v>
+      </c>
+      <c r="Y24" s="3">
+        <f>SUM(Y18:Y23)</f>
+        <v>17.170999999999999</v>
+      </c>
+      <c r="Z24" s="3">
+        <f>SUM(Z18:Z23)</f>
+        <v>12.931000000000001</v>
+      </c>
+      <c r="AA24" s="3">
+        <f>SUM(AA18:AA23)</f>
+        <v>10.89</v>
+      </c>
+      <c r="AC24" s="28"/>
     </row>
-    <row r="11" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="7">
-        <v>28.809000000000001</v>
-      </c>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-      <c r="K11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L11" s="7">
-        <v>28.809000000000001</v>
-      </c>
-      <c r="M11" s="2"/>
-      <c r="N11" s="2"/>
-      <c r="O11" s="2"/>
-      <c r="P11" s="2"/>
-      <c r="Q11" s="2"/>
-      <c r="R11" s="2"/>
-      <c r="T11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U11" s="7">
-        <v>28.809000000000001</v>
-      </c>
-      <c r="V11" s="2"/>
-      <c r="W11" s="2"/>
-      <c r="X11" s="2"/>
-      <c r="Y11" s="2"/>
-      <c r="Z11" s="2"/>
-      <c r="AA11" s="2"/>
-      <c r="AC11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD11" s="7">
-        <v>28.809000000000001</v>
-      </c>
-      <c r="AE11" s="2"/>
-      <c r="AF11" s="2"/>
-      <c r="AG11" s="2"/>
-      <c r="AH11" s="2"/>
-      <c r="AI11" s="2"/>
-      <c r="AJ11" s="2"/>
-      <c r="AL11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM11" s="7">
-        <v>28.809000000000001</v>
-      </c>
-      <c r="AN11" s="2"/>
-      <c r="AO11" s="2"/>
-      <c r="AP11" s="2"/>
-      <c r="AQ11" s="2"/>
-      <c r="AR11" s="2"/>
-      <c r="AS11" s="2"/>
+    <row r="25" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D25" s="25">
+        <f>$C$24/D24</f>
+        <v>2.1358350754068987</v>
+      </c>
+      <c r="E25" s="25">
+        <f t="shared" ref="E25:I25" si="3">$C$24/E24</f>
+        <v>4.0049524009519804</v>
+      </c>
+      <c r="F25" s="25">
+        <f t="shared" si="3"/>
+        <v>7.8827196638308124</v>
+      </c>
+      <c r="G25" s="25">
+        <f t="shared" si="3"/>
+        <v>13.239558023834315</v>
+      </c>
+      <c r="H25" s="25">
+        <f t="shared" si="3"/>
+        <v>17.467485880018316</v>
+      </c>
+      <c r="I25" s="25">
+        <f t="shared" si="3"/>
+        <v>20.071829503595861</v>
+      </c>
+      <c r="K25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M25" s="25">
+        <f>$L$24/M24</f>
+        <v>2.0649180742023963</v>
+      </c>
+      <c r="N25" s="25">
+        <f t="shared" ref="N25:R25" si="4">$L$24/N24</f>
+        <v>4.0540459151137238</v>
+      </c>
+      <c r="O25" s="25">
+        <f t="shared" si="4"/>
+        <v>7.5675881224786723</v>
+      </c>
+      <c r="P25" s="25">
+        <f t="shared" si="4"/>
+        <v>13.218910645179923</v>
+      </c>
+      <c r="Q25" s="25">
+        <f t="shared" si="4"/>
+        <v>17.496865443425076</v>
+      </c>
+      <c r="R25" s="25">
+        <f t="shared" si="4"/>
+        <v>20.593809052461079</v>
+      </c>
+      <c r="T25" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U25" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V25" s="25">
+        <f>$U$24/V24</f>
+        <v>2.1836440661794168</v>
+      </c>
+      <c r="W25" s="25">
+        <f t="shared" ref="W25:AA25" si="5">$U$24/W24</f>
+        <v>4.1866493487487197</v>
+      </c>
+      <c r="X25" s="25">
+        <f t="shared" si="5"/>
+        <v>7.7251983122362864</v>
+      </c>
+      <c r="Y25" s="25">
+        <f t="shared" si="5"/>
+        <v>13.328227825985673</v>
+      </c>
+      <c r="Z25" s="25">
+        <f t="shared" si="5"/>
+        <v>17.698476529270742</v>
+      </c>
+      <c r="AA25" s="27">
+        <f t="shared" si="5"/>
+        <v>21.015518824609732</v>
+      </c>
+      <c r="AC25" s="28"/>
     </row>
-    <row r="12" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-      <c r="K12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L12" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M12" s="2"/>
-      <c r="N12" s="2"/>
-      <c r="O12" s="2"/>
-      <c r="P12" s="2"/>
-      <c r="Q12" s="2"/>
-      <c r="R12" s="2"/>
-      <c r="T12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U12" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V12" s="2"/>
-      <c r="W12" s="2"/>
-      <c r="X12" s="2"/>
-      <c r="Y12" s="2"/>
-      <c r="Z12" s="2"/>
-      <c r="AA12" s="2"/>
-      <c r="AC12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD12" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AE12" s="2"/>
-      <c r="AF12" s="2"/>
-      <c r="AG12" s="2"/>
-      <c r="AH12" s="2"/>
-      <c r="AI12" s="2"/>
-      <c r="AJ12" s="2"/>
-      <c r="AL12" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM12" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AN12" s="2"/>
-      <c r="AO12" s="2"/>
-      <c r="AP12" s="2"/>
-      <c r="AQ12" s="2"/>
-      <c r="AR12" s="2"/>
-      <c r="AS12" s="2"/>
-    </row>
-    <row r="13" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C13" s="8">
-        <v>0</v>
-      </c>
-      <c r="D13" s="2"/>
-      <c r="E13" s="2"/>
-      <c r="F13" s="2"/>
-      <c r="G13" s="2"/>
-      <c r="H13" s="2"/>
-      <c r="I13" s="2"/>
-      <c r="K13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L13" s="8">
-        <v>0</v>
-      </c>
-      <c r="M13" s="2"/>
-      <c r="N13" s="2"/>
-      <c r="O13" s="2"/>
-      <c r="P13" s="2"/>
-      <c r="Q13" s="2"/>
-      <c r="R13" s="2"/>
-      <c r="T13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U13" s="8">
-        <v>0</v>
-      </c>
-      <c r="V13" s="2"/>
-      <c r="W13" s="2"/>
-      <c r="X13" s="2"/>
-      <c r="Y13" s="2"/>
-      <c r="Z13" s="2"/>
-      <c r="AA13" s="2"/>
-      <c r="AC13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AE13" s="2"/>
-      <c r="AF13" s="2"/>
-      <c r="AG13" s="2"/>
-      <c r="AH13" s="2"/>
-      <c r="AI13" s="2"/>
-      <c r="AJ13" s="2"/>
-      <c r="AL13" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM13" s="8">
-        <v>0</v>
-      </c>
-      <c r="AN13" s="2"/>
-      <c r="AO13" s="2"/>
-      <c r="AP13" s="2"/>
-      <c r="AQ13" s="2"/>
-      <c r="AR13" s="2"/>
-      <c r="AS13" s="2"/>
-    </row>
-    <row r="14" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C14" s="9">
-        <f>SUM(C8:C13)</f>
-        <v>200.64999999999998</v>
-      </c>
-      <c r="D14" s="3">
-        <f>SUM(D8:D13)</f>
-        <v>0</v>
-      </c>
-      <c r="E14" s="3">
-        <f t="shared" ref="E14:H14" si="0">SUM(E8:E13)</f>
-        <v>0</v>
-      </c>
-      <c r="F14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I14" s="3">
-        <f>SUM(I8:I13)</f>
-        <v>0</v>
-      </c>
-      <c r="K14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L14" s="9">
-        <f>SUM(L8:L13)</f>
-        <v>200.64999999999998</v>
-      </c>
-      <c r="M14" s="3">
-        <f>SUM(M8:M13)</f>
-        <v>0</v>
-      </c>
-      <c r="N14" s="3">
-        <f t="shared" ref="N14:Q14" si="1">SUM(N8:N13)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="P14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="Q14" s="3">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="R14" s="3">
-        <f>SUM(R8:R13)</f>
-        <v>0</v>
-      </c>
-      <c r="T14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U14" s="9">
-        <f>SUM(U8:U13)</f>
-        <v>200.64999999999998</v>
-      </c>
-      <c r="V14" s="3">
-        <f>SUM(V8:V13)</f>
-        <v>0</v>
-      </c>
-      <c r="W14" s="3">
-        <f t="shared" ref="W14:Z14" si="2">SUM(W8:W13)</f>
-        <v>0</v>
-      </c>
-      <c r="X14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Y14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="Z14" s="3">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="AA14" s="3">
-        <f>SUM(AA8:AA13)</f>
-        <v>0</v>
-      </c>
-      <c r="AC14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD14" s="9">
-        <f>SUM(AD8:AD13)</f>
-        <v>200.64999999999998</v>
-      </c>
-      <c r="AE14" s="3">
-        <f>SUM(AE8:AE13)</f>
-        <v>0</v>
-      </c>
-      <c r="AF14" s="3">
-        <f t="shared" ref="AF14:AI14" si="3">SUM(AF8:AF13)</f>
-        <v>0</v>
-      </c>
-      <c r="AG14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AH14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AI14" s="3">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="AJ14" s="3">
-        <f>SUM(AJ8:AJ13)</f>
-        <v>0</v>
-      </c>
-      <c r="AL14" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM14" s="9">
-        <f>SUM(AM8:AM13)</f>
-        <v>200.64999999999998</v>
-      </c>
-      <c r="AN14" s="3">
-        <f>SUM(AN8:AN13)</f>
-        <v>0</v>
-      </c>
-      <c r="AO14" s="3">
-        <f t="shared" ref="AO14:AR14" si="4">SUM(AO8:AO13)</f>
-        <v>0</v>
-      </c>
-      <c r="AP14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AQ14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AR14" s="3">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-      <c r="AS14" s="3">
-        <f>SUM(AS8:AS13)</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="16" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="17" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-      <c r="E16" s="17"/>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17"/>
-      <c r="H16" s="17"/>
-      <c r="I16" s="17"/>
-      <c r="K16" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="L16" s="17"/>
-      <c r="M16" s="17"/>
-      <c r="N16" s="17"/>
-      <c r="O16" s="17"/>
-      <c r="P16" s="17"/>
-      <c r="Q16" s="17"/>
-      <c r="R16" s="17"/>
-      <c r="T16" s="17" t="s">
-        <v>10</v>
-      </c>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="17"/>
-      <c r="X16" s="17"/>
-      <c r="Y16" s="17"/>
-      <c r="Z16" s="17"/>
-      <c r="AA16" s="17"/>
-      <c r="AC16" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="AD16" s="17"/>
-      <c r="AE16" s="17"/>
-      <c r="AF16" s="17"/>
-      <c r="AG16" s="17"/>
-      <c r="AH16" s="17"/>
-      <c r="AI16" s="17"/>
-      <c r="AJ16" s="17"/>
-      <c r="AL16" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="AM16" s="17"/>
-      <c r="AN16" s="17"/>
-      <c r="AO16" s="17"/>
-      <c r="AP16" s="17"/>
-      <c r="AQ16" s="17"/>
-      <c r="AR16" s="17"/>
-      <c r="AS16" s="17"/>
-    </row>
-    <row r="17" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC17" s="4"/>
-      <c r="AD17" s="4"/>
-      <c r="AE17" s="4"/>
-      <c r="AF17" s="4"/>
-      <c r="AG17" s="4"/>
-      <c r="AH17" s="4"/>
-      <c r="AI17" s="4"/>
-      <c r="AJ17" s="4"/>
-      <c r="AL17" s="4"/>
-      <c r="AM17" s="4"/>
-      <c r="AN17" s="4"/>
-      <c r="AO17" s="4"/>
-      <c r="AP17" s="4"/>
-      <c r="AQ17" s="4"/>
-      <c r="AR17" s="4"/>
-      <c r="AS17" s="4"/>
-    </row>
-    <row r="18" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D18" s="1">
-        <v>2</v>
-      </c>
-      <c r="E18" s="1">
-        <v>4</v>
-      </c>
-      <c r="F18" s="1">
-        <v>8</v>
-      </c>
-      <c r="G18" s="1">
-        <v>16</v>
-      </c>
-      <c r="H18" s="1">
-        <v>32</v>
-      </c>
-      <c r="I18" s="1">
-        <v>64</v>
-      </c>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="M18" s="1">
-        <v>2</v>
-      </c>
-      <c r="N18" s="1">
-        <v>4</v>
-      </c>
-      <c r="O18" s="1">
-        <v>8</v>
-      </c>
-      <c r="P18" s="1">
-        <v>16</v>
-      </c>
-      <c r="Q18" s="1">
-        <v>32</v>
-      </c>
-      <c r="R18" s="1">
-        <v>64</v>
-      </c>
-      <c r="T18" s="1"/>
-      <c r="U18" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="V18" s="1">
-        <v>2</v>
-      </c>
-      <c r="W18" s="1">
-        <v>4</v>
-      </c>
-      <c r="X18" s="1">
-        <v>8</v>
-      </c>
-      <c r="Y18" s="1">
-        <v>16</v>
-      </c>
-      <c r="Z18" s="1">
-        <v>32</v>
-      </c>
-      <c r="AA18" s="1">
-        <v>64</v>
-      </c>
-      <c r="AC18" s="5"/>
-      <c r="AD18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AE18" s="5">
-        <v>2</v>
-      </c>
-      <c r="AF18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AG18" s="5">
-        <v>8</v>
-      </c>
-      <c r="AH18" s="5">
-        <v>16</v>
-      </c>
-      <c r="AI18" s="5">
-        <v>32</v>
-      </c>
-      <c r="AJ18" s="5">
-        <v>64</v>
-      </c>
-      <c r="AL18" s="5"/>
-      <c r="AM18" s="5" t="s">
-        <v>0</v>
-      </c>
-      <c r="AN18" s="5">
-        <v>2</v>
-      </c>
-      <c r="AO18" s="5">
-        <v>4</v>
-      </c>
-      <c r="AP18" s="5">
-        <v>8</v>
-      </c>
-      <c r="AQ18" s="5">
-        <v>16</v>
-      </c>
-      <c r="AR18" s="5">
-        <v>32</v>
-      </c>
-      <c r="AS18" s="5">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="19" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C19" s="7">
-        <v>0.379</v>
-      </c>
-      <c r="D19" s="2"/>
-      <c r="E19" s="2"/>
-      <c r="F19" s="2"/>
-      <c r="G19" s="2"/>
-      <c r="H19" s="2"/>
-      <c r="I19" s="2"/>
-      <c r="K19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="L19" s="7">
-        <v>0.379</v>
-      </c>
-      <c r="M19" s="2"/>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" s="2"/>
-      <c r="Q19" s="2"/>
-      <c r="R19" s="2"/>
-      <c r="T19" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="U19" s="7">
-        <v>0.379</v>
-      </c>
-      <c r="V19" s="2"/>
-      <c r="W19" s="2"/>
-      <c r="X19" s="2"/>
-      <c r="Y19" s="2"/>
-      <c r="Z19" s="2"/>
-      <c r="AA19" s="2"/>
-      <c r="AC19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="10">
-        <v>0.379</v>
-      </c>
-      <c r="AE19" s="6"/>
-      <c r="AF19" s="6"/>
-      <c r="AG19" s="6"/>
-      <c r="AH19" s="6"/>
-      <c r="AI19" s="6"/>
-      <c r="AJ19" s="6"/>
-      <c r="AL19" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="AM19" s="10">
-        <v>0.379</v>
-      </c>
-      <c r="AN19" s="6"/>
-      <c r="AO19" s="6"/>
-      <c r="AP19" s="6"/>
-      <c r="AQ19" s="6"/>
-      <c r="AR19" s="6"/>
-      <c r="AS19" s="6"/>
-    </row>
-    <row r="20" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C20" s="7">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="D20" s="15">
-        <v>3.7629999999999999</v>
-      </c>
-      <c r="E20" s="15">
-        <v>1.974</v>
-      </c>
-      <c r="F20" s="15">
-        <v>0.98799999999999999</v>
-      </c>
-      <c r="G20" s="16">
-        <v>0.51900000000000002</v>
-      </c>
-      <c r="H20" s="15">
-        <v>0.40699999999999997</v>
-      </c>
-      <c r="I20" s="15">
-        <v>1.2030000000000001</v>
-      </c>
-      <c r="K20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L20" s="7">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="M20" s="15">
-        <v>3.8029999999999999</v>
-      </c>
-      <c r="N20" s="15">
-        <v>1.929</v>
-      </c>
-      <c r="O20" s="15">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="P20" s="16">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="Q20" s="15">
-        <v>0.40600000000000003</v>
-      </c>
-      <c r="R20" s="15">
-        <v>1.135</v>
-      </c>
-      <c r="T20" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="U20" s="7">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="V20" s="15">
-        <v>3.7930000000000001</v>
-      </c>
-      <c r="W20" s="16">
-        <v>1.93</v>
-      </c>
-      <c r="X20" s="15">
-        <v>0.99199999999999999</v>
-      </c>
-      <c r="Y20" s="16">
-        <v>0.52100000000000002</v>
-      </c>
-      <c r="Z20" s="16">
-        <v>0.4</v>
-      </c>
-      <c r="AA20" s="15">
-        <v>1.1359999999999999</v>
-      </c>
-      <c r="AC20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD20" s="10">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="AE20" s="13">
-        <v>3.8239999999999998</v>
-      </c>
-      <c r="AF20" s="13">
-        <v>1.962</v>
-      </c>
-      <c r="AG20" s="13">
-        <v>1.008</v>
-      </c>
-      <c r="AH20" s="14">
-        <v>0.53</v>
-      </c>
-      <c r="AI20" s="12">
-        <v>0.28799999999999998</v>
-      </c>
-      <c r="AJ20" s="13">
-        <v>0.35799999999999998</v>
-      </c>
-      <c r="AL20" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="AM20" s="10">
-        <v>7.5910000000000002</v>
-      </c>
-      <c r="AN20" s="13">
-        <v>3.879</v>
-      </c>
-      <c r="AO20" s="13">
-        <v>1.925</v>
-      </c>
-      <c r="AP20" s="13">
-        <v>0.995</v>
-      </c>
-      <c r="AQ20" s="14">
-        <v>0.52200000000000002</v>
-      </c>
-      <c r="AR20" s="13">
-        <v>0.311</v>
-      </c>
-      <c r="AS20" s="14">
-        <v>1.1599999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="D21" s="2"/>
-      <c r="E21" s="2"/>
-      <c r="F21" s="2"/>
-      <c r="G21" s="2"/>
-      <c r="H21" s="2"/>
-      <c r="I21" s="2"/>
-      <c r="K21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="L21" s="8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="M21" s="2"/>
-      <c r="N21" s="2"/>
-      <c r="O21" s="2"/>
-      <c r="P21" s="2"/>
-      <c r="Q21" s="2"/>
-      <c r="R21" s="2"/>
-      <c r="T21" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="U21" s="8">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="V21" s="2"/>
-      <c r="W21" s="2"/>
-      <c r="X21" s="2"/>
-      <c r="Y21" s="2"/>
-      <c r="Z21" s="2"/>
-      <c r="AA21" s="2"/>
-      <c r="AC21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AD21" s="11">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AE21" s="6"/>
-      <c r="AF21" s="6"/>
-      <c r="AG21" s="6"/>
-      <c r="AH21" s="6"/>
-      <c r="AI21" s="6"/>
-      <c r="AJ21" s="6"/>
-      <c r="AL21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="AM21" s="11">
-        <v>1.7999999999999999E-2</v>
-      </c>
-      <c r="AN21" s="6"/>
-      <c r="AO21" s="6"/>
-      <c r="AP21" s="6"/>
-      <c r="AQ21" s="6"/>
-      <c r="AR21" s="6"/>
-      <c r="AS21" s="6"/>
-    </row>
-    <row r="22" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C22" s="7">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="D22" s="15">
-        <v>0.42799999999999999</v>
-      </c>
-      <c r="E22" s="16">
-        <v>0.26</v>
-      </c>
-      <c r="F22" s="15">
-        <v>0.13800000000000001</v>
-      </c>
-      <c r="G22" s="15">
-        <v>8.5000000000000006E-2</v>
-      </c>
-      <c r="H22" s="15">
-        <v>4.2000000000000003E-2</v>
-      </c>
-      <c r="I22" s="15">
-        <v>2.9860000000000002</v>
-      </c>
-      <c r="K22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="L22" s="7">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="M22" s="15">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="N22" s="15">
-        <v>0.14599999999999999</v>
-      </c>
-      <c r="O22" s="15">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="P22" s="15">
-        <v>3.9E-2</v>
-      </c>
-      <c r="Q22" s="15">
-        <v>2.8000000000000001E-2</v>
-      </c>
-      <c r="R22" s="15">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="T22" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="U22" s="7">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="V22" s="15">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="W22" s="15">
-        <v>0.14799999999999999</v>
-      </c>
-      <c r="X22" s="15">
-        <v>7.5999999999999998E-2</v>
-      </c>
-      <c r="Y22" s="16">
-        <v>0.04</v>
-      </c>
-      <c r="Z22" s="15">
-        <v>3.1E-2</v>
-      </c>
-      <c r="AA22" s="15">
-        <v>2.5470000000000002</v>
-      </c>
-      <c r="AC22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AD22" s="10">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="AE22" s="13">
-        <v>0.29099999999999998</v>
-      </c>
-      <c r="AF22" s="13">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AG22" s="13">
-        <v>7.6999999999999999E-2</v>
-      </c>
-      <c r="AH22" s="14">
-        <v>0.04</v>
-      </c>
-      <c r="AI22" s="13">
-        <v>3.2000000000000001E-2</v>
-      </c>
-      <c r="AJ22" s="13">
-        <v>2.5630000000000002</v>
-      </c>
-      <c r="AL22" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM22" s="10">
-        <v>0.58699999999999997</v>
-      </c>
-      <c r="AN22" s="13">
-        <v>0.29299999999999998</v>
-      </c>
-      <c r="AO22" s="13">
-        <v>0.14499999999999999</v>
-      </c>
-      <c r="AP22" s="13">
-        <v>7.3999999999999996E-2</v>
-      </c>
-      <c r="AQ22" s="13">
-        <v>3.9E-2</v>
-      </c>
-      <c r="AR22" s="12">
-        <v>2.3E-2</v>
-      </c>
-      <c r="AS22" s="13">
-        <v>0.11600000000000001</v>
-      </c>
-    </row>
-    <row r="23" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C23" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D23" s="2"/>
-      <c r="E23" s="2"/>
-      <c r="F23" s="2"/>
-      <c r="G23" s="2"/>
-      <c r="H23" s="2"/>
-      <c r="I23" s="2"/>
-      <c r="K23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="L23" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="M23" s="2"/>
-      <c r="N23" s="2"/>
-      <c r="O23" s="2"/>
-      <c r="P23" s="2"/>
-      <c r="Q23" s="2"/>
-      <c r="R23" s="2"/>
-      <c r="T23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="U23" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="V23" s="2"/>
-      <c r="W23" s="2"/>
-      <c r="X23" s="2"/>
-      <c r="Y23" s="2"/>
-      <c r="Z23" s="2"/>
-      <c r="AA23" s="2"/>
-      <c r="AC23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD23" s="10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AE23" s="6"/>
-      <c r="AF23" s="6"/>
-      <c r="AG23" s="6"/>
-      <c r="AH23" s="6"/>
-      <c r="AI23" s="6"/>
-      <c r="AJ23" s="6"/>
-      <c r="AL23" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="AM23" s="10">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="AN23" s="6"/>
-      <c r="AO23" s="6"/>
-      <c r="AP23" s="6"/>
-      <c r="AQ23" s="6"/>
-      <c r="AR23" s="6"/>
-      <c r="AS23" s="6"/>
-    </row>
-    <row r="24" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C24" s="8">
-        <v>0</v>
-      </c>
-      <c r="D24" s="2"/>
-      <c r="E24" s="2"/>
-      <c r="F24" s="2"/>
-      <c r="G24" s="2"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="K24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="L24" s="8">
-        <v>0</v>
-      </c>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="T24" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="U24" s="8">
-        <v>0</v>
-      </c>
-      <c r="V24" s="2"/>
-      <c r="W24" s="2"/>
-      <c r="X24" s="2"/>
-      <c r="Y24" s="2"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AC24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AD24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AE24" s="6"/>
-      <c r="AF24" s="6"/>
-      <c r="AG24" s="6"/>
-      <c r="AH24" s="6"/>
-      <c r="AI24" s="6"/>
-      <c r="AJ24" s="6"/>
-      <c r="AL24" s="5" t="s">
-        <v>6</v>
-      </c>
-      <c r="AM24" s="11">
-        <v>0</v>
-      </c>
-      <c r="AN24" s="6"/>
-      <c r="AO24" s="6"/>
-      <c r="AP24" s="6"/>
-      <c r="AQ24" s="6"/>
-      <c r="AR24" s="6"/>
-      <c r="AS24" s="6"/>
-    </row>
-    <row r="25" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C25" s="9">
-        <f>SUM(C19:C24)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="D25" s="3">
-        <f>SUM(D19:D24)</f>
-        <v>4.1909999999999998</v>
-      </c>
-      <c r="E25" s="3">
-        <f t="shared" ref="E25:H25" si="5">SUM(E19:E24)</f>
-        <v>2.234</v>
-      </c>
-      <c r="F25" s="3">
-        <f t="shared" si="5"/>
-        <v>1.1259999999999999</v>
-      </c>
-      <c r="G25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.60399999999999998</v>
-      </c>
-      <c r="H25" s="3">
-        <f t="shared" si="5"/>
-        <v>0.44899999999999995</v>
-      </c>
-      <c r="I25" s="3">
-        <f>SUM(I19:I24)</f>
-        <v>4.1890000000000001</v>
-      </c>
-      <c r="K25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="L25" s="9">
-        <f>SUM(L19:L24)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="M25" s="3">
-        <f>SUM(M19:M24)</f>
-        <v>4.0960000000000001</v>
-      </c>
-      <c r="N25" s="3">
-        <f t="shared" ref="N25:Q25" si="6">SUM(N19:N24)</f>
-        <v>2.0750000000000002</v>
-      </c>
-      <c r="O25" s="3">
-        <f t="shared" si="6"/>
-        <v>1.0660000000000001</v>
-      </c>
-      <c r="P25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="Q25" s="3">
-        <f t="shared" si="6"/>
-        <v>0.43400000000000005</v>
-      </c>
-      <c r="R25" s="3">
-        <f>SUM(R19:R24)</f>
-        <v>1.212</v>
-      </c>
-      <c r="T25" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="U25" s="9">
-        <f>SUM(U19:U24)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="V25" s="3">
-        <f>SUM(V19:V24)</f>
-        <v>4.0860000000000003</v>
-      </c>
-      <c r="W25" s="3">
-        <f t="shared" ref="W25:Z25" si="7">SUM(W19:W24)</f>
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="X25" s="3">
-        <f t="shared" si="7"/>
-        <v>1.0680000000000001</v>
-      </c>
-      <c r="Y25" s="3">
-        <f t="shared" si="7"/>
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="Z25" s="3">
-        <f t="shared" si="7"/>
-        <v>0.43100000000000005</v>
-      </c>
-      <c r="AA25" s="3">
-        <f>SUM(AA19:AA24)</f>
-        <v>3.6829999999999998</v>
-      </c>
-      <c r="AC25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AD25" s="10">
-        <f>SUM(AD19:AD24)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="AE25" s="6">
-        <f>SUM(AE19:AE24)</f>
-        <v>4.1150000000000002</v>
-      </c>
-      <c r="AF25" s="6">
-        <f t="shared" ref="AF25:AI25" si="8">SUM(AF19:AF24)</f>
-        <v>2.1069999999999998</v>
-      </c>
-      <c r="AG25" s="6">
-        <f t="shared" si="8"/>
-        <v>1.085</v>
-      </c>
-      <c r="AH25" s="6">
-        <f t="shared" si="8"/>
-        <v>0.57000000000000006</v>
-      </c>
-      <c r="AI25" s="6">
-        <f t="shared" si="8"/>
-        <v>0.31999999999999995</v>
-      </c>
-      <c r="AJ25" s="6">
-        <f>SUM(AJ19:AJ24)</f>
-        <v>2.9210000000000003</v>
-      </c>
-      <c r="AL25" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="AM25" s="10">
-        <f>SUM(AM19:AM24)</f>
-        <v>8.5780000000000012</v>
-      </c>
-      <c r="AN25" s="6">
-        <f>SUM(AN19:AN24)</f>
-        <v>4.1719999999999997</v>
-      </c>
-      <c r="AO25" s="6">
-        <f t="shared" ref="AO25:AR25" si="9">SUM(AO19:AO24)</f>
-        <v>2.0699999999999998</v>
-      </c>
-      <c r="AP25" s="6">
-        <f t="shared" si="9"/>
-        <v>1.069</v>
-      </c>
-      <c r="AQ25" s="6">
-        <f t="shared" si="9"/>
-        <v>0.56100000000000005</v>
-      </c>
-      <c r="AR25" s="6">
-        <f t="shared" si="9"/>
-        <v>0.33400000000000002</v>
-      </c>
-      <c r="AS25" s="6">
-        <f>SUM(AS19:AS24)</f>
-        <v>1.276</v>
-      </c>
-    </row>
-    <row r="26" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:29" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T26" s="4"/>
       <c r="U26" s="4"/>
       <c r="V26" s="4"/>
@@ -5229,128 +5240,1662 @@
       <c r="Y26" s="4"/>
       <c r="Z26" s="4"/>
       <c r="AA26" s="4"/>
-      <c r="AC26" s="4"/>
-      <c r="AD26" s="4"/>
-      <c r="AE26" s="4"/>
-      <c r="AF26" s="4"/>
-      <c r="AG26" s="4"/>
-      <c r="AH26" s="4"/>
-      <c r="AI26" s="4"/>
-      <c r="AJ26" s="4"/>
     </row>
-    <row r="27" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="17" t="s">
+    <row r="27" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" s="19"/>
+      <c r="D27" s="19"/>
+      <c r="E27" s="19"/>
+      <c r="F27" s="19"/>
+      <c r="G27" s="19"/>
+      <c r="H27" s="19"/>
+      <c r="I27" s="19"/>
+      <c r="K27" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="L27" s="19"/>
+      <c r="M27" s="19"/>
+      <c r="N27" s="19"/>
+      <c r="O27" s="19"/>
+      <c r="P27" s="19"/>
+      <c r="Q27" s="19"/>
+      <c r="R27" s="19"/>
+      <c r="T27" s="19" t="s">
+        <v>10</v>
+      </c>
+      <c r="U27" s="19"/>
+      <c r="V27" s="19"/>
+      <c r="W27" s="19"/>
+      <c r="X27" s="19"/>
+      <c r="Y27" s="19"/>
+      <c r="Z27" s="19"/>
+      <c r="AA27" s="19"/>
+      <c r="AC27" s="28">
+        <v>25000</v>
+      </c>
+    </row>
+    <row r="28" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B28" s="1"/>
+      <c r="C28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D28" s="1">
+        <v>2</v>
+      </c>
+      <c r="E28" s="1">
+        <v>4</v>
+      </c>
+      <c r="F28" s="1">
+        <v>8</v>
+      </c>
+      <c r="G28" s="1">
+        <v>16</v>
+      </c>
+      <c r="H28" s="1">
+        <v>24</v>
+      </c>
+      <c r="I28" s="1">
+        <v>32</v>
+      </c>
+      <c r="K28" s="1"/>
+      <c r="L28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M28" s="1">
+        <v>2</v>
+      </c>
+      <c r="N28" s="1">
+        <v>4</v>
+      </c>
+      <c r="O28" s="1">
+        <v>8</v>
+      </c>
+      <c r="P28" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>24</v>
+      </c>
+      <c r="R28" s="1">
+        <v>32</v>
+      </c>
+      <c r="T28" s="1"/>
+      <c r="U28" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V28" s="1">
+        <v>2</v>
+      </c>
+      <c r="W28" s="1">
+        <v>4</v>
+      </c>
+      <c r="X28" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z28" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC28" s="28"/>
+    </row>
+    <row r="29" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29" s="6">
+        <v>0.379</v>
+      </c>
+      <c r="D29" s="21">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E29" s="21">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="F29" s="21">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G29" s="21">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="H29" s="21">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I29" s="21">
+        <v>0.39100000000000001</v>
+      </c>
+      <c r="K29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L29" s="6">
+        <v>0.379</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="R29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="T29" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U29" s="6">
+        <v>0.379</v>
+      </c>
+      <c r="V29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="W29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="X29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Y29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Z29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AA29" s="2">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AC29" s="28"/>
+    </row>
+    <row r="30" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C30" s="6">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="D30" s="14">
+        <v>3.83</v>
+      </c>
+      <c r="E30" s="14">
+        <v>1.974</v>
+      </c>
+      <c r="F30" s="14">
+        <v>1.236</v>
+      </c>
+      <c r="G30" s="15">
+        <v>0.95199999999999996</v>
+      </c>
+      <c r="H30" s="15">
+        <v>0.88600000000000001</v>
+      </c>
+      <c r="I30" s="14">
+        <v>0.78500000000000003</v>
+      </c>
+      <c r="K30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L30" s="6">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="M30" s="14">
+        <v>3.9089999999999998</v>
+      </c>
+      <c r="N30" s="14">
+        <v>1.996</v>
+      </c>
+      <c r="O30" s="14">
+        <v>1.014</v>
+      </c>
+      <c r="P30" s="15">
+        <v>0.69399999999999995</v>
+      </c>
+      <c r="Q30" s="15">
+        <v>0.63200000000000001</v>
+      </c>
+      <c r="R30" s="14">
+        <v>0.58399999999999996</v>
+      </c>
+      <c r="T30" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U30" s="6">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="V30" s="14">
+        <v>3.7789999999999999</v>
+      </c>
+      <c r="W30" s="15">
+        <v>1.946</v>
+      </c>
+      <c r="X30" s="14">
+        <v>1.028</v>
+      </c>
+      <c r="Y30" s="15">
+        <v>0.746</v>
+      </c>
+      <c r="Z30" s="15">
+        <v>0.68899999999999995</v>
+      </c>
+      <c r="AA30" s="15">
+        <v>0.60699999999999998</v>
+      </c>
+      <c r="AC30" s="28"/>
+    </row>
+    <row r="31" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C31" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D31" s="14">
+        <v>8.9999999999999993E-3</v>
+      </c>
+      <c r="E31" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="F31" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I31" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="K31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L31" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M31" s="14">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N31" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O31" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P31" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="Q31" s="14">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="R31" s="14">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T31" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U31" s="7">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="V31" s="14">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W31" s="14">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="X31" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y31" s="24">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z31" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA31" s="14">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AC31" s="28"/>
+    </row>
+    <row r="32" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C32" s="6">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D32" s="14">
+        <v>0.438</v>
+      </c>
+      <c r="E32" s="15">
+        <v>0.25700000000000001</v>
+      </c>
+      <c r="F32" s="14">
+        <v>0.13800000000000001</v>
+      </c>
+      <c r="G32" s="14">
+        <v>7.8E-2</v>
+      </c>
+      <c r="H32" s="14">
+        <v>5.8999999999999997E-2</v>
+      </c>
+      <c r="I32" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="K32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L32" s="6">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M32" s="14">
+        <v>0.30099999999999999</v>
+      </c>
+      <c r="N32" s="14">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O32" s="14">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P32" s="14">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="Q32" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="R32" s="14">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="T32" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U32" s="6">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="V32" s="14">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="W32" s="14">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="X32" s="14">
+        <v>7.5999999999999998E-2</v>
+      </c>
+      <c r="Y32" s="15">
+        <v>0.04</v>
+      </c>
+      <c r="Z32" s="15">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AA32" s="14">
+        <v>3.1E-2</v>
+      </c>
+      <c r="AC32" s="28"/>
+    </row>
+    <row r="33" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C33" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L33" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T33" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U33" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA33" s="14">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC33" s="28"/>
+    </row>
+    <row r="34" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C34" s="7">
+        <v>0</v>
+      </c>
+      <c r="D34" s="20">
+        <v>0</v>
+      </c>
+      <c r="E34" s="20">
+        <v>0</v>
+      </c>
+      <c r="F34" s="20">
+        <v>0</v>
+      </c>
+      <c r="G34" s="20">
+        <v>0</v>
+      </c>
+      <c r="H34" s="20">
+        <v>0</v>
+      </c>
+      <c r="I34" s="20">
+        <v>0</v>
+      </c>
+      <c r="K34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L34" s="7">
+        <v>0</v>
+      </c>
+      <c r="M34" s="20">
+        <v>0</v>
+      </c>
+      <c r="N34" s="20">
+        <v>0</v>
+      </c>
+      <c r="O34" s="20">
+        <v>0</v>
+      </c>
+      <c r="P34" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="20">
+        <v>0</v>
+      </c>
+      <c r="R34" s="20">
+        <v>0</v>
+      </c>
+      <c r="T34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U34" s="7">
+        <v>0</v>
+      </c>
+      <c r="V34" s="20">
+        <v>0</v>
+      </c>
+      <c r="W34" s="20">
+        <v>0</v>
+      </c>
+      <c r="X34" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="28"/>
+    </row>
+    <row r="35" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="8">
+        <f>SUM(C29:C34)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="D35" s="23">
+        <f>SUM(D29:D34)</f>
+        <v>4.673</v>
+      </c>
+      <c r="E35" s="23">
+        <f t="shared" ref="E35:M35" si="6">SUM(E29:E34)</f>
+        <v>2.6320000000000001</v>
+      </c>
+      <c r="F35" s="23">
+        <f t="shared" si="6"/>
+        <v>1.7729999999999999</v>
+      </c>
+      <c r="G35" s="23">
+        <f t="shared" si="6"/>
+        <v>1.4289999999999998</v>
+      </c>
+      <c r="H35" s="23">
+        <f t="shared" si="6"/>
+        <v>1.3429999999999997</v>
+      </c>
+      <c r="I35" s="23">
+        <f t="shared" si="6"/>
+        <v>1.2230000000000001</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L35" s="8">
+        <f>SUM(L29:L34)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="M35" s="3">
+        <f>SUM(M29:M34)</f>
+        <v>4.6180000000000003</v>
+      </c>
+      <c r="N35" s="3">
+        <f t="shared" ref="N35:V35" si="7">SUM(N29:N34)</f>
+        <v>2.5460000000000003</v>
+      </c>
+      <c r="O35" s="3">
+        <f t="shared" si="7"/>
+        <v>1.488</v>
+      </c>
+      <c r="P35" s="3">
+        <f t="shared" si="7"/>
+        <v>1.1349999999999996</v>
+      </c>
+      <c r="Q35" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0719999999999998</v>
+      </c>
+      <c r="R35" s="3">
+        <f t="shared" si="7"/>
+        <v>1.0179999999999998</v>
+      </c>
+      <c r="T35" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U35" s="8">
+        <f>SUM(U29:U34)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="V35" s="3">
+        <f>SUM(V29:V34)</f>
+        <v>4.4790000000000001</v>
+      </c>
+      <c r="W35" s="3">
+        <f t="shared" ref="W35:AA35" si="8">SUM(W29:W34)</f>
+        <v>2.4950000000000001</v>
+      </c>
+      <c r="X35" s="3">
+        <f t="shared" si="8"/>
+        <v>1.5019999999999998</v>
+      </c>
+      <c r="Y35" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1839999999999997</v>
+      </c>
+      <c r="Z35" s="3">
+        <f t="shared" si="8"/>
+        <v>1.1169999999999998</v>
+      </c>
+      <c r="AA35" s="3">
+        <f t="shared" si="8"/>
+        <v>1.0369999999999997</v>
+      </c>
+      <c r="AC35" s="28"/>
+    </row>
+    <row r="36" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="26">
+        <f>$U$35/D35</f>
+        <v>1.8356516156644556</v>
+      </c>
+      <c r="E36" s="26">
+        <f t="shared" ref="E36:I36" si="9">$U$35/E35</f>
+        <v>3.2591185410334349</v>
+      </c>
+      <c r="F36" s="26">
+        <f t="shared" si="9"/>
+        <v>4.8381274675690928</v>
+      </c>
+      <c r="G36" s="26">
+        <f t="shared" si="9"/>
+        <v>6.0027991602519259</v>
+      </c>
+      <c r="H36" s="26">
+        <f t="shared" si="9"/>
+        <v>6.3871928518242758</v>
+      </c>
+      <c r="I36" s="26">
+        <f t="shared" si="9"/>
+        <v>7.0139002452984469</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="26">
+        <f>$L$35/M35</f>
+        <v>1.8575140753572976</v>
+      </c>
+      <c r="N36" s="26">
+        <f t="shared" ref="N36:R36" si="10">$L$35/N35</f>
+        <v>3.3692065985860173</v>
+      </c>
+      <c r="O36" s="26">
+        <f t="shared" si="10"/>
+        <v>5.7647849462365599</v>
+      </c>
+      <c r="P36" s="26">
+        <f t="shared" si="10"/>
+        <v>7.5577092511013255</v>
+      </c>
+      <c r="Q36" s="26">
+        <f t="shared" si="10"/>
+        <v>8.0018656716417933</v>
+      </c>
+      <c r="R36" s="26">
+        <f t="shared" si="10"/>
+        <v>8.4263261296660144</v>
+      </c>
+      <c r="T36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U36" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V36" s="26">
+        <f>$U$35/V35</f>
+        <v>1.9151596338468411</v>
+      </c>
+      <c r="W36" s="26">
+        <f t="shared" ref="W36:AA36" si="11">$U$35/W35</f>
+        <v>3.4380761523046095</v>
+      </c>
+      <c r="X36" s="26">
+        <f t="shared" si="11"/>
+        <v>5.7110519307589893</v>
+      </c>
+      <c r="Y36" s="26">
+        <f t="shared" si="11"/>
+        <v>7.2449324324324351</v>
+      </c>
+      <c r="Z36" s="26">
+        <f t="shared" si="11"/>
+        <v>7.6794986571172812</v>
+      </c>
+      <c r="AA36" s="26">
+        <f t="shared" si="11"/>
+        <v>8.2719382835101296</v>
+      </c>
+      <c r="AC36" s="28"/>
+    </row>
+    <row r="37" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="T37" s="4"/>
+      <c r="U37" s="4"/>
+      <c r="V37" s="4"/>
+      <c r="W37" s="4"/>
+      <c r="X37" s="4"/>
+      <c r="Y37" s="4"/>
+      <c r="Z37" s="4"/>
+      <c r="AA37" s="4"/>
+      <c r="AC37" s="28"/>
+    </row>
+    <row r="38" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" s="19"/>
+      <c r="D38" s="19"/>
+      <c r="E38" s="19"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="K38" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="L38" s="19"/>
+      <c r="M38" s="19"/>
+      <c r="N38" s="19"/>
+      <c r="O38" s="19"/>
+      <c r="P38" s="19"/>
+      <c r="Q38" s="19"/>
+      <c r="R38" s="19"/>
+      <c r="T38" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="U38" s="19"/>
+      <c r="V38" s="19"/>
+      <c r="W38" s="19"/>
+      <c r="X38" s="19"/>
+      <c r="Y38" s="19"/>
+      <c r="Z38" s="19"/>
+      <c r="AA38" s="19"/>
+      <c r="AC38" s="28"/>
+    </row>
+    <row r="39" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B39" s="1"/>
+      <c r="C39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D39" s="1">
+        <v>2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>4</v>
+      </c>
+      <c r="F39" s="1">
+        <v>8</v>
+      </c>
+      <c r="G39" s="1">
+        <v>16</v>
+      </c>
+      <c r="H39" s="1">
+        <v>24</v>
+      </c>
+      <c r="I39" s="1">
+        <v>32</v>
+      </c>
+      <c r="K39" s="1"/>
+      <c r="L39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="M39" s="1">
+        <v>2</v>
+      </c>
+      <c r="N39" s="1">
+        <v>4</v>
+      </c>
+      <c r="O39" s="1">
+        <v>8</v>
+      </c>
+      <c r="P39" s="1">
+        <v>16</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>24</v>
+      </c>
+      <c r="R39" s="1">
+        <v>32</v>
+      </c>
+      <c r="T39" s="1"/>
+      <c r="U39" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V39" s="1">
+        <v>2</v>
+      </c>
+      <c r="W39" s="1">
+        <v>4</v>
+      </c>
+      <c r="X39" s="1">
+        <v>8</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>16</v>
+      </c>
+      <c r="Z39" s="1">
+        <v>24</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>32</v>
+      </c>
+      <c r="AC39" s="28"/>
+    </row>
+    <row r="40" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="9">
+        <v>0.379</v>
+      </c>
+      <c r="D40" s="5">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="E40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="F40" s="5">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="G40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="H40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="I40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="K40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="L40" s="9">
+        <v>0.379</v>
+      </c>
+      <c r="M40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="N40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="O40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="P40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Q40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="R40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="T40" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="U40" s="9">
+        <v>0.379</v>
+      </c>
+      <c r="V40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="W40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="X40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Y40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="Z40" s="5">
+        <v>0.39300000000000002</v>
+      </c>
+      <c r="AA40" s="5">
+        <v>0.39200000000000002</v>
+      </c>
+      <c r="AC40" s="28"/>
+    </row>
+    <row r="41" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" s="9">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="D41" s="12">
+        <v>3.927</v>
+      </c>
+      <c r="E41" s="13">
+        <v>1.99</v>
+      </c>
+      <c r="F41" s="12">
+        <v>1.0249999999999999</v>
+      </c>
+      <c r="G41" s="13">
+        <v>0.56399999999999995</v>
+      </c>
+      <c r="H41" s="13">
+        <v>0.40200000000000002</v>
+      </c>
+      <c r="I41" s="12">
+        <v>0.33500000000000002</v>
+      </c>
+      <c r="K41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="L41" s="9">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="M41" s="12">
+        <v>3.8849999999999998</v>
+      </c>
+      <c r="N41" s="12">
+        <v>2.0209999999999999</v>
+      </c>
+      <c r="O41" s="12">
+        <v>1.022</v>
+      </c>
+      <c r="P41" s="13">
+        <v>0.55500000000000005</v>
+      </c>
+      <c r="Q41" s="13">
+        <v>0.40699999999999997</v>
+      </c>
+      <c r="R41" s="12">
+        <v>0.33800000000000002</v>
+      </c>
+      <c r="T41" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="U41" s="9">
+        <v>7.5910000000000002</v>
+      </c>
+      <c r="V41" s="12">
+        <v>3.879</v>
+      </c>
+      <c r="W41" s="12">
+        <v>1.925</v>
+      </c>
+      <c r="X41" s="12">
+        <v>1.0109999999999999</v>
+      </c>
+      <c r="Y41" s="13">
+        <v>0.52200000000000002</v>
+      </c>
+      <c r="Z41" s="13">
+        <v>0.40100000000000002</v>
+      </c>
+      <c r="AA41" s="12">
+        <v>0.33300000000000002</v>
+      </c>
+      <c r="AC41" s="28"/>
+    </row>
+    <row r="42" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C42" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="D42" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="E42" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="F42" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G42" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="H42" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I42" s="12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="K42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L42" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="M42" s="12">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="N42" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="O42" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="P42" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="Q42" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="R42" s="12">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="T42" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="U42" s="10">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="V42" s="12">
+        <v>1.2E-2</v>
+      </c>
+      <c r="W42" s="12">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="X42" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y42" s="11">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z42" s="12">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AA42" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="AC42" s="28"/>
+    </row>
+    <row r="43" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A43" s="16"/>
+      <c r="B43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C43" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="D43" s="12">
+        <v>0.29599999999999999</v>
+      </c>
+      <c r="E43" s="12">
+        <v>0.14899999999999999</v>
+      </c>
+      <c r="F43" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="G43" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="H43" s="13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="I43" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="L43" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="M43" s="12">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="N43" s="12">
+        <v>0.14799999999999999</v>
+      </c>
+      <c r="O43" s="12">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="P43" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="Q43" s="13">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="R43" s="12">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="T43" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="U43" s="9">
+        <v>0.58699999999999997</v>
+      </c>
+      <c r="V43" s="12">
+        <v>0.29299999999999998</v>
+      </c>
+      <c r="W43" s="12">
+        <v>0.14499999999999999</v>
+      </c>
+      <c r="X43" s="12">
+        <v>7.3999999999999996E-2</v>
+      </c>
+      <c r="Y43" s="12">
+        <v>3.9E-2</v>
+      </c>
+      <c r="Z43" s="12">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="AA43" s="11">
+        <v>2.3E-2</v>
+      </c>
+      <c r="AC43" s="28"/>
+    </row>
+    <row r="44" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="F44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="K44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L44" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="N44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="O44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="P44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Q44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="R44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="T44" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="U44" s="9">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="V44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="W44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="X44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Z44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AA44" s="12">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="AC44" s="28"/>
+    </row>
+    <row r="45" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="10">
+        <v>0</v>
+      </c>
+      <c r="D45" s="22">
+        <v>0</v>
+      </c>
+      <c r="E45" s="22">
+        <v>0</v>
+      </c>
+      <c r="F45" s="22">
+        <v>0</v>
+      </c>
+      <c r="G45" s="22">
+        <v>0</v>
+      </c>
+      <c r="H45" s="22">
+        <v>0</v>
+      </c>
+      <c r="I45" s="22">
+        <v>0</v>
+      </c>
+      <c r="K45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="L45" s="10">
+        <v>0</v>
+      </c>
+      <c r="M45" s="22">
+        <v>0</v>
+      </c>
+      <c r="N45" s="22">
+        <v>0</v>
+      </c>
+      <c r="O45" s="22">
+        <v>0</v>
+      </c>
+      <c r="P45" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="22">
+        <v>0</v>
+      </c>
+      <c r="R45" s="22">
+        <v>0</v>
+      </c>
+      <c r="T45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="U45" s="10">
+        <v>0</v>
+      </c>
+      <c r="V45" s="22">
+        <v>0</v>
+      </c>
+      <c r="W45" s="22">
+        <v>0</v>
+      </c>
+      <c r="X45" s="22">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="22">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="22">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="28"/>
+    </row>
+    <row r="46" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C46" s="9">
+        <f>SUM(C40:C45)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="D46" s="5">
+        <f>SUM(D40:D45)</f>
+        <v>4.6320000000000006</v>
+      </c>
+      <c r="E46" s="5">
+        <f t="shared" ref="E46" si="12">SUM(E40:E45)</f>
+        <v>2.5410000000000004</v>
+      </c>
+      <c r="F46" s="5">
+        <f t="shared" ref="F46" si="13">SUM(F40:F45)</f>
+        <v>1.4999999999999998</v>
+      </c>
+      <c r="G46" s="5">
+        <f t="shared" ref="G46" si="14">SUM(G40:G45)</f>
+        <v>1.0029999999999999</v>
+      </c>
+      <c r="H46" s="5">
+        <f t="shared" ref="H46" si="15">SUM(H40:H45)</f>
+        <v>0.83200000000000007</v>
+      </c>
+      <c r="I46" s="5">
+        <f t="shared" ref="I46" si="16">SUM(I40:I45)</f>
+        <v>0.76300000000000012</v>
+      </c>
+      <c r="K46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="L46" s="9">
+        <f>SUM(L40:L45)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="M46" s="5">
+        <f>SUM(M40:M45)</f>
+        <v>4.5860000000000003</v>
+      </c>
+      <c r="N46" s="5">
+        <f t="shared" ref="N46:V46" si="17">SUM(N40:N45)</f>
+        <v>2.5710000000000002</v>
+      </c>
+      <c r="O46" s="5">
+        <f t="shared" si="17"/>
+        <v>1.496</v>
+      </c>
+      <c r="P46" s="5">
+        <f t="shared" si="17"/>
+        <v>0.99400000000000011</v>
+      </c>
+      <c r="Q46" s="5">
+        <f t="shared" si="17"/>
+        <v>0.83699999999999997</v>
+      </c>
+      <c r="R46" s="5">
+        <f t="shared" si="17"/>
+        <v>0.76500000000000001</v>
+      </c>
+      <c r="T46" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U46" s="9">
+        <f>SUM(U40:U45)</f>
+        <v>8.5780000000000012</v>
+      </c>
+      <c r="V46" s="5">
+        <f>SUM(V40:V45)</f>
+        <v>4.5789999999999997</v>
+      </c>
+      <c r="W46" s="5">
+        <f t="shared" ref="W46:AA46" si="18">SUM(W40:W45)</f>
+        <v>2.4710000000000001</v>
+      </c>
+      <c r="X46" s="5">
+        <f t="shared" si="18"/>
+        <v>1.4829999999999999</v>
+      </c>
+      <c r="Y46" s="5">
+        <f t="shared" si="18"/>
+        <v>0.95900000000000007</v>
+      </c>
+      <c r="Z46" s="5">
+        <f t="shared" si="18"/>
+        <v>0.83000000000000007</v>
+      </c>
+      <c r="AA46" s="5">
+        <f t="shared" si="18"/>
+        <v>0.75600000000000012</v>
+      </c>
+      <c r="AC46" s="28"/>
+    </row>
+    <row r="47" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D47" s="26">
+        <f>$C$46/D46</f>
+        <v>1.8518998272884284</v>
+      </c>
+      <c r="E47" s="26">
+        <f t="shared" ref="E47:I47" si="19">$C$46/E46</f>
+        <v>3.3758362849271939</v>
+      </c>
+      <c r="F47" s="26">
+        <f t="shared" si="19"/>
+        <v>5.7186666666666683</v>
+      </c>
+      <c r="G47" s="26">
+        <f t="shared" si="19"/>
+        <v>8.5523429710867411</v>
+      </c>
+      <c r="H47" s="26">
+        <f t="shared" si="19"/>
+        <v>10.310096153846155</v>
+      </c>
+      <c r="I47" s="26">
+        <f t="shared" si="19"/>
+        <v>11.242463958060288</v>
+      </c>
+      <c r="K47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="L47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="26">
+        <f>$L$46/M46</f>
+        <v>1.8704753597906674</v>
+      </c>
+      <c r="N47" s="26">
+        <f t="shared" ref="N47:R47" si="20">$L$46/N46</f>
+        <v>3.3364449630493973</v>
+      </c>
+      <c r="O47" s="26">
+        <f t="shared" si="20"/>
+        <v>5.7339572192513373</v>
+      </c>
+      <c r="P47" s="26">
+        <f t="shared" si="20"/>
+        <v>8.6297786720321934</v>
+      </c>
+      <c r="Q47" s="26">
+        <f t="shared" si="20"/>
+        <v>10.248506571087217</v>
+      </c>
+      <c r="R47" s="26">
+        <f t="shared" si="20"/>
+        <v>11.213071895424838</v>
+      </c>
+      <c r="T47" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="U47" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="V47" s="26">
+        <f>$U$46/V46</f>
+        <v>1.8733347892552963</v>
+      </c>
+      <c r="W47" s="26">
+        <f t="shared" ref="W47:AA47" si="21">$U$46/W46</f>
+        <v>3.4714690408741404</v>
+      </c>
+      <c r="X47" s="26">
+        <f t="shared" si="21"/>
+        <v>5.7842211732973716</v>
+      </c>
+      <c r="Y47" s="26">
+        <f t="shared" si="21"/>
+        <v>8.9447340980187704</v>
+      </c>
+      <c r="Z47" s="26">
+        <f t="shared" si="21"/>
+        <v>10.334939759036144</v>
+      </c>
+      <c r="AA47" s="27">
+        <f t="shared" si="21"/>
+        <v>11.346560846560847</v>
+      </c>
+      <c r="AC47" s="28"/>
+    </row>
+    <row r="48" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="49" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="50" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="51" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="52" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="53" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="54" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="55" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="56" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="57" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="58" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="60" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B60" s="19" t="s">
         <v>18</v>
       </c>
-      <c r="C27" s="17"/>
-      <c r="D27" s="17"/>
+      <c r="C60" s="19"/>
+      <c r="D60" s="19"/>
     </row>
-    <row r="28" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="29" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="1"/>
-      <c r="C29" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D29" s="1" t="s">
+    <row r="61" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B61" s="1"/>
+      <c r="C61" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D61" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="1" t="s">
+    <row r="62" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B62" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C30" s="7">
-        <v>3.194</v>
-      </c>
-      <c r="D30" s="2">
-        <v>3.4369999999999998</v>
+      <c r="C62" s="6">
+        <v>3.1960000000000002</v>
+      </c>
+      <c r="D62" s="2">
+        <v>3.3029999999999999</v>
       </c>
     </row>
-    <row r="31" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="1" t="s">
+    <row r="63" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C31" s="7">
-        <v>168.624</v>
-      </c>
-      <c r="D31" s="2">
-        <v>7.4109999999999996</v>
+      <c r="C63" s="6">
+        <v>197.00299999999999</v>
+      </c>
+      <c r="D63" s="2">
+        <v>6.6740000000000004</v>
       </c>
     </row>
-    <row r="32" spans="2:45" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B32" s="1" t="s">
+    <row r="64" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B64" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="8">
-        <v>0.02</v>
-      </c>
-      <c r="D32" s="20">
-        <v>0.02</v>
+      <c r="C64" s="7">
+        <v>1.9E-2</v>
+      </c>
+      <c r="D64" s="17">
+        <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="1" t="s">
+    <row r="65" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B65" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C33" s="7">
-        <v>28.809000000000001</v>
-      </c>
-      <c r="D33" s="2">
-        <v>1.0109999999999999</v>
+      <c r="C65" s="6">
+        <v>28.638000000000002</v>
+      </c>
+      <c r="D65" s="2">
+        <v>0.90900000000000003</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="1" t="s">
+    <row r="66" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B66" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="C34" s="7">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="D34" s="2">
+      <c r="C66" s="6">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="D66" s="2">
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="1" t="s">
+    <row r="67" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B67" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C35" s="8">
-        <v>0</v>
-      </c>
-      <c r="D35" s="20">
+      <c r="C67" s="7">
+        <v>0</v>
+      </c>
+      <c r="D67" s="17">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="1" t="s">
+    <row r="68" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C36" s="9">
-        <f>SUM(C30:C35)</f>
-        <v>200.64999999999998</v>
-      </c>
-      <c r="D36" s="3">
-        <f>SUM(D30:D35)</f>
-        <v>11.881999999999998</v>
+      <c r="C68" s="8">
+        <f>SUM(C62:C67)</f>
+        <v>228.85899999999998</v>
+      </c>
+      <c r="D68" s="3">
+        <f>SUM(D62:D67)</f>
+        <v>10.894000000000002</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21" x14ac:dyDescent="0.4">
-      <c r="A43" s="19"/>
+    <row r="69" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B69" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D69" s="31">
+        <f>C68/D68</f>
+        <v>21.007802460069758</v>
+      </c>
     </row>
+    <row r="70" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="73" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="74" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="75" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="76" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="77" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="79" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="80" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="81" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="82" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="83" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="84" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="85" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="86" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="87" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="88" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="89" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
+    <row r="90" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
-  <mergeCells count="12">
-    <mergeCell ref="B2:AS3"/>
-    <mergeCell ref="AL5:AS5"/>
-    <mergeCell ref="AC5:AJ5"/>
+  <mergeCells count="17">
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="B2:AA3"/>
+    <mergeCell ref="T38:AA38"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="B38:I38"/>
+    <mergeCell ref="AC5:AC25"/>
+    <mergeCell ref="AC27:AC47"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="B16:I16"/>
+    <mergeCell ref="K16:R16"/>
+    <mergeCell ref="T16:AA16"/>
     <mergeCell ref="T5:AA5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="B5:I5"/>
-    <mergeCell ref="B16:I16"/>
-    <mergeCell ref="K16:R16"/>
-    <mergeCell ref="T16:AA16"/>
-    <mergeCell ref="AC16:AJ16"/>
-    <mergeCell ref="AL16:AS16"/>
-    <mergeCell ref="B27:D27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>

--- a/timeanalysis/Calculos tiempo.xlsx
+++ b/timeanalysis/Calculos tiempo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/iyanalvarez/CLionProjects/Genetica/timeanalysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E243669-107E-9B45-983E-A392161F7B2E}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B5798903-22A7-8D46-9E5E-746EDE03D593}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" xr2:uid="{7930495D-EDF7-854F-A970-C65AF1ED5269}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -293,12 +293,6 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="9" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -323,6 +317,15 @@
     <xf numFmtId="164" fontId="1" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="255"/>
     </xf>
@@ -330,9 +333,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3670,7 +3670,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2561641A-B8C1-2241-9A12-C989CFF7F3DD}">
   <dimension ref="A1:AC90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="44" zoomScaleNormal="19" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="56" zoomScaleNormal="19" workbookViewId="0">
       <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
@@ -3682,100 +3682,100 @@
   <sheetData>
     <row r="1" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:29" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="28" t="s">
         <v>19</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AC2" s="29" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AC2" s="30" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="2:29" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18"/>
-      <c r="E3" s="18"/>
-      <c r="F3" s="18"/>
-      <c r="G3" s="18"/>
-      <c r="H3" s="18"/>
-      <c r="I3" s="18"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="18"/>
-      <c r="L3" s="18"/>
-      <c r="M3" s="18"/>
-      <c r="N3" s="18"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="18"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="18"/>
-      <c r="T3" s="18"/>
-      <c r="U3" s="18"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="18"/>
-      <c r="X3" s="18"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="18"/>
-      <c r="AA3" s="18"/>
-      <c r="AC3" s="30"/>
+      <c r="B3" s="28"/>
+      <c r="C3" s="28"/>
+      <c r="D3" s="28"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
+      <c r="K3" s="28"/>
+      <c r="L3" s="28"/>
+      <c r="M3" s="28"/>
+      <c r="N3" s="28"/>
+      <c r="O3" s="28"/>
+      <c r="P3" s="28"/>
+      <c r="Q3" s="28"/>
+      <c r="R3" s="28"/>
+      <c r="S3" s="28"/>
+      <c r="T3" s="28"/>
+      <c r="U3" s="28"/>
+      <c r="V3" s="28"/>
+      <c r="W3" s="28"/>
+      <c r="X3" s="28"/>
+      <c r="Y3" s="28"/>
+      <c r="Z3" s="28"/>
+      <c r="AA3" s="28"/>
+      <c r="AC3" s="31"/>
     </row>
     <row r="4" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="5" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="19"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="19"/>
-      <c r="F5" s="19"/>
-      <c r="G5" s="19"/>
-      <c r="H5" s="19"/>
-      <c r="I5" s="19"/>
-      <c r="K5" s="19" t="s">
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="K5" s="27" t="s">
         <v>12</v>
       </c>
-      <c r="L5" s="19"/>
-      <c r="M5" s="19"/>
-      <c r="N5" s="19"/>
-      <c r="O5" s="19"/>
-      <c r="P5" s="19"/>
-      <c r="Q5" s="19"/>
-      <c r="R5" s="19"/>
-      <c r="T5" s="19" t="s">
+      <c r="L5" s="27"/>
+      <c r="M5" s="27"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="T5" s="27" t="s">
         <v>13</v>
       </c>
-      <c r="U5" s="19"/>
-      <c r="V5" s="19"/>
-      <c r="W5" s="19"/>
-      <c r="X5" s="19"/>
-      <c r="Y5" s="19"/>
-      <c r="Z5" s="19"/>
-      <c r="AA5" s="19"/>
-      <c r="AC5" s="28" t="s">
+      <c r="U5" s="27"/>
+      <c r="V5" s="27"/>
+      <c r="W5" s="27"/>
+      <c r="X5" s="27"/>
+      <c r="Y5" s="27"/>
+      <c r="Z5" s="27"/>
+      <c r="AA5" s="27"/>
+      <c r="AC5" s="29" t="s">
         <v>25</v>
       </c>
     </row>
@@ -3846,7 +3846,7 @@
       <c r="AA6" s="1">
         <v>32</v>
       </c>
-      <c r="AC6" s="28"/>
+      <c r="AC6" s="29"/>
     </row>
     <row r="7" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="1" t="s">
@@ -3921,7 +3921,7 @@
       <c r="AA7" s="2">
         <v>3.3109999999999999</v>
       </c>
-      <c r="AC7" s="28"/>
+      <c r="AC7" s="29"/>
     </row>
     <row r="8" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="1" t="s">
@@ -3996,7 +3996,7 @@
       <c r="AA8" s="14">
         <v>6.9189999999999996</v>
       </c>
-      <c r="AC8" s="28"/>
+      <c r="AC8" s="29"/>
     </row>
     <row r="9" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="1" t="s">
@@ -4011,13 +4011,13 @@
       <c r="E9" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="F9" s="24">
+      <c r="F9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="G9" s="24">
+      <c r="G9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="H9" s="24">
+      <c r="H9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="I9" s="14">
@@ -4059,10 +4059,10 @@
       <c r="W9" s="14">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="X9" s="24">
+      <c r="X9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="Y9" s="24">
+      <c r="Y9" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Z9" s="14">
@@ -4071,7 +4071,7 @@
       <c r="AA9" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AC9" s="28"/>
+      <c r="AC9" s="29"/>
     </row>
     <row r="10" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="1" t="s">
@@ -4146,7 +4146,7 @@
       <c r="AA10" s="14">
         <v>0.95799999999999996</v>
       </c>
-      <c r="AC10" s="28"/>
+      <c r="AC10" s="29"/>
     </row>
     <row r="11" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="1" t="s">
@@ -4221,7 +4221,7 @@
       <c r="AA11" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AC11" s="28"/>
+      <c r="AC11" s="29"/>
     </row>
     <row r="12" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="1" t="s">
@@ -4230,22 +4230,22 @@
       <c r="C12" s="7">
         <v>0</v>
       </c>
-      <c r="D12" s="20">
-        <v>0</v>
-      </c>
-      <c r="E12" s="20">
-        <v>0</v>
-      </c>
-      <c r="F12" s="20">
-        <v>0</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="20">
-        <v>0</v>
-      </c>
-      <c r="I12" s="20">
+      <c r="D12" s="18">
+        <v>0</v>
+      </c>
+      <c r="E12" s="18">
+        <v>0</v>
+      </c>
+      <c r="F12" s="18">
+        <v>0</v>
+      </c>
+      <c r="G12" s="18">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18">
+        <v>0</v>
+      </c>
+      <c r="I12" s="18">
         <v>0</v>
       </c>
       <c r="K12" s="1" t="s">
@@ -4254,22 +4254,22 @@
       <c r="L12" s="7">
         <v>0</v>
       </c>
-      <c r="M12" s="20">
-        <v>0</v>
-      </c>
-      <c r="N12" s="20">
-        <v>0</v>
-      </c>
-      <c r="O12" s="20">
-        <v>0</v>
-      </c>
-      <c r="P12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="20">
-        <v>0</v>
-      </c>
-      <c r="R12" s="20">
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18">
+        <v>0</v>
+      </c>
+      <c r="O12" s="18">
+        <v>0</v>
+      </c>
+      <c r="P12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="18">
+        <v>0</v>
+      </c>
+      <c r="R12" s="18">
         <v>0</v>
       </c>
       <c r="T12" s="1" t="s">
@@ -4278,121 +4278,121 @@
       <c r="U12" s="7">
         <v>0</v>
       </c>
-      <c r="V12" s="20">
-        <v>0</v>
-      </c>
-      <c r="W12" s="20">
-        <v>0</v>
-      </c>
-      <c r="X12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA12" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC12" s="28"/>
+      <c r="V12" s="18">
+        <v>0</v>
+      </c>
+      <c r="W12" s="18">
+        <v>0</v>
+      </c>
+      <c r="X12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA12" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC12" s="29"/>
     </row>
     <row r="13" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C13" s="8">
-        <f>SUM(C7:C12)</f>
+        <f t="shared" ref="C13:I13" si="0">SUM(C7:C12)</f>
         <v>228.85899999999998</v>
       </c>
       <c r="D13" s="3">
-        <f>SUM(D7:D12)</f>
+        <f t="shared" si="0"/>
         <v>110.694</v>
       </c>
       <c r="E13" s="3">
-        <f>SUM(E7:E12)</f>
+        <f t="shared" si="0"/>
         <v>59.700999999999993</v>
       </c>
       <c r="F13" s="3">
-        <f>SUM(F7:F12)</f>
+        <f t="shared" si="0"/>
         <v>35.555999999999997</v>
       </c>
       <c r="G13" s="3">
-        <f>SUM(G7:G12)</f>
+        <f t="shared" si="0"/>
         <v>18.977</v>
       </c>
       <c r="H13" s="3">
-        <f>SUM(H7:H12)</f>
+        <f t="shared" si="0"/>
         <v>14.332000000000001</v>
       </c>
       <c r="I13" s="3">
-        <f>SUM(I7:I12)</f>
+        <f t="shared" si="0"/>
         <v>13.313000000000002</v>
       </c>
       <c r="K13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L13" s="8">
-        <f>SUM(L7:L12)</f>
+        <f t="shared" ref="L13:R13" si="1">SUM(L7:L12)</f>
         <v>228.85899999999998</v>
       </c>
       <c r="M13" s="3">
-        <f>SUM(M7:M12)</f>
+        <f t="shared" si="1"/>
         <v>107.26400000000001</v>
       </c>
       <c r="N13" s="3">
-        <f>SUM(N7:N12)</f>
+        <f t="shared" si="1"/>
         <v>54.343000000000004</v>
       </c>
       <c r="O13" s="3">
-        <f>SUM(O7:O12)</f>
+        <f t="shared" si="1"/>
         <v>29.604999999999997</v>
       </c>
       <c r="P13" s="3">
-        <f>SUM(P7:P12)</f>
+        <f t="shared" si="1"/>
         <v>17.238</v>
       </c>
       <c r="Q13" s="3">
-        <f>SUM(Q7:Q12)</f>
+        <f t="shared" si="1"/>
         <v>14.352</v>
       </c>
       <c r="R13" s="3">
-        <f>SUM(R7:R12)</f>
+        <f t="shared" si="1"/>
         <v>11.311</v>
       </c>
       <c r="T13" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U13" s="8">
-        <f>SUM(U7:U12)</f>
+        <f t="shared" ref="U13:AA13" si="2">SUM(U7:U12)</f>
         <v>228.85899999999998</v>
       </c>
       <c r="V13" s="3">
-        <f>SUM(V7:V12)</f>
+        <f t="shared" si="2"/>
         <v>103.673</v>
       </c>
       <c r="W13" s="3">
-        <f>SUM(W7:W12)</f>
+        <f t="shared" si="2"/>
         <v>55.686</v>
       </c>
       <c r="X13" s="3">
-        <f>SUM(X7:X12)</f>
+        <f t="shared" si="2"/>
         <v>29.428000000000001</v>
       </c>
       <c r="Y13" s="3">
-        <f>SUM(Y7:Y12)</f>
+        <f t="shared" si="2"/>
         <v>17.100999999999999</v>
       </c>
       <c r="Z13" s="3">
-        <f>SUM(Z7:Z12)</f>
+        <f t="shared" si="2"/>
         <v>13.279000000000002</v>
       </c>
       <c r="AA13" s="3">
-        <f>SUM(AA7:AA12)</f>
+        <f t="shared" si="2"/>
         <v>11.196000000000002</v>
       </c>
-      <c r="AC13" s="28"/>
+      <c r="AC13" s="29"/>
     </row>
     <row r="14" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B14" s="1" t="s">
@@ -4401,28 +4401,28 @@
       <c r="C14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="25">
+      <c r="D14" s="23">
         <f>$C$13/D13</f>
         <v>2.0674923663432523</v>
       </c>
-      <c r="E14" s="25">
-        <f t="shared" ref="E14:I14" si="0">$C$13/E13</f>
+      <c r="E14" s="23">
+        <f t="shared" ref="E14:I14" si="3">$C$13/E13</f>
         <v>3.8334198757139748</v>
       </c>
-      <c r="F14" s="25">
-        <f t="shared" si="0"/>
+      <c r="F14" s="23">
+        <f t="shared" si="3"/>
         <v>6.4365789177635282</v>
       </c>
-      <c r="G14" s="25">
-        <f t="shared" si="0"/>
+      <c r="G14" s="23">
+        <f t="shared" si="3"/>
         <v>12.05980924276756</v>
       </c>
-      <c r="H14" s="25">
-        <f t="shared" si="0"/>
+      <c r="H14" s="23">
+        <f t="shared" si="3"/>
         <v>15.968392408596147</v>
       </c>
-      <c r="I14" s="25">
-        <f t="shared" si="0"/>
+      <c r="I14" s="23">
+        <f t="shared" si="3"/>
         <v>17.190640727108836</v>
       </c>
       <c r="K14" s="1" t="s">
@@ -4431,28 +4431,28 @@
       <c r="L14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M14" s="25">
+      <c r="M14" s="23">
         <f>$L$13/M13</f>
         <v>2.1336049373508348</v>
       </c>
-      <c r="N14" s="25">
-        <f t="shared" ref="N14:R14" si="1">$L$13/N13</f>
+      <c r="N14" s="23">
+        <f t="shared" ref="N14:R14" si="4">$L$13/N13</f>
         <v>4.2113795705058603</v>
       </c>
-      <c r="O14" s="25">
-        <f t="shared" si="1"/>
+      <c r="O14" s="23">
+        <f t="shared" si="4"/>
         <v>7.7304171592636379</v>
       </c>
-      <c r="P14" s="25">
-        <f t="shared" si="1"/>
+      <c r="P14" s="23">
+        <f t="shared" si="4"/>
         <v>13.276424179139111</v>
       </c>
-      <c r="Q14" s="25">
-        <f t="shared" si="1"/>
+      <c r="Q14" s="23">
+        <f t="shared" si="4"/>
         <v>15.946139910813821</v>
       </c>
-      <c r="R14" s="25">
-        <f t="shared" si="1"/>
+      <c r="R14" s="23">
+        <f t="shared" si="4"/>
         <v>20.233312704446998</v>
       </c>
       <c r="T14" s="1" t="s">
@@ -4461,67 +4461,67 @@
       <c r="U14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V14" s="25">
+      <c r="V14" s="23">
         <f>$U$13/V13</f>
         <v>2.2075082229703007</v>
       </c>
-      <c r="W14" s="25">
-        <f t="shared" ref="W14:AA14" si="2">$U$13/W13</f>
+      <c r="W14" s="23">
+        <f t="shared" ref="W14:AA14" si="5">$U$13/W13</f>
         <v>4.1098121610458636</v>
       </c>
-      <c r="X14" s="25">
-        <f t="shared" si="2"/>
+      <c r="X14" s="23">
+        <f t="shared" si="5"/>
         <v>7.776913143944542</v>
       </c>
-      <c r="Y14" s="25">
-        <f t="shared" si="2"/>
+      <c r="Y14" s="23">
+        <f t="shared" si="5"/>
         <v>13.382784632477632</v>
       </c>
-      <c r="Z14" s="25">
-        <f t="shared" si="2"/>
+      <c r="Z14" s="23">
+        <f t="shared" si="5"/>
         <v>17.234656224113259</v>
       </c>
-      <c r="AA14" s="25">
-        <f t="shared" si="2"/>
+      <c r="AA14" s="23">
+        <f t="shared" si="5"/>
         <v>20.441139692747406</v>
       </c>
-      <c r="AC14" s="28"/>
+      <c r="AC14" s="29"/>
     </row>
     <row r="15" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="AC15" s="28"/>
+      <c r="AC15" s="29"/>
     </row>
     <row r="16" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="19" t="s">
+      <c r="B16" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="K16" s="19" t="s">
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="27"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="27"/>
+      <c r="K16" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="L16" s="19"/>
-      <c r="M16" s="19"/>
-      <c r="N16" s="19"/>
-      <c r="O16" s="19"/>
-      <c r="P16" s="19"/>
-      <c r="Q16" s="19"/>
-      <c r="R16" s="19"/>
-      <c r="T16" s="19" t="s">
+      <c r="L16" s="27"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="T16" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="19"/>
-      <c r="V16" s="19"/>
-      <c r="W16" s="19"/>
-      <c r="X16" s="19"/>
-      <c r="Y16" s="19"/>
-      <c r="Z16" s="19"/>
-      <c r="AA16" s="19"/>
-      <c r="AC16" s="28"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AC16" s="29"/>
     </row>
     <row r="17" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B17" s="1"/>
@@ -4590,7 +4590,7 @@
       <c r="AA17" s="1">
         <v>32</v>
       </c>
-      <c r="AC17" s="28"/>
+      <c r="AC17" s="29"/>
     </row>
     <row r="18" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="1" t="s">
@@ -4665,7 +4665,7 @@
       <c r="AA18" s="2">
         <v>3.306</v>
       </c>
-      <c r="AC18" s="28"/>
+      <c r="AC18" s="29"/>
     </row>
     <row r="19" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="1" t="s">
@@ -4737,10 +4737,10 @@
       <c r="Z19" s="14">
         <v>8.4079999999999995</v>
       </c>
-      <c r="AA19" s="24">
+      <c r="AA19" s="22">
         <v>6.6669999999999998</v>
       </c>
-      <c r="AC19" s="28"/>
+      <c r="AC19" s="29"/>
     </row>
     <row r="20" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B20" s="1" t="s">
@@ -4806,7 +4806,7 @@
       <c r="X20" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="Y20" s="24">
+      <c r="Y20" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="Z20" s="14">
@@ -4815,7 +4815,7 @@
       <c r="AA20" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AC20" s="28"/>
+      <c r="AC20" s="29"/>
     </row>
     <row r="21" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="1" t="s">
@@ -4887,10 +4887,10 @@
       <c r="Z21" s="14">
         <v>1.202</v>
       </c>
-      <c r="AA21" s="24">
+      <c r="AA21" s="22">
         <v>0.90900000000000003</v>
       </c>
-      <c r="AC21" s="28"/>
+      <c r="AC21" s="29"/>
     </row>
     <row r="22" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B22" s="1" t="s">
@@ -4965,7 +4965,7 @@
       <c r="AA22" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AC22" s="28"/>
+      <c r="AC22" s="29"/>
     </row>
     <row r="23" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B23" s="1" t="s">
@@ -4974,22 +4974,22 @@
       <c r="C23" s="7">
         <v>0</v>
       </c>
-      <c r="D23" s="20">
-        <v>0</v>
-      </c>
-      <c r="E23" s="20">
-        <v>0</v>
-      </c>
-      <c r="F23" s="20">
-        <v>0</v>
-      </c>
-      <c r="G23" s="20">
-        <v>0</v>
-      </c>
-      <c r="H23" s="20">
-        <v>0</v>
-      </c>
-      <c r="I23" s="20">
+      <c r="D23" s="18">
+        <v>0</v>
+      </c>
+      <c r="E23" s="18">
+        <v>0</v>
+      </c>
+      <c r="F23" s="18">
+        <v>0</v>
+      </c>
+      <c r="G23" s="18">
+        <v>0</v>
+      </c>
+      <c r="H23" s="18">
+        <v>0</v>
+      </c>
+      <c r="I23" s="18">
         <v>0</v>
       </c>
       <c r="K23" s="1" t="s">
@@ -4998,22 +4998,22 @@
       <c r="L23" s="7">
         <v>0</v>
       </c>
-      <c r="M23" s="20">
-        <v>0</v>
-      </c>
-      <c r="N23" s="20">
-        <v>0</v>
-      </c>
-      <c r="O23" s="20">
-        <v>0</v>
-      </c>
-      <c r="P23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="20">
-        <v>0</v>
-      </c>
-      <c r="R23" s="20">
+      <c r="M23" s="18">
+        <v>0</v>
+      </c>
+      <c r="N23" s="18">
+        <v>0</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0</v>
+      </c>
+      <c r="P23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="18">
+        <v>0</v>
+      </c>
+      <c r="R23" s="18">
         <v>0</v>
       </c>
       <c r="T23" s="1" t="s">
@@ -5022,121 +5022,121 @@
       <c r="U23" s="7">
         <v>0</v>
       </c>
-      <c r="V23" s="20">
-        <v>0</v>
-      </c>
-      <c r="W23" s="20">
-        <v>0</v>
-      </c>
-      <c r="X23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA23" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC23" s="28"/>
+      <c r="V23" s="18">
+        <v>0</v>
+      </c>
+      <c r="W23" s="18">
+        <v>0</v>
+      </c>
+      <c r="X23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y23" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA23" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC23" s="29"/>
     </row>
     <row r="24" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="C24" s="8">
-        <f>SUM(C18:C23)</f>
+        <f t="shared" ref="C24:I24" si="6">SUM(C18:C23)</f>
         <v>228.85899999999998</v>
       </c>
       <c r="D24" s="3">
-        <f>SUM(D18:D23)</f>
+        <f t="shared" si="6"/>
         <v>107.15199999999999</v>
       </c>
       <c r="E24" s="3">
-        <f>SUM(E18:E23)</f>
+        <f t="shared" si="6"/>
         <v>57.143999999999998</v>
       </c>
       <c r="F24" s="3">
-        <f>SUM(F18:F23)</f>
+        <f t="shared" si="6"/>
         <v>29.033000000000001</v>
       </c>
       <c r="G24" s="3">
-        <f>SUM(G18:G23)</f>
+        <f t="shared" si="6"/>
         <v>17.286000000000001</v>
       </c>
       <c r="H24" s="3">
-        <f>SUM(H18:H23)</f>
+        <f t="shared" si="6"/>
         <v>13.102</v>
       </c>
       <c r="I24" s="3">
-        <f>SUM(I18:I23)</f>
+        <f t="shared" si="6"/>
         <v>11.401999999999999</v>
       </c>
       <c r="K24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="L24" s="8">
-        <f>SUM(L18:L23)</f>
+        <f t="shared" ref="L24:R24" si="7">SUM(L18:L23)</f>
         <v>228.85899999999998</v>
       </c>
       <c r="M24" s="3">
-        <f>SUM(M18:M23)</f>
+        <f t="shared" si="7"/>
         <v>110.83199999999999</v>
       </c>
       <c r="N24" s="3">
-        <f>SUM(N18:N23)</f>
+        <f t="shared" si="7"/>
         <v>56.452000000000005</v>
       </c>
       <c r="O24" s="3">
-        <f>SUM(O18:O23)</f>
+        <f t="shared" si="7"/>
         <v>30.241999999999997</v>
       </c>
       <c r="P24" s="3">
-        <f>SUM(P18:P23)</f>
+        <f t="shared" si="7"/>
         <v>17.312999999999999</v>
       </c>
       <c r="Q24" s="3">
-        <f>SUM(Q18:Q23)</f>
+        <f t="shared" si="7"/>
         <v>13.08</v>
       </c>
       <c r="R24" s="3">
-        <f>SUM(R18:R23)</f>
+        <f t="shared" si="7"/>
         <v>11.113</v>
       </c>
       <c r="T24" s="1" t="s">
         <v>7</v>
       </c>
       <c r="U24" s="8">
-        <f>SUM(U18:U23)</f>
+        <f t="shared" ref="U24:AA24" si="8">SUM(U18:U23)</f>
         <v>228.85899999999998</v>
       </c>
       <c r="V24" s="3">
-        <f>SUM(V18:V23)</f>
+        <f t="shared" si="8"/>
         <v>104.80600000000001</v>
       </c>
       <c r="W24" s="3">
-        <f>SUM(W18:W23)</f>
+        <f t="shared" si="8"/>
         <v>54.663999999999994</v>
       </c>
       <c r="X24" s="3">
-        <f>SUM(X18:X23)</f>
+        <f t="shared" si="8"/>
         <v>29.625</v>
       </c>
       <c r="Y24" s="3">
-        <f>SUM(Y18:Y23)</f>
+        <f t="shared" si="8"/>
         <v>17.170999999999999</v>
       </c>
       <c r="Z24" s="3">
-        <f>SUM(Z18:Z23)</f>
+        <f t="shared" si="8"/>
         <v>12.931000000000001</v>
       </c>
       <c r="AA24" s="3">
-        <f>SUM(AA18:AA23)</f>
+        <f t="shared" si="8"/>
         <v>10.89</v>
       </c>
-      <c r="AC24" s="28"/>
+      <c r="AC24" s="29"/>
     </row>
     <row r="25" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="1" t="s">
@@ -5145,28 +5145,28 @@
       <c r="C25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D25" s="25">
+      <c r="D25" s="23">
         <f>$C$24/D24</f>
         <v>2.1358350754068987</v>
       </c>
-      <c r="E25" s="25">
-        <f t="shared" ref="E25:I25" si="3">$C$24/E24</f>
+      <c r="E25" s="23">
+        <f t="shared" ref="E25:I25" si="9">$C$24/E24</f>
         <v>4.0049524009519804</v>
       </c>
-      <c r="F25" s="25">
-        <f t="shared" si="3"/>
+      <c r="F25" s="23">
+        <f t="shared" si="9"/>
         <v>7.8827196638308124</v>
       </c>
-      <c r="G25" s="25">
-        <f t="shared" si="3"/>
+      <c r="G25" s="23">
+        <f t="shared" si="9"/>
         <v>13.239558023834315</v>
       </c>
-      <c r="H25" s="25">
-        <f t="shared" si="3"/>
+      <c r="H25" s="23">
+        <f t="shared" si="9"/>
         <v>17.467485880018316</v>
       </c>
-      <c r="I25" s="25">
-        <f t="shared" si="3"/>
+      <c r="I25" s="23">
+        <f t="shared" si="9"/>
         <v>20.071829503595861</v>
       </c>
       <c r="K25" s="1" t="s">
@@ -5175,28 +5175,28 @@
       <c r="L25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M25" s="25">
+      <c r="M25" s="23">
         <f>$L$24/M24</f>
         <v>2.0649180742023963</v>
       </c>
-      <c r="N25" s="25">
-        <f t="shared" ref="N25:R25" si="4">$L$24/N24</f>
+      <c r="N25" s="23">
+        <f t="shared" ref="N25:R25" si="10">$L$24/N24</f>
         <v>4.0540459151137238</v>
       </c>
-      <c r="O25" s="25">
-        <f t="shared" si="4"/>
+      <c r="O25" s="23">
+        <f t="shared" si="10"/>
         <v>7.5675881224786723</v>
       </c>
-      <c r="P25" s="25">
-        <f t="shared" si="4"/>
+      <c r="P25" s="23">
+        <f t="shared" si="10"/>
         <v>13.218910645179923</v>
       </c>
-      <c r="Q25" s="25">
-        <f t="shared" si="4"/>
+      <c r="Q25" s="23">
+        <f t="shared" si="10"/>
         <v>17.496865443425076</v>
       </c>
-      <c r="R25" s="25">
-        <f t="shared" si="4"/>
+      <c r="R25" s="23">
+        <f t="shared" si="10"/>
         <v>20.593809052461079</v>
       </c>
       <c r="T25" s="1" t="s">
@@ -5205,31 +5205,31 @@
       <c r="U25" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V25" s="25">
+      <c r="V25" s="23">
         <f>$U$24/V24</f>
         <v>2.1836440661794168</v>
       </c>
-      <c r="W25" s="25">
-        <f t="shared" ref="W25:AA25" si="5">$U$24/W24</f>
+      <c r="W25" s="23">
+        <f t="shared" ref="W25:AA25" si="11">$U$24/W24</f>
         <v>4.1866493487487197</v>
       </c>
-      <c r="X25" s="25">
-        <f t="shared" si="5"/>
+      <c r="X25" s="23">
+        <f t="shared" si="11"/>
         <v>7.7251983122362864</v>
       </c>
-      <c r="Y25" s="25">
-        <f t="shared" si="5"/>
+      <c r="Y25" s="23">
+        <f t="shared" si="11"/>
         <v>13.328227825985673</v>
       </c>
-      <c r="Z25" s="25">
-        <f t="shared" si="5"/>
+      <c r="Z25" s="23">
+        <f t="shared" si="11"/>
         <v>17.698476529270742</v>
       </c>
-      <c r="AA25" s="27">
-        <f t="shared" si="5"/>
+      <c r="AA25" s="25">
+        <f t="shared" si="11"/>
         <v>21.015518824609732</v>
       </c>
-      <c r="AC25" s="28"/>
+      <c r="AC25" s="29"/>
     </row>
     <row r="26" spans="2:29" ht="49" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T26" s="4"/>
@@ -5242,37 +5242,37 @@
       <c r="AA26" s="4"/>
     </row>
     <row r="27" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="19" t="s">
+      <c r="B27" s="27" t="s">
         <v>9</v>
       </c>
-      <c r="C27" s="19"/>
-      <c r="D27" s="19"/>
-      <c r="E27" s="19"/>
-      <c r="F27" s="19"/>
-      <c r="G27" s="19"/>
-      <c r="H27" s="19"/>
-      <c r="I27" s="19"/>
-      <c r="K27" s="19" t="s">
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="K27" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="L27" s="19"/>
-      <c r="M27" s="19"/>
-      <c r="N27" s="19"/>
-      <c r="O27" s="19"/>
-      <c r="P27" s="19"/>
-      <c r="Q27" s="19"/>
-      <c r="R27" s="19"/>
-      <c r="T27" s="19" t="s">
+      <c r="L27" s="27"/>
+      <c r="M27" s="27"/>
+      <c r="N27" s="27"/>
+      <c r="O27" s="27"/>
+      <c r="P27" s="27"/>
+      <c r="Q27" s="27"/>
+      <c r="R27" s="27"/>
+      <c r="T27" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="U27" s="19"/>
-      <c r="V27" s="19"/>
-      <c r="W27" s="19"/>
-      <c r="X27" s="19"/>
-      <c r="Y27" s="19"/>
-      <c r="Z27" s="19"/>
-      <c r="AA27" s="19"/>
-      <c r="AC27" s="28">
+      <c r="U27" s="27"/>
+      <c r="V27" s="27"/>
+      <c r="W27" s="27"/>
+      <c r="X27" s="27"/>
+      <c r="Y27" s="27"/>
+      <c r="Z27" s="27"/>
+      <c r="AA27" s="27"/>
+      <c r="AC27" s="29">
         <v>25000</v>
       </c>
     </row>
@@ -5343,7 +5343,7 @@
       <c r="AA28" s="1">
         <v>32</v>
       </c>
-      <c r="AC28" s="28"/>
+      <c r="AC28" s="29"/>
     </row>
     <row r="29" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B29" s="1" t="s">
@@ -5352,22 +5352,22 @@
       <c r="C29" s="6">
         <v>0.379</v>
       </c>
-      <c r="D29" s="21">
+      <c r="D29" s="19">
         <v>0.39300000000000002</v>
       </c>
-      <c r="E29" s="21">
+      <c r="E29" s="19">
         <v>0.39300000000000002</v>
       </c>
-      <c r="F29" s="21">
+      <c r="F29" s="19">
         <v>0.39300000000000002</v>
       </c>
-      <c r="G29" s="21">
+      <c r="G29" s="19">
         <v>0.39300000000000002</v>
       </c>
-      <c r="H29" s="21">
+      <c r="H29" s="19">
         <v>0.39200000000000002</v>
       </c>
-      <c r="I29" s="21">
+      <c r="I29" s="19">
         <v>0.39100000000000001</v>
       </c>
       <c r="K29" s="1" t="s">
@@ -5418,7 +5418,7 @@
       <c r="AA29" s="2">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AC29" s="28"/>
+      <c r="AC29" s="29"/>
     </row>
     <row r="30" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B30" s="1" t="s">
@@ -5493,7 +5493,7 @@
       <c r="AA30" s="15">
         <v>0.60699999999999998</v>
       </c>
-      <c r="AC30" s="28"/>
+      <c r="AC30" s="29"/>
     </row>
     <row r="31" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B31" s="1" t="s">
@@ -5508,13 +5508,13 @@
       <c r="E31" s="14">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="F31" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="G31" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="H31" s="24">
+      <c r="F31" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G31" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="H31" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="I31" s="14">
@@ -5556,10 +5556,10 @@
       <c r="W31" s="14">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="X31" s="24">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="Y31" s="24">
+      <c r="X31" s="22">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="Y31" s="22">
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="Z31" s="14">
@@ -5568,7 +5568,7 @@
       <c r="AA31" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="AC31" s="28"/>
+      <c r="AC31" s="29"/>
     </row>
     <row r="32" spans="2:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B32" s="1" t="s">
@@ -5643,7 +5643,7 @@
       <c r="AA32" s="14">
         <v>3.1E-2</v>
       </c>
-      <c r="AC32" s="28"/>
+      <c r="AC32" s="29"/>
     </row>
     <row r="33" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B33" s="1" t="s">
@@ -5718,7 +5718,7 @@
       <c r="AA33" s="14">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AC33" s="28"/>
+      <c r="AC33" s="29"/>
     </row>
     <row r="34" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B34" s="1" t="s">
@@ -5727,22 +5727,22 @@
       <c r="C34" s="7">
         <v>0</v>
       </c>
-      <c r="D34" s="20">
-        <v>0</v>
-      </c>
-      <c r="E34" s="20">
-        <v>0</v>
-      </c>
-      <c r="F34" s="20">
-        <v>0</v>
-      </c>
-      <c r="G34" s="20">
-        <v>0</v>
-      </c>
-      <c r="H34" s="20">
-        <v>0</v>
-      </c>
-      <c r="I34" s="20">
+      <c r="D34" s="18">
+        <v>0</v>
+      </c>
+      <c r="E34" s="18">
+        <v>0</v>
+      </c>
+      <c r="F34" s="18">
+        <v>0</v>
+      </c>
+      <c r="G34" s="18">
+        <v>0</v>
+      </c>
+      <c r="H34" s="18">
+        <v>0</v>
+      </c>
+      <c r="I34" s="18">
         <v>0</v>
       </c>
       <c r="K34" s="1" t="s">
@@ -5751,22 +5751,22 @@
       <c r="L34" s="7">
         <v>0</v>
       </c>
-      <c r="M34" s="20">
-        <v>0</v>
-      </c>
-      <c r="N34" s="20">
-        <v>0</v>
-      </c>
-      <c r="O34" s="20">
-        <v>0</v>
-      </c>
-      <c r="P34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="20">
-        <v>0</v>
-      </c>
-      <c r="R34" s="20">
+      <c r="M34" s="18">
+        <v>0</v>
+      </c>
+      <c r="N34" s="18">
+        <v>0</v>
+      </c>
+      <c r="O34" s="18">
+        <v>0</v>
+      </c>
+      <c r="P34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="18">
+        <v>0</v>
+      </c>
+      <c r="R34" s="18">
         <v>0</v>
       </c>
       <c r="T34" s="1" t="s">
@@ -5775,25 +5775,25 @@
       <c r="U34" s="7">
         <v>0</v>
       </c>
-      <c r="V34" s="20">
-        <v>0</v>
-      </c>
-      <c r="W34" s="20">
-        <v>0</v>
-      </c>
-      <c r="X34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="20">
-        <v>0</v>
-      </c>
-      <c r="Z34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AA34" s="20">
-        <v>0</v>
-      </c>
-      <c r="AC34" s="28"/>
+      <c r="V34" s="18">
+        <v>0</v>
+      </c>
+      <c r="W34" s="18">
+        <v>0</v>
+      </c>
+      <c r="X34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Y34" s="18">
+        <v>0</v>
+      </c>
+      <c r="Z34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AA34" s="18">
+        <v>0</v>
+      </c>
+      <c r="AC34" s="29"/>
     </row>
     <row r="35" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B35" s="1" t="s">
@@ -5803,28 +5803,28 @@
         <f>SUM(C29:C34)</f>
         <v>8.5780000000000012</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="21">
         <f>SUM(D29:D34)</f>
         <v>4.673</v>
       </c>
-      <c r="E35" s="23">
-        <f t="shared" ref="E35:M35" si="6">SUM(E29:E34)</f>
+      <c r="E35" s="21">
+        <f t="shared" ref="E35:I35" si="12">SUM(E29:E34)</f>
         <v>2.6320000000000001</v>
       </c>
-      <c r="F35" s="23">
-        <f t="shared" si="6"/>
+      <c r="F35" s="21">
+        <f t="shared" si="12"/>
         <v>1.7729999999999999</v>
       </c>
-      <c r="G35" s="23">
-        <f t="shared" si="6"/>
+      <c r="G35" s="21">
+        <f t="shared" si="12"/>
         <v>1.4289999999999998</v>
       </c>
-      <c r="H35" s="23">
-        <f t="shared" si="6"/>
+      <c r="H35" s="21">
+        <f t="shared" si="12"/>
         <v>1.3429999999999997</v>
       </c>
-      <c r="I35" s="23">
-        <f t="shared" si="6"/>
+      <c r="I35" s="21">
+        <f t="shared" si="12"/>
         <v>1.2230000000000001</v>
       </c>
       <c r="K35" s="1" t="s">
@@ -5839,23 +5839,23 @@
         <v>4.6180000000000003</v>
       </c>
       <c r="N35" s="3">
-        <f t="shared" ref="N35:V35" si="7">SUM(N29:N34)</f>
+        <f t="shared" ref="N35:R35" si="13">SUM(N29:N34)</f>
         <v>2.5460000000000003</v>
       </c>
       <c r="O35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.488</v>
       </c>
       <c r="P35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.1349999999999996</v>
       </c>
       <c r="Q35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0719999999999998</v>
       </c>
       <c r="R35" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>1.0179999999999998</v>
       </c>
       <c r="T35" s="1" t="s">
@@ -5870,26 +5870,26 @@
         <v>4.4790000000000001</v>
       </c>
       <c r="W35" s="3">
-        <f t="shared" ref="W35:AA35" si="8">SUM(W29:W34)</f>
+        <f t="shared" ref="W35:AA35" si="14">SUM(W29:W34)</f>
         <v>2.4950000000000001</v>
       </c>
       <c r="X35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.5019999999999998</v>
       </c>
       <c r="Y35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1839999999999997</v>
       </c>
       <c r="Z35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.1169999999999998</v>
       </c>
       <c r="AA35" s="3">
-        <f t="shared" si="8"/>
+        <f t="shared" si="14"/>
         <v>1.0369999999999997</v>
       </c>
-      <c r="AC35" s="28"/>
+      <c r="AC35" s="29"/>
     </row>
     <row r="36" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B36" s="1" t="s">
@@ -5898,28 +5898,28 @@
       <c r="C36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D36" s="26">
+      <c r="D36" s="24">
         <f>$U$35/D35</f>
         <v>1.8356516156644556</v>
       </c>
-      <c r="E36" s="26">
-        <f t="shared" ref="E36:I36" si="9">$U$35/E35</f>
+      <c r="E36" s="24">
+        <f t="shared" ref="E36:I36" si="15">$U$35/E35</f>
         <v>3.2591185410334349</v>
       </c>
-      <c r="F36" s="26">
-        <f t="shared" si="9"/>
+      <c r="F36" s="24">
+        <f t="shared" si="15"/>
         <v>4.8381274675690928</v>
       </c>
-      <c r="G36" s="26">
-        <f t="shared" si="9"/>
+      <c r="G36" s="24">
+        <f t="shared" si="15"/>
         <v>6.0027991602519259</v>
       </c>
-      <c r="H36" s="26">
-        <f t="shared" si="9"/>
+      <c r="H36" s="24">
+        <f t="shared" si="15"/>
         <v>6.3871928518242758</v>
       </c>
-      <c r="I36" s="26">
-        <f t="shared" si="9"/>
+      <c r="I36" s="24">
+        <f t="shared" si="15"/>
         <v>7.0139002452984469</v>
       </c>
       <c r="K36" s="1" t="s">
@@ -5928,28 +5928,28 @@
       <c r="L36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="26">
+      <c r="M36" s="24">
         <f>$L$35/M35</f>
         <v>1.8575140753572976</v>
       </c>
-      <c r="N36" s="26">
-        <f t="shared" ref="N36:R36" si="10">$L$35/N35</f>
+      <c r="N36" s="24">
+        <f t="shared" ref="N36:R36" si="16">$L$35/N35</f>
         <v>3.3692065985860173</v>
       </c>
-      <c r="O36" s="26">
-        <f t="shared" si="10"/>
+      <c r="O36" s="24">
+        <f t="shared" si="16"/>
         <v>5.7647849462365599</v>
       </c>
-      <c r="P36" s="26">
-        <f t="shared" si="10"/>
+      <c r="P36" s="24">
+        <f t="shared" si="16"/>
         <v>7.5577092511013255</v>
       </c>
-      <c r="Q36" s="26">
-        <f t="shared" si="10"/>
+      <c r="Q36" s="24">
+        <f t="shared" si="16"/>
         <v>8.0018656716417933</v>
       </c>
-      <c r="R36" s="26">
-        <f t="shared" si="10"/>
+      <c r="R36" s="24">
+        <f t="shared" si="16"/>
         <v>8.4263261296660144</v>
       </c>
       <c r="T36" s="1" t="s">
@@ -5958,31 +5958,31 @@
       <c r="U36" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V36" s="26">
+      <c r="V36" s="24">
         <f>$U$35/V35</f>
         <v>1.9151596338468411</v>
       </c>
-      <c r="W36" s="26">
-        <f t="shared" ref="W36:AA36" si="11">$U$35/W35</f>
+      <c r="W36" s="24">
+        <f t="shared" ref="W36:AA36" si="17">$U$35/W35</f>
         <v>3.4380761523046095</v>
       </c>
-      <c r="X36" s="26">
-        <f t="shared" si="11"/>
+      <c r="X36" s="24">
+        <f t="shared" si="17"/>
         <v>5.7110519307589893</v>
       </c>
-      <c r="Y36" s="26">
-        <f t="shared" si="11"/>
+      <c r="Y36" s="24">
+        <f t="shared" si="17"/>
         <v>7.2449324324324351</v>
       </c>
-      <c r="Z36" s="26">
-        <f t="shared" si="11"/>
+      <c r="Z36" s="24">
+        <f t="shared" si="17"/>
         <v>7.6794986571172812</v>
       </c>
-      <c r="AA36" s="26">
-        <f t="shared" si="11"/>
+      <c r="AA36" s="24">
+        <f t="shared" si="17"/>
         <v>8.2719382835101296</v>
       </c>
-      <c r="AC36" s="28"/>
+      <c r="AC36" s="29"/>
     </row>
     <row r="37" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="T37" s="4"/>
@@ -5993,40 +5993,40 @@
       <c r="Y37" s="4"/>
       <c r="Z37" s="4"/>
       <c r="AA37" s="4"/>
-      <c r="AC37" s="28"/>
+      <c r="AC37" s="29"/>
     </row>
     <row r="38" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="19" t="s">
+      <c r="B38" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C38" s="19"/>
-      <c r="D38" s="19"/>
-      <c r="E38" s="19"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="K38" s="19" t="s">
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="27"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="27"/>
+      <c r="H38" s="27"/>
+      <c r="I38" s="27"/>
+      <c r="K38" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="L38" s="19"/>
-      <c r="M38" s="19"/>
-      <c r="N38" s="19"/>
-      <c r="O38" s="19"/>
-      <c r="P38" s="19"/>
-      <c r="Q38" s="19"/>
-      <c r="R38" s="19"/>
-      <c r="T38" s="19" t="s">
+      <c r="L38" s="27"/>
+      <c r="M38" s="27"/>
+      <c r="N38" s="27"/>
+      <c r="O38" s="27"/>
+      <c r="P38" s="27"/>
+      <c r="Q38" s="27"/>
+      <c r="R38" s="27"/>
+      <c r="T38" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="U38" s="19"/>
-      <c r="V38" s="19"/>
-      <c r="W38" s="19"/>
-      <c r="X38" s="19"/>
-      <c r="Y38" s="19"/>
-      <c r="Z38" s="19"/>
-      <c r="AA38" s="19"/>
-      <c r="AC38" s="28"/>
+      <c r="U38" s="27"/>
+      <c r="V38" s="27"/>
+      <c r="W38" s="27"/>
+      <c r="X38" s="27"/>
+      <c r="Y38" s="27"/>
+      <c r="Z38" s="27"/>
+      <c r="AA38" s="27"/>
+      <c r="AC38" s="29"/>
     </row>
     <row r="39" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B39" s="1"/>
@@ -6095,7 +6095,7 @@
       <c r="AA39" s="1">
         <v>32</v>
       </c>
-      <c r="AC39" s="28"/>
+      <c r="AC39" s="29"/>
     </row>
     <row r="40" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B40" s="1" t="s">
@@ -6170,7 +6170,7 @@
       <c r="AA40" s="5">
         <v>0.39200000000000002</v>
       </c>
-      <c r="AC40" s="28"/>
+      <c r="AC40" s="29"/>
     </row>
     <row r="41" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B41" s="1" t="s">
@@ -6245,7 +6245,7 @@
       <c r="AA41" s="12">
         <v>0.33300000000000002</v>
       </c>
-      <c r="AC41" s="28"/>
+      <c r="AC41" s="29"/>
     </row>
     <row r="42" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B42" s="1" t="s">
@@ -6320,7 +6320,7 @@
       <c r="AA42" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="AC42" s="28"/>
+      <c r="AC42" s="29"/>
     </row>
     <row r="43" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A43" s="16"/>
@@ -6396,7 +6396,7 @@
       <c r="AA43" s="11">
         <v>2.3E-2</v>
       </c>
-      <c r="AC43" s="28"/>
+      <c r="AC43" s="29"/>
     </row>
     <row r="44" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B44" s="1" t="s">
@@ -6471,7 +6471,7 @@
       <c r="AA44" s="12">
         <v>3.0000000000000001E-3</v>
       </c>
-      <c r="AC44" s="28"/>
+      <c r="AC44" s="29"/>
     </row>
     <row r="45" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B45" s="1" t="s">
@@ -6480,22 +6480,22 @@
       <c r="C45" s="10">
         <v>0</v>
       </c>
-      <c r="D45" s="22">
-        <v>0</v>
-      </c>
-      <c r="E45" s="22">
-        <v>0</v>
-      </c>
-      <c r="F45" s="22">
-        <v>0</v>
-      </c>
-      <c r="G45" s="22">
-        <v>0</v>
-      </c>
-      <c r="H45" s="22">
-        <v>0</v>
-      </c>
-      <c r="I45" s="22">
+      <c r="D45" s="20">
+        <v>0</v>
+      </c>
+      <c r="E45" s="20">
+        <v>0</v>
+      </c>
+      <c r="F45" s="20">
+        <v>0</v>
+      </c>
+      <c r="G45" s="20">
+        <v>0</v>
+      </c>
+      <c r="H45" s="20">
+        <v>0</v>
+      </c>
+      <c r="I45" s="20">
         <v>0</v>
       </c>
       <c r="K45" s="1" t="s">
@@ -6504,22 +6504,22 @@
       <c r="L45" s="10">
         <v>0</v>
       </c>
-      <c r="M45" s="22">
-        <v>0</v>
-      </c>
-      <c r="N45" s="22">
-        <v>0</v>
-      </c>
-      <c r="O45" s="22">
-        <v>0</v>
-      </c>
-      <c r="P45" s="22">
-        <v>0</v>
-      </c>
-      <c r="Q45" s="22">
-        <v>0</v>
-      </c>
-      <c r="R45" s="22">
+      <c r="M45" s="20">
+        <v>0</v>
+      </c>
+      <c r="N45" s="20">
+        <v>0</v>
+      </c>
+      <c r="O45" s="20">
+        <v>0</v>
+      </c>
+      <c r="P45" s="20">
+        <v>0</v>
+      </c>
+      <c r="Q45" s="20">
+        <v>0</v>
+      </c>
+      <c r="R45" s="20">
         <v>0</v>
       </c>
       <c r="T45" s="1" t="s">
@@ -6528,25 +6528,25 @@
       <c r="U45" s="10">
         <v>0</v>
       </c>
-      <c r="V45" s="22">
-        <v>0</v>
-      </c>
-      <c r="W45" s="22">
-        <v>0</v>
-      </c>
-      <c r="X45" s="22">
-        <v>0</v>
-      </c>
-      <c r="Y45" s="22">
-        <v>0</v>
-      </c>
-      <c r="Z45" s="22">
-        <v>0</v>
-      </c>
-      <c r="AA45" s="22">
-        <v>0</v>
-      </c>
-      <c r="AC45" s="28"/>
+      <c r="V45" s="20">
+        <v>0</v>
+      </c>
+      <c r="W45" s="20">
+        <v>0</v>
+      </c>
+      <c r="X45" s="20">
+        <v>0</v>
+      </c>
+      <c r="Y45" s="20">
+        <v>0</v>
+      </c>
+      <c r="Z45" s="20">
+        <v>0</v>
+      </c>
+      <c r="AA45" s="20">
+        <v>0</v>
+      </c>
+      <c r="AC45" s="29"/>
     </row>
     <row r="46" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B46" s="1" t="s">
@@ -6561,23 +6561,23 @@
         <v>4.6320000000000006</v>
       </c>
       <c r="E46" s="5">
-        <f t="shared" ref="E46" si="12">SUM(E40:E45)</f>
+        <f t="shared" ref="E46" si="18">SUM(E40:E45)</f>
         <v>2.5410000000000004</v>
       </c>
       <c r="F46" s="5">
-        <f t="shared" ref="F46" si="13">SUM(F40:F45)</f>
+        <f t="shared" ref="F46" si="19">SUM(F40:F45)</f>
         <v>1.4999999999999998</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" ref="G46" si="14">SUM(G40:G45)</f>
+        <f t="shared" ref="G46" si="20">SUM(G40:G45)</f>
         <v>1.0029999999999999</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" ref="H46" si="15">SUM(H40:H45)</f>
+        <f t="shared" ref="H46" si="21">SUM(H40:H45)</f>
         <v>0.83200000000000007</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" ref="I46" si="16">SUM(I40:I45)</f>
+        <f t="shared" ref="I46" si="22">SUM(I40:I45)</f>
         <v>0.76300000000000012</v>
       </c>
       <c r="K46" s="1" t="s">
@@ -6592,23 +6592,23 @@
         <v>4.5860000000000003</v>
       </c>
       <c r="N46" s="5">
-        <f t="shared" ref="N46:V46" si="17">SUM(N40:N45)</f>
+        <f t="shared" ref="N46:R46" si="23">SUM(N40:N45)</f>
         <v>2.5710000000000002</v>
       </c>
       <c r="O46" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>1.496</v>
       </c>
       <c r="P46" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.99400000000000011</v>
       </c>
       <c r="Q46" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.83699999999999997</v>
       </c>
       <c r="R46" s="5">
-        <f t="shared" si="17"/>
+        <f t="shared" si="23"/>
         <v>0.76500000000000001</v>
       </c>
       <c r="T46" s="1" t="s">
@@ -6623,26 +6623,26 @@
         <v>4.5789999999999997</v>
       </c>
       <c r="W46" s="5">
-        <f t="shared" ref="W46:AA46" si="18">SUM(W40:W45)</f>
+        <f t="shared" ref="W46:AA46" si="24">SUM(W40:W45)</f>
         <v>2.4710000000000001</v>
       </c>
       <c r="X46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>1.4829999999999999</v>
       </c>
       <c r="Y46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.95900000000000007</v>
       </c>
       <c r="Z46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.83000000000000007</v>
       </c>
       <c r="AA46" s="5">
-        <f t="shared" si="18"/>
+        <f t="shared" si="24"/>
         <v>0.75600000000000012</v>
       </c>
-      <c r="AC46" s="28"/>
+      <c r="AC46" s="29"/>
     </row>
     <row r="47" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B47" s="1" t="s">
@@ -6651,28 +6651,28 @@
       <c r="C47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D47" s="26">
+      <c r="D47" s="24">
         <f>$C$46/D46</f>
         <v>1.8518998272884284</v>
       </c>
-      <c r="E47" s="26">
-        <f t="shared" ref="E47:I47" si="19">$C$46/E46</f>
+      <c r="E47" s="24">
+        <f t="shared" ref="E47:I47" si="25">$C$46/E46</f>
         <v>3.3758362849271939</v>
       </c>
-      <c r="F47" s="26">
-        <f t="shared" si="19"/>
+      <c r="F47" s="24">
+        <f t="shared" si="25"/>
         <v>5.7186666666666683</v>
       </c>
-      <c r="G47" s="26">
-        <f t="shared" si="19"/>
+      <c r="G47" s="24">
+        <f t="shared" si="25"/>
         <v>8.5523429710867411</v>
       </c>
-      <c r="H47" s="26">
-        <f t="shared" si="19"/>
+      <c r="H47" s="24">
+        <f t="shared" si="25"/>
         <v>10.310096153846155</v>
       </c>
-      <c r="I47" s="26">
-        <f t="shared" si="19"/>
+      <c r="I47" s="24">
+        <f t="shared" si="25"/>
         <v>11.242463958060288</v>
       </c>
       <c r="K47" s="1" t="s">
@@ -6681,28 +6681,28 @@
       <c r="L47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="M47" s="26">
+      <c r="M47" s="24">
         <f>$L$46/M46</f>
         <v>1.8704753597906674</v>
       </c>
-      <c r="N47" s="26">
-        <f t="shared" ref="N47:R47" si="20">$L$46/N46</f>
+      <c r="N47" s="24">
+        <f t="shared" ref="N47:R47" si="26">$L$46/N46</f>
         <v>3.3364449630493973</v>
       </c>
-      <c r="O47" s="26">
-        <f t="shared" si="20"/>
+      <c r="O47" s="24">
+        <f t="shared" si="26"/>
         <v>5.7339572192513373</v>
       </c>
-      <c r="P47" s="26">
-        <f t="shared" si="20"/>
+      <c r="P47" s="24">
+        <f t="shared" si="26"/>
         <v>8.6297786720321934</v>
       </c>
-      <c r="Q47" s="26">
-        <f t="shared" si="20"/>
+      <c r="Q47" s="24">
+        <f t="shared" si="26"/>
         <v>10.248506571087217</v>
       </c>
-      <c r="R47" s="26">
-        <f t="shared" si="20"/>
+      <c r="R47" s="24">
+        <f t="shared" si="26"/>
         <v>11.213071895424838</v>
       </c>
       <c r="T47" s="1" t="s">
@@ -6711,31 +6711,31 @@
       <c r="U47" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="V47" s="26">
+      <c r="V47" s="24">
         <f>$U$46/V46</f>
         <v>1.8733347892552963</v>
       </c>
-      <c r="W47" s="26">
-        <f t="shared" ref="W47:AA47" si="21">$U$46/W46</f>
+      <c r="W47" s="24">
+        <f t="shared" ref="W47:AA47" si="27">$U$46/W46</f>
         <v>3.4714690408741404</v>
       </c>
-      <c r="X47" s="26">
-        <f t="shared" si="21"/>
+      <c r="X47" s="24">
+        <f t="shared" si="27"/>
         <v>5.7842211732973716</v>
       </c>
-      <c r="Y47" s="26">
-        <f t="shared" si="21"/>
+      <c r="Y47" s="24">
+        <f t="shared" si="27"/>
         <v>8.9447340980187704</v>
       </c>
-      <c r="Z47" s="26">
-        <f t="shared" si="21"/>
+      <c r="Z47" s="24">
+        <f t="shared" si="27"/>
         <v>10.334939759036144</v>
       </c>
-      <c r="AA47" s="27">
-        <f t="shared" si="21"/>
+      <c r="AA47" s="25">
+        <f t="shared" si="27"/>
         <v>11.346560846560847</v>
       </c>
-      <c r="AC47" s="28"/>
+      <c r="AC47" s="29"/>
     </row>
     <row r="48" spans="1:29" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="49" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -6750,11 +6750,11 @@
     <row r="58" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="59" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="60" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="C60" s="19"/>
-      <c r="D60" s="19"/>
+      <c r="C60" s="27"/>
+      <c r="D60" s="27"/>
     </row>
     <row r="61" spans="2:4" ht="25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B61" s="1"/>
@@ -6851,7 +6851,7 @@
       <c r="C69" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D69" s="31">
+      <c r="D69" s="26">
         <f>C68/D68</f>
         <v>21.007802460069758</v>
       </c>
@@ -6879,14 +6879,6 @@
     <row r="90" ht="25" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B27:I27"/>
-    <mergeCell ref="K27:R27"/>
-    <mergeCell ref="T27:AA27"/>
-    <mergeCell ref="B2:AA3"/>
-    <mergeCell ref="T38:AA38"/>
-    <mergeCell ref="K38:R38"/>
-    <mergeCell ref="B38:I38"/>
     <mergeCell ref="AC5:AC25"/>
     <mergeCell ref="AC27:AC47"/>
     <mergeCell ref="AC2:AC3"/>
@@ -6896,6 +6888,14 @@
     <mergeCell ref="T5:AA5"/>
     <mergeCell ref="K5:R5"/>
     <mergeCell ref="B5:I5"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B27:I27"/>
+    <mergeCell ref="K27:R27"/>
+    <mergeCell ref="T27:AA27"/>
+    <mergeCell ref="B2:AA3"/>
+    <mergeCell ref="T38:AA38"/>
+    <mergeCell ref="K38:R38"/>
+    <mergeCell ref="B38:I38"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
